--- a/Journal-Travail-Thibaud-Racine.xlsx
+++ b/Journal-Travail-Thibaud-Racine.xlsx
@@ -8,10 +8,10 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\po44oov\Documents\GitHub\P_Prod-Passeport\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA2CD706-A10A-4ABD-AD6D-88E771934E6B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADEB08C0-E198-4BF8-B412-45D9B33DC67E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Mvap2W10CJFFJsnvkGXSiMLvpngxTMJbJsIKFe7Hzjn0XDcmjGuvBC2FjUCZ/hpRpUhUrG1T4kBlDAIo3yqmSQ==" workbookSaltValue="KXjgXOcsUZI/j7UgPKltzw==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="20355" windowHeight="15570" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="19695" windowHeight="15570" xr2:uid="{6CC57B32-2488-5244-B7A6-FB7E808234AC}"/>
   </bookViews>
   <sheets>
     <sheet name="Journal de travail" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>Journal de travail</t>
   </si>
@@ -188,6 +188,12 @@
   </si>
   <si>
     <t>Problèmes avec node js</t>
+  </si>
+  <si>
+    <t>Vacances</t>
+  </si>
+  <si>
+    <t>Départ de monsieur Sokoloff</t>
   </si>
 </sst>
 </file>
@@ -1182,7 +1188,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.1423611111111111</c:v>
+                  <c:v>0.24305555555555555</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1888,8 +1894,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G529" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
-  <autoFilter ref="A6:G529" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}" name="Table1" displayName="Table1" ref="A6:G518" totalsRowShown="0" headerRowDxfId="16" tableBorderDxfId="15">
+  <autoFilter ref="A6:G518" xr:uid="{F2213DF1-F6B1-174C-AC17-4E96BE96C00D}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{315BA4B4-9BD9-AB4E-8D40-FABFA0BB2AEA}" name="Semaine" dataDxfId="14">
       <calculatedColumnFormula>IF(ISBLANK(B7),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B7))</calculatedColumnFormula>
@@ -2091,11 +2097,11 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FF2E8F1-C793-7E43-B3DE-C075053A97DA}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O529"/>
+  <dimension ref="A1:O518"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="6" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <pane ySplit="6" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E50" sqref="E50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2148,7 +2154,7 @@
       </c>
       <c r="C3" s="22" t="str">
         <f>INT(E4/1440)&amp;" jours "&amp;INT(MOD(E4/1440,1)*24)&amp;" heures "&amp;INT(MOD(MOD(E4/1440,1)*24,1)*60)&amp;" minutes"</f>
-        <v>0 jours 10 heures 30 minutes</v>
+        <v>0 jours 20 heures 55 minutes</v>
       </c>
       <c r="D3" s="22"/>
       <c r="E3" s="3"/>
@@ -2162,16 +2168,16 @@
     <row r="4" spans="1:15" ht="23.25" hidden="1" x14ac:dyDescent="0.35">
       <c r="B4" s="5"/>
       <c r="C4" s="22">
-        <f>SUBTOTAL(9,$C$7:$C$528)*60</f>
-        <v>60</v>
+        <f>SUBTOTAL(9,$C$7:$C$517)*60</f>
+        <v>180</v>
       </c>
       <c r="D4" s="22">
-        <f>SUBTOTAL(9,$D$7:$D$528)</f>
-        <v>570</v>
+        <f>SUBTOTAL(9,$D$7:$D$517)</f>
+        <v>1075</v>
       </c>
       <c r="E4" s="40">
         <f>SUM(C4:D4)</f>
-        <v>630</v>
+        <v>1255</v>
       </c>
       <c r="F4" s="4"/>
       <c r="G4" s="7"/>
@@ -2765,7 +2771,9 @@
         <v>45560</v>
       </c>
       <c r="C32" s="47"/>
-      <c r="D32" s="48"/>
+      <c r="D32" s="48">
+        <v>45</v>
+      </c>
       <c r="E32" s="49"/>
       <c r="F32" s="36"/>
       <c r="G32" s="15"/>
@@ -2779,7 +2787,9 @@
         <v>45560</v>
       </c>
       <c r="C33" s="47"/>
-      <c r="D33" s="48"/>
+      <c r="D33" s="48">
+        <v>25</v>
+      </c>
       <c r="E33" s="49"/>
       <c r="F33" s="36"/>
       <c r="G33" s="15"/>
@@ -2793,7 +2803,9 @@
         <v>45560</v>
       </c>
       <c r="C34" s="47"/>
-      <c r="D34" s="48"/>
+      <c r="D34" s="48">
+        <v>20</v>
+      </c>
       <c r="E34" s="49"/>
       <c r="F34" s="36"/>
       <c r="G34" s="15"/>
@@ -2807,7 +2819,9 @@
         <v>45560</v>
       </c>
       <c r="C35" s="47"/>
-      <c r="D35" s="48"/>
+      <c r="D35" s="48">
+        <v>35</v>
+      </c>
       <c r="E35" s="49"/>
       <c r="F35" s="36"/>
       <c r="G35" s="15"/>
@@ -2821,278 +2835,320 @@
         <v>45560</v>
       </c>
       <c r="C36" s="47"/>
-      <c r="D36" s="48"/>
+      <c r="D36" s="48">
+        <v>10</v>
+      </c>
       <c r="E36" s="49"/>
       <c r="F36" s="36"/>
       <c r="G36" s="15"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="8">
+      <c r="A37" s="54" t="str">
         <f>IF(ISBLANK(B37),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B37))</f>
-        <v>39</v>
-      </c>
-      <c r="B37" s="46">
-        <v>45560</v>
-      </c>
-      <c r="C37" s="47"/>
-      <c r="D37" s="48"/>
-      <c r="E37" s="49"/>
-      <c r="F37" s="35"/>
-      <c r="G37" s="15"/>
+        <v/>
+      </c>
+      <c r="B37" s="55"/>
+      <c r="C37" s="56"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="58"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="60"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A38" s="54" t="str">
+      <c r="A38" s="8">
         <f>IF(ISBLANK(B38),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B38))</f>
-        <v/>
-      </c>
-      <c r="B38" s="55"/>
-      <c r="C38" s="56"/>
-      <c r="D38" s="57"/>
-      <c r="E38" s="58"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="60"/>
+        <v>40</v>
+      </c>
+      <c r="B38" s="46">
+        <v>45567</v>
+      </c>
+      <c r="C38" s="47"/>
+      <c r="D38" s="48">
+        <v>10</v>
+      </c>
+      <c r="E38" s="49"/>
+      <c r="F38" s="36"/>
+      <c r="G38" s="15"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A39" s="8">
+      <c r="A39" s="16">
         <f>IF(ISBLANK(B39),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B39))</f>
         <v>40</v>
       </c>
-      <c r="B39" s="46">
+      <c r="B39" s="50">
         <v>45567</v>
       </c>
       <c r="C39" s="47"/>
-      <c r="D39" s="48"/>
+      <c r="D39" s="48">
+        <v>20</v>
+      </c>
       <c r="E39" s="49"/>
       <c r="F39" s="36"/>
       <c r="G39" s="15"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A40" s="16">
+      <c r="A40" s="8">
         <f>IF(ISBLANK(B40),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B40))</f>
         <v>40</v>
       </c>
-      <c r="B40" s="50">
+      <c r="B40" s="46">
         <v>45567</v>
       </c>
       <c r="C40" s="47"/>
-      <c r="D40" s="48"/>
+      <c r="D40" s="48">
+        <v>15</v>
+      </c>
       <c r="E40" s="49"/>
       <c r="F40" s="36"/>
       <c r="G40" s="15"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A41" s="8">
+      <c r="A41" s="16">
         <f>IF(ISBLANK(B41),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B41))</f>
         <v>40</v>
       </c>
-      <c r="B41" s="46">
+      <c r="B41" s="50">
         <v>45567</v>
       </c>
       <c r="C41" s="47"/>
-      <c r="D41" s="48"/>
+      <c r="D41" s="48">
+        <v>25</v>
+      </c>
       <c r="E41" s="49"/>
       <c r="F41" s="36"/>
       <c r="G41" s="15"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A42" s="16">
+      <c r="A42" s="8">
         <f>IF(ISBLANK(B42),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B42))</f>
         <v>40</v>
       </c>
-      <c r="B42" s="50">
+      <c r="B42" s="46">
         <v>45567</v>
       </c>
       <c r="C42" s="47"/>
-      <c r="D42" s="48"/>
+      <c r="D42" s="48">
+        <v>20</v>
+      </c>
       <c r="E42" s="49"/>
       <c r="F42" s="36"/>
       <c r="G42" s="15"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A43" s="8">
+      <c r="A43" s="16">
         <f>IF(ISBLANK(B43),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B43))</f>
         <v>40</v>
       </c>
-      <c r="B43" s="46">
+      <c r="B43" s="50">
         <v>45567</v>
       </c>
       <c r="C43" s="47"/>
-      <c r="D43" s="48"/>
-      <c r="E43" s="49"/>
-      <c r="F43" s="36"/>
+      <c r="D43" s="48">
+        <v>45</v>
+      </c>
+      <c r="E43" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F43" s="35" t="s">
+        <v>50</v>
+      </c>
       <c r="G43" s="15"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A44" s="16">
+      <c r="A44" s="54" t="str">
         <f>IF(ISBLANK(B44),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B44))</f>
-        <v>40</v>
-      </c>
-      <c r="B44" s="50">
-        <v>45567</v>
-      </c>
-      <c r="C44" s="47"/>
-      <c r="D44" s="48"/>
-      <c r="E44" s="49"/>
-      <c r="F44" s="35"/>
-      <c r="G44" s="15"/>
+        <v/>
+      </c>
+      <c r="B44" s="55"/>
+      <c r="C44" s="56"/>
+      <c r="D44" s="57"/>
+      <c r="E44" s="58"/>
+      <c r="F44" s="59"/>
+      <c r="G44" s="60"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A45" s="54" t="str">
+      <c r="A45" s="16">
         <f>IF(ISBLANK(B45),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B45))</f>
-        <v/>
-      </c>
-      <c r="B45" s="55"/>
-      <c r="C45" s="56"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="58"/>
-      <c r="F45" s="59"/>
-      <c r="G45" s="60"/>
+        <v>41</v>
+      </c>
+      <c r="B45" s="50">
+        <v>45574</v>
+      </c>
+      <c r="C45" s="47"/>
+      <c r="D45" s="48">
+        <v>30</v>
+      </c>
+      <c r="E45" s="49"/>
+      <c r="F45" s="36"/>
+      <c r="G45" s="15"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A46" s="16">
+      <c r="A46" s="8">
         <f>IF(ISBLANK(B46),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B46))</f>
         <v>41</v>
       </c>
-      <c r="B46" s="50">
+      <c r="B46" s="46">
         <v>45574</v>
       </c>
       <c r="C46" s="47"/>
-      <c r="D46" s="48"/>
+      <c r="D46" s="48">
+        <v>30</v>
+      </c>
       <c r="E46" s="49"/>
       <c r="F46" s="36"/>
       <c r="G46" s="15"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A47" s="8">
+      <c r="A47" s="16">
         <f>IF(ISBLANK(B47),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B47))</f>
         <v>41</v>
       </c>
-      <c r="B47" s="46">
+      <c r="B47" s="50">
         <v>45574</v>
       </c>
       <c r="C47" s="47"/>
-      <c r="D47" s="48"/>
+      <c r="D47" s="48">
+        <v>20</v>
+      </c>
       <c r="E47" s="49"/>
       <c r="F47" s="36"/>
       <c r="G47" s="15"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A48" s="16">
+      <c r="A48" s="8">
         <f>IF(ISBLANK(B48),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B48))</f>
         <v>41</v>
       </c>
-      <c r="B48" s="50">
+      <c r="B48" s="46">
         <v>45574</v>
       </c>
       <c r="C48" s="47"/>
-      <c r="D48" s="48"/>
+      <c r="D48" s="48">
+        <v>10</v>
+      </c>
       <c r="E48" s="49"/>
       <c r="F48" s="36"/>
       <c r="G48" s="15"/>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A49" s="8">
+      <c r="A49" s="16">
         <f>IF(ISBLANK(B49),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B49))</f>
         <v>41</v>
       </c>
-      <c r="B49" s="46">
+      <c r="B49" s="50">
         <v>45574</v>
       </c>
       <c r="C49" s="47"/>
-      <c r="D49" s="48"/>
+      <c r="D49" s="48">
+        <v>15</v>
+      </c>
       <c r="E49" s="49"/>
       <c r="F49" s="36"/>
       <c r="G49" s="15"/>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A50" s="16">
+      <c r="A50" s="8">
         <f>IF(ISBLANK(B50),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B50))</f>
         <v>41</v>
       </c>
-      <c r="B50" s="50">
+      <c r="B50" s="46">
         <v>45574</v>
       </c>
       <c r="C50" s="47"/>
-      <c r="D50" s="48"/>
+      <c r="D50" s="48">
+        <v>30</v>
+      </c>
       <c r="E50" s="49"/>
-      <c r="F50" s="36"/>
+      <c r="F50" s="35"/>
       <c r="G50" s="15"/>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A51" s="8">
+      <c r="A51" s="54" t="str">
         <f>IF(ISBLANK(B51),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B51))</f>
-        <v>41</v>
-      </c>
-      <c r="B51" s="46">
-        <v>45574</v>
-      </c>
-      <c r="C51" s="47"/>
-      <c r="D51" s="48"/>
-      <c r="E51" s="49"/>
-      <c r="F51" s="35"/>
-      <c r="G51" s="15"/>
+        <v/>
+      </c>
+      <c r="B51" s="55"/>
+      <c r="C51" s="56"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="58"/>
+      <c r="F51" s="59"/>
+      <c r="G51" s="60"/>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A52" s="54" t="str">
+      <c r="A52" s="16">
         <f>IF(ISBLANK(B52),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B52))</f>
-        <v/>
-      </c>
-      <c r="B52" s="55"/>
-      <c r="C52" s="56"/>
-      <c r="D52" s="57"/>
-      <c r="E52" s="58"/>
-      <c r="F52" s="59"/>
-      <c r="G52" s="60"/>
+        <v>42</v>
+      </c>
+      <c r="B52" s="50">
+        <v>45581</v>
+      </c>
+      <c r="C52" s="47">
+        <v>1</v>
+      </c>
+      <c r="D52" s="48">
+        <v>50</v>
+      </c>
+      <c r="E52" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F52" s="35" t="s">
+        <v>49</v>
+      </c>
+      <c r="G52" s="15"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A53" s="8">
+      <c r="A53" s="54" t="str">
         <f>IF(ISBLANK(B53),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B53))</f>
-        <v>42</v>
-      </c>
-      <c r="B53" s="46">
-        <v>45581</v>
-      </c>
-      <c r="C53" s="47"/>
-      <c r="D53" s="48"/>
-      <c r="E53" s="49"/>
-      <c r="F53" s="36"/>
-      <c r="G53" s="15"/>
+        <v/>
+      </c>
+      <c r="B53" s="55"/>
+      <c r="C53" s="56"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="58"/>
+      <c r="F53" s="59"/>
+      <c r="G53" s="60"/>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A54" s="16">
+      <c r="A54" s="8">
         <f>IF(ISBLANK(B54),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B54))</f>
-        <v>42</v>
-      </c>
-      <c r="B54" s="50">
-        <v>45581</v>
-      </c>
-      <c r="C54" s="47"/>
-      <c r="D54" s="48"/>
-      <c r="E54" s="49"/>
-      <c r="F54" s="36"/>
+        <v>43</v>
+      </c>
+      <c r="B54" s="46">
+        <v>45588</v>
+      </c>
+      <c r="C54" s="47">
+        <v>1</v>
+      </c>
+      <c r="D54" s="48">
+        <v>50</v>
+      </c>
+      <c r="E54" s="49" t="s">
+        <v>22</v>
+      </c>
+      <c r="F54" s="35" t="s">
+        <v>49</v>
+      </c>
       <c r="G54" s="15"/>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A55" s="8">
+      <c r="A55" s="54" t="str">
         <f>IF(ISBLANK(B55),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B55))</f>
-        <v>42</v>
-      </c>
-      <c r="B55" s="46">
-        <v>45581</v>
-      </c>
-      <c r="C55" s="47"/>
-      <c r="D55" s="48"/>
-      <c r="E55" s="49"/>
-      <c r="F55" s="36"/>
-      <c r="G55" s="15"/>
+        <v/>
+      </c>
+      <c r="B55" s="55"/>
+      <c r="C55" s="56"/>
+      <c r="D55" s="57"/>
+      <c r="E55" s="58"/>
+      <c r="F55" s="59"/>
+      <c r="G55" s="60"/>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A56" s="16">
+      <c r="A56" s="8">
         <f>IF(ISBLANK(B56),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B56))</f>
-        <v>42</v>
-      </c>
-      <c r="B56" s="50">
-        <v>45581</v>
+        <v>44</v>
+      </c>
+      <c r="B56" s="46">
+        <v>45595</v>
       </c>
       <c r="C56" s="47"/>
       <c r="D56" s="48"/>
@@ -3101,12 +3157,12 @@
       <c r="G56" s="15"/>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A57" s="8">
+      <c r="A57" s="16">
         <f>IF(ISBLANK(B57),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B57))</f>
-        <v>42</v>
-      </c>
-      <c r="B57" s="46">
-        <v>45581</v>
+        <v>44</v>
+      </c>
+      <c r="B57" s="50">
+        <v>45595</v>
       </c>
       <c r="C57" s="47"/>
       <c r="D57" s="48"/>
@@ -3115,38 +3171,40 @@
       <c r="G57" s="15"/>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A58" s="16">
+      <c r="A58" s="8">
         <f>IF(ISBLANK(B58),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B58))</f>
-        <v>42</v>
-      </c>
-      <c r="B58" s="50">
-        <v>45581</v>
+        <v>44</v>
+      </c>
+      <c r="B58" s="46">
+        <v>45595</v>
       </c>
       <c r="C58" s="47"/>
       <c r="D58" s="48"/>
       <c r="E58" s="49"/>
-      <c r="F58" s="35"/>
+      <c r="F58" s="36"/>
       <c r="G58" s="15"/>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A59" s="54" t="str">
+      <c r="A59" s="16">
         <f>IF(ISBLANK(B59),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B59))</f>
-        <v/>
-      </c>
-      <c r="B59" s="55"/>
-      <c r="C59" s="56"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="58"/>
-      <c r="F59" s="59"/>
-      <c r="G59" s="60"/>
+        <v>44</v>
+      </c>
+      <c r="B59" s="50">
+        <v>45595</v>
+      </c>
+      <c r="C59" s="47"/>
+      <c r="D59" s="48"/>
+      <c r="E59" s="49"/>
+      <c r="F59" s="36"/>
+      <c r="G59" s="15"/>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A60" s="16">
+      <c r="A60" s="8">
         <f>IF(ISBLANK(B60),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B60))</f>
-        <v>43</v>
-      </c>
-      <c r="B60" s="50">
-        <v>45588</v>
+        <v>44</v>
+      </c>
+      <c r="B60" s="46">
+        <v>45595</v>
       </c>
       <c r="C60" s="47"/>
       <c r="D60" s="48"/>
@@ -3155,5654 +3213,5502 @@
       <c r="G60" s="15"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A61" s="8">
+      <c r="A61" s="16">
         <f>IF(ISBLANK(B61),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B61))</f>
-        <v>43</v>
-      </c>
-      <c r="B61" s="46">
-        <v>45588</v>
+        <v>44</v>
+      </c>
+      <c r="B61" s="50">
+        <v>45595</v>
       </c>
       <c r="C61" s="47"/>
       <c r="D61" s="48"/>
       <c r="E61" s="49"/>
-      <c r="F61" s="36"/>
+      <c r="F61" s="35"/>
       <c r="G61" s="15"/>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A62" s="16">
+      <c r="A62" s="54" t="str">
         <f>IF(ISBLANK(B62),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B62))</f>
-        <v>43</v>
-      </c>
-      <c r="B62" s="50">
-        <v>45588</v>
-      </c>
-      <c r="C62" s="47"/>
-      <c r="D62" s="48"/>
-      <c r="E62" s="49"/>
-      <c r="F62" s="36"/>
-      <c r="G62" s="15"/>
+        <v/>
+      </c>
+      <c r="B62" s="55"/>
+      <c r="C62" s="56"/>
+      <c r="D62" s="57"/>
+      <c r="E62" s="58"/>
+      <c r="F62" s="59"/>
+      <c r="G62" s="60"/>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A63" s="8">
+      <c r="A63" s="16" t="str">
         <f>IF(ISBLANK(B63),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B63))</f>
-        <v>43</v>
-      </c>
-      <c r="B63" s="46">
-        <v>45588</v>
-      </c>
-      <c r="C63" s="47"/>
-      <c r="D63" s="48"/>
-      <c r="E63" s="49"/>
-      <c r="F63" s="36"/>
-      <c r="G63" s="15"/>
+        <v/>
+      </c>
+      <c r="B63" s="50"/>
+      <c r="C63" s="51"/>
+      <c r="D63" s="52"/>
+      <c r="E63" s="53"/>
+      <c r="F63" s="17"/>
+      <c r="G63" s="17"/>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A64" s="16">
+      <c r="A64" s="8" t="str">
         <f>IF(ISBLANK(B64),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B64))</f>
-        <v>43</v>
-      </c>
-      <c r="B64" s="50">
-        <v>45588</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B64" s="46"/>
       <c r="C64" s="47"/>
       <c r="D64" s="48"/>
       <c r="E64" s="49"/>
-      <c r="F64" s="36"/>
+      <c r="F64" s="15"/>
       <c r="G64" s="15"/>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A65" s="8">
+      <c r="A65" s="16" t="str">
         <f>IF(ISBLANK(B65),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B65))</f>
-        <v>43</v>
-      </c>
-      <c r="B65" s="46">
-        <v>45588</v>
-      </c>
-      <c r="C65" s="47"/>
-      <c r="D65" s="48"/>
-      <c r="E65" s="49"/>
-      <c r="F65" s="35"/>
-      <c r="G65" s="15"/>
+        <v/>
+      </c>
+      <c r="B65" s="50"/>
+      <c r="C65" s="51"/>
+      <c r="D65" s="52"/>
+      <c r="E65" s="53"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="17"/>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A66" s="54" t="str">
+      <c r="A66" s="8" t="str">
         <f>IF(ISBLANK(B66),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B66))</f>
         <v/>
       </c>
-      <c r="B66" s="55"/>
-      <c r="C66" s="56"/>
-      <c r="D66" s="57"/>
-      <c r="E66" s="58"/>
-      <c r="F66" s="59"/>
-      <c r="G66" s="60"/>
+      <c r="B66" s="46"/>
+      <c r="C66" s="47"/>
+      <c r="D66" s="48"/>
+      <c r="E66" s="49"/>
+      <c r="F66" s="15"/>
+      <c r="G66" s="15"/>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A67" s="8">
+      <c r="A67" s="16" t="str">
         <f>IF(ISBLANK(B67),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B67))</f>
-        <v>44</v>
-      </c>
-      <c r="B67" s="46">
-        <v>45595</v>
-      </c>
-      <c r="C67" s="47"/>
-      <c r="D67" s="48"/>
-      <c r="E67" s="49"/>
-      <c r="F67" s="36"/>
-      <c r="G67" s="15"/>
+        <v/>
+      </c>
+      <c r="B67" s="50"/>
+      <c r="C67" s="51"/>
+      <c r="D67" s="52"/>
+      <c r="E67" s="53"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="17"/>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A68" s="16">
+      <c r="A68" s="8" t="str">
         <f>IF(ISBLANK(B68),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B68))</f>
-        <v>44</v>
-      </c>
-      <c r="B68" s="50">
-        <v>45595</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B68" s="46"/>
       <c r="C68" s="47"/>
       <c r="D68" s="48"/>
       <c r="E68" s="49"/>
-      <c r="F68" s="36"/>
+      <c r="F68" s="15"/>
       <c r="G68" s="15"/>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A69" s="8">
+      <c r="A69" s="16" t="str">
         <f>IF(ISBLANK(B69),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B69))</f>
-        <v>44</v>
-      </c>
-      <c r="B69" s="46">
-        <v>45595</v>
-      </c>
-      <c r="C69" s="47"/>
-      <c r="D69" s="48"/>
-      <c r="E69" s="49"/>
-      <c r="F69" s="36"/>
-      <c r="G69" s="15"/>
+        <v/>
+      </c>
+      <c r="B69" s="50"/>
+      <c r="C69" s="51"/>
+      <c r="D69" s="52"/>
+      <c r="E69" s="53"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="17"/>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A70" s="16">
+      <c r="A70" s="8" t="str">
         <f>IF(ISBLANK(B70),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B70))</f>
-        <v>44</v>
-      </c>
-      <c r="B70" s="50">
-        <v>45595</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B70" s="46"/>
       <c r="C70" s="47"/>
       <c r="D70" s="48"/>
       <c r="E70" s="49"/>
-      <c r="F70" s="36"/>
+      <c r="F70" s="15"/>
       <c r="G70" s="15"/>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A71" s="8">
+      <c r="A71" s="16" t="str">
         <f>IF(ISBLANK(B71),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B71))</f>
-        <v>44</v>
-      </c>
-      <c r="B71" s="46">
-        <v>45595</v>
-      </c>
-      <c r="C71" s="47"/>
-      <c r="D71" s="48"/>
-      <c r="E71" s="49"/>
-      <c r="F71" s="36"/>
-      <c r="G71" s="15"/>
+        <v/>
+      </c>
+      <c r="B71" s="50"/>
+      <c r="C71" s="51"/>
+      <c r="D71" s="52"/>
+      <c r="E71" s="53"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="17"/>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A72" s="16">
+      <c r="A72" s="8" t="str">
         <f>IF(ISBLANK(B72),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B72))</f>
-        <v>44</v>
-      </c>
-      <c r="B72" s="50">
-        <v>45595</v>
-      </c>
+        <v/>
+      </c>
+      <c r="B72" s="46"/>
       <c r="C72" s="47"/>
       <c r="D72" s="48"/>
       <c r="E72" s="49"/>
-      <c r="F72" s="35"/>
+      <c r="F72" s="15"/>
       <c r="G72" s="15"/>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="54" t="str">
+      <c r="A73" s="16" t="str">
         <f>IF(ISBLANK(B73),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B73))</f>
         <v/>
       </c>
-      <c r="B73" s="55"/>
-      <c r="C73" s="56"/>
-      <c r="D73" s="57"/>
-      <c r="E73" s="58"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="60"/>
+      <c r="B73" s="50"/>
+      <c r="C73" s="51"/>
+      <c r="D73" s="52"/>
+      <c r="E73" s="53"/>
+      <c r="F73" s="17"/>
+      <c r="G73" s="17"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="16" t="str">
+      <c r="A74" s="8" t="str">
         <f>IF(ISBLANK(B74),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B74))</f>
         <v/>
       </c>
-      <c r="B74" s="50"/>
-      <c r="C74" s="51"/>
-      <c r="D74" s="52"/>
-      <c r="E74" s="53"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
+      <c r="B74" s="46"/>
+      <c r="C74" s="47"/>
+      <c r="D74" s="48"/>
+      <c r="E74" s="49"/>
+      <c r="F74" s="15"/>
+      <c r="G74" s="15"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="8" t="str">
+      <c r="A75" s="16" t="str">
         <f>IF(ISBLANK(B75),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B75))</f>
         <v/>
       </c>
-      <c r="B75" s="46"/>
-      <c r="C75" s="47"/>
-      <c r="D75" s="48"/>
-      <c r="E75" s="49"/>
-      <c r="F75" s="15"/>
-      <c r="G75" s="15"/>
+      <c r="B75" s="50"/>
+      <c r="C75" s="51"/>
+      <c r="D75" s="52"/>
+      <c r="E75" s="53"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="16" t="str">
+      <c r="A76" s="8" t="str">
         <f>IF(ISBLANK(B76),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B76))</f>
         <v/>
       </c>
-      <c r="B76" s="50"/>
-      <c r="C76" s="51"/>
-      <c r="D76" s="52"/>
-      <c r="E76" s="53"/>
-      <c r="F76" s="17"/>
-      <c r="G76" s="17"/>
+      <c r="B76" s="46"/>
+      <c r="C76" s="47"/>
+      <c r="D76" s="48"/>
+      <c r="E76" s="49"/>
+      <c r="F76" s="15"/>
+      <c r="G76" s="15"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="8" t="str">
+      <c r="A77" s="16" t="str">
         <f>IF(ISBLANK(B77),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B77))</f>
         <v/>
       </c>
-      <c r="B77" s="46"/>
-      <c r="C77" s="47"/>
-      <c r="D77" s="48"/>
-      <c r="E77" s="49"/>
-      <c r="F77" s="15"/>
-      <c r="G77" s="15"/>
+      <c r="B77" s="50"/>
+      <c r="C77" s="51"/>
+      <c r="D77" s="52"/>
+      <c r="E77" s="53"/>
+      <c r="F77" s="17"/>
+      <c r="G77" s="17"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="16" t="str">
+      <c r="A78" s="8" t="str">
         <f>IF(ISBLANK(B78),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B78))</f>
         <v/>
       </c>
-      <c r="B78" s="50"/>
-      <c r="C78" s="51"/>
-      <c r="D78" s="52"/>
-      <c r="E78" s="53"/>
-      <c r="F78" s="17"/>
-      <c r="G78" s="17"/>
+      <c r="B78" s="46"/>
+      <c r="C78" s="47"/>
+      <c r="D78" s="48"/>
+      <c r="E78" s="49"/>
+      <c r="F78" s="15"/>
+      <c r="G78" s="15"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="8" t="str">
+      <c r="A79" s="16" t="str">
         <f>IF(ISBLANK(B79),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B79))</f>
         <v/>
       </c>
-      <c r="B79" s="46"/>
-      <c r="C79" s="47"/>
-      <c r="D79" s="48"/>
-      <c r="E79" s="49"/>
-      <c r="F79" s="15"/>
-      <c r="G79" s="15"/>
+      <c r="B79" s="50"/>
+      <c r="C79" s="51"/>
+      <c r="D79" s="52"/>
+      <c r="E79" s="53"/>
+      <c r="F79" s="17"/>
+      <c r="G79" s="17"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="16" t="str">
+      <c r="A80" s="8" t="str">
         <f>IF(ISBLANK(B80),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B80))</f>
         <v/>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="51"/>
-      <c r="D80" s="52"/>
-      <c r="E80" s="53"/>
-      <c r="F80" s="17"/>
-      <c r="G80" s="17"/>
+      <c r="B80" s="46"/>
+      <c r="C80" s="47"/>
+      <c r="D80" s="48"/>
+      <c r="E80" s="49"/>
+      <c r="F80" s="15"/>
+      <c r="G80" s="15"/>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A81" s="8" t="str">
+      <c r="A81" s="16" t="str">
         <f>IF(ISBLANK(B81),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B81))</f>
         <v/>
       </c>
-      <c r="B81" s="46"/>
-      <c r="C81" s="47"/>
-      <c r="D81" s="48"/>
-      <c r="E81" s="49"/>
-      <c r="F81" s="15"/>
-      <c r="G81" s="15"/>
+      <c r="B81" s="50"/>
+      <c r="C81" s="51"/>
+      <c r="D81" s="52"/>
+      <c r="E81" s="53"/>
+      <c r="F81" s="17"/>
+      <c r="G81" s="17"/>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A82" s="16" t="str">
+      <c r="A82" s="8" t="str">
         <f>IF(ISBLANK(B82),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B82))</f>
         <v/>
       </c>
-      <c r="B82" s="50"/>
-      <c r="C82" s="51"/>
-      <c r="D82" s="52"/>
-      <c r="E82" s="53"/>
-      <c r="F82" s="17"/>
-      <c r="G82" s="17"/>
+      <c r="B82" s="46"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="48"/>
+      <c r="E82" s="49"/>
+      <c r="F82" s="15"/>
+      <c r="G82" s="15"/>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A83" s="8" t="str">
+      <c r="A83" s="16" t="str">
         <f>IF(ISBLANK(B83),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B83))</f>
         <v/>
       </c>
-      <c r="B83" s="46"/>
-      <c r="C83" s="47"/>
-      <c r="D83" s="48"/>
-      <c r="E83" s="49"/>
-      <c r="F83" s="15"/>
-      <c r="G83" s="15"/>
+      <c r="B83" s="50"/>
+      <c r="C83" s="51"/>
+      <c r="D83" s="52"/>
+      <c r="E83" s="53"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A84" s="16" t="str">
+      <c r="A84" s="8" t="str">
         <f>IF(ISBLANK(B84),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B84))</f>
         <v/>
       </c>
-      <c r="B84" s="50"/>
-      <c r="C84" s="51"/>
-      <c r="D84" s="52"/>
-      <c r="E84" s="53"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
+      <c r="B84" s="46"/>
+      <c r="C84" s="47"/>
+      <c r="D84" s="48"/>
+      <c r="E84" s="49"/>
+      <c r="F84" s="15"/>
+      <c r="G84" s="15"/>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A85" s="8" t="str">
+      <c r="A85" s="16" t="str">
         <f>IF(ISBLANK(B85),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B85))</f>
         <v/>
       </c>
-      <c r="B85" s="46"/>
-      <c r="C85" s="47"/>
-      <c r="D85" s="48"/>
-      <c r="E85" s="49"/>
-      <c r="F85" s="15"/>
-      <c r="G85" s="15"/>
+      <c r="B85" s="50"/>
+      <c r="C85" s="51"/>
+      <c r="D85" s="52"/>
+      <c r="E85" s="53"/>
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A86" s="16" t="str">
+      <c r="A86" s="8" t="str">
         <f>IF(ISBLANK(B86),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B86))</f>
         <v/>
       </c>
-      <c r="B86" s="50"/>
-      <c r="C86" s="51"/>
-      <c r="D86" s="52"/>
-      <c r="E86" s="53"/>
-      <c r="F86" s="17"/>
-      <c r="G86" s="17"/>
+      <c r="B86" s="46"/>
+      <c r="C86" s="47"/>
+      <c r="D86" s="48"/>
+      <c r="E86" s="49"/>
+      <c r="F86" s="15"/>
+      <c r="G86" s="15"/>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A87" s="8" t="str">
+      <c r="A87" s="16" t="str">
         <f>IF(ISBLANK(B87),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B87))</f>
         <v/>
       </c>
-      <c r="B87" s="46"/>
-      <c r="C87" s="47"/>
-      <c r="D87" s="48"/>
-      <c r="E87" s="49"/>
-      <c r="F87" s="15"/>
-      <c r="G87" s="15"/>
+      <c r="B87" s="50"/>
+      <c r="C87" s="51"/>
+      <c r="D87" s="52"/>
+      <c r="E87" s="53"/>
+      <c r="F87" s="17"/>
+      <c r="G87" s="17"/>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A88" s="16" t="str">
+      <c r="A88" s="8" t="str">
         <f>IF(ISBLANK(B88),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B88))</f>
         <v/>
       </c>
-      <c r="B88" s="50"/>
-      <c r="C88" s="51"/>
-      <c r="D88" s="52"/>
-      <c r="E88" s="53"/>
-      <c r="F88" s="17"/>
-      <c r="G88" s="17"/>
+      <c r="B88" s="46"/>
+      <c r="C88" s="47"/>
+      <c r="D88" s="48"/>
+      <c r="E88" s="49"/>
+      <c r="F88" s="15"/>
+      <c r="G88" s="15"/>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A89" s="8" t="str">
+      <c r="A89" s="16" t="str">
         <f>IF(ISBLANK(B89),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B89))</f>
         <v/>
       </c>
-      <c r="B89" s="46"/>
-      <c r="C89" s="47"/>
-      <c r="D89" s="48"/>
-      <c r="E89" s="49"/>
-      <c r="F89" s="15"/>
-      <c r="G89" s="15"/>
+      <c r="B89" s="50"/>
+      <c r="C89" s="51"/>
+      <c r="D89" s="52"/>
+      <c r="E89" s="53"/>
+      <c r="F89" s="17"/>
+      <c r="G89" s="17"/>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A90" s="16" t="str">
+      <c r="A90" s="8" t="str">
         <f>IF(ISBLANK(B90),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B90))</f>
         <v/>
       </c>
-      <c r="B90" s="50"/>
-      <c r="C90" s="51"/>
-      <c r="D90" s="52"/>
-      <c r="E90" s="53"/>
-      <c r="F90" s="17"/>
-      <c r="G90" s="17"/>
+      <c r="B90" s="46"/>
+      <c r="C90" s="47"/>
+      <c r="D90" s="48"/>
+      <c r="E90" s="49"/>
+      <c r="F90" s="15"/>
+      <c r="G90" s="15"/>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A91" s="8" t="str">
+      <c r="A91" s="16" t="str">
         <f>IF(ISBLANK(B91),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B91))</f>
         <v/>
       </c>
-      <c r="B91" s="46"/>
-      <c r="C91" s="47"/>
-      <c r="D91" s="48"/>
-      <c r="E91" s="49"/>
-      <c r="F91" s="15"/>
-      <c r="G91" s="15"/>
+      <c r="B91" s="50"/>
+      <c r="C91" s="51"/>
+      <c r="D91" s="52"/>
+      <c r="E91" s="53"/>
+      <c r="F91" s="17"/>
+      <c r="G91" s="17"/>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A92" s="16" t="str">
+      <c r="A92" s="8" t="str">
         <f>IF(ISBLANK(B92),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B92))</f>
         <v/>
       </c>
-      <c r="B92" s="50"/>
-      <c r="C92" s="51"/>
-      <c r="D92" s="52"/>
-      <c r="E92" s="53"/>
-      <c r="F92" s="17"/>
-      <c r="G92" s="17"/>
+      <c r="B92" s="46"/>
+      <c r="C92" s="47"/>
+      <c r="D92" s="48"/>
+      <c r="E92" s="49"/>
+      <c r="F92" s="15"/>
+      <c r="G92" s="15"/>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A93" s="8" t="str">
+      <c r="A93" s="16" t="str">
         <f>IF(ISBLANK(B93),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B93))</f>
         <v/>
       </c>
-      <c r="B93" s="46"/>
-      <c r="C93" s="47"/>
-      <c r="D93" s="48"/>
-      <c r="E93" s="49"/>
-      <c r="F93" s="15"/>
-      <c r="G93" s="15"/>
+      <c r="B93" s="50"/>
+      <c r="C93" s="51"/>
+      <c r="D93" s="52"/>
+      <c r="E93" s="53"/>
+      <c r="F93" s="17"/>
+      <c r="G93" s="17"/>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A94" s="16" t="str">
+      <c r="A94" s="8" t="str">
         <f>IF(ISBLANK(B94),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B94))</f>
         <v/>
       </c>
-      <c r="B94" s="50"/>
-      <c r="C94" s="51"/>
-      <c r="D94" s="52"/>
-      <c r="E94" s="53"/>
-      <c r="F94" s="17"/>
-      <c r="G94" s="17"/>
+      <c r="B94" s="46"/>
+      <c r="C94" s="47"/>
+      <c r="D94" s="48"/>
+      <c r="E94" s="49"/>
+      <c r="F94" s="15"/>
+      <c r="G94" s="15"/>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A95" s="8" t="str">
+      <c r="A95" s="16" t="str">
         <f>IF(ISBLANK(B95),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B95))</f>
         <v/>
       </c>
-      <c r="B95" s="46"/>
-      <c r="C95" s="47"/>
-      <c r="D95" s="48"/>
-      <c r="E95" s="49"/>
-      <c r="F95" s="15"/>
-      <c r="G95" s="15"/>
+      <c r="B95" s="50"/>
+      <c r="C95" s="51"/>
+      <c r="D95" s="52"/>
+      <c r="E95" s="53"/>
+      <c r="F95" s="17"/>
+      <c r="G95" s="17"/>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A96" s="16" t="str">
+      <c r="A96" s="8" t="str">
         <f>IF(ISBLANK(B96),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B96))</f>
         <v/>
       </c>
-      <c r="B96" s="50"/>
-      <c r="C96" s="51"/>
-      <c r="D96" s="52"/>
-      <c r="E96" s="53"/>
-      <c r="F96" s="17"/>
-      <c r="G96" s="17"/>
+      <c r="B96" s="46"/>
+      <c r="C96" s="47"/>
+      <c r="D96" s="48"/>
+      <c r="E96" s="49"/>
+      <c r="F96" s="15"/>
+      <c r="G96" s="15"/>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A97" s="8" t="str">
+      <c r="A97" s="16" t="str">
         <f>IF(ISBLANK(B97),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B97))</f>
         <v/>
       </c>
-      <c r="B97" s="46"/>
-      <c r="C97" s="47"/>
-      <c r="D97" s="48"/>
-      <c r="E97" s="49"/>
-      <c r="F97" s="15"/>
-      <c r="G97" s="15"/>
+      <c r="B97" s="50"/>
+      <c r="C97" s="51"/>
+      <c r="D97" s="52"/>
+      <c r="E97" s="53"/>
+      <c r="F97" s="17"/>
+      <c r="G97" s="17"/>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A98" s="16" t="str">
+      <c r="A98" s="8" t="str">
         <f>IF(ISBLANK(B98),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B98))</f>
         <v/>
       </c>
-      <c r="B98" s="50"/>
-      <c r="C98" s="51"/>
-      <c r="D98" s="52"/>
-      <c r="E98" s="53"/>
-      <c r="F98" s="17"/>
-      <c r="G98" s="17"/>
+      <c r="B98" s="46"/>
+      <c r="C98" s="47"/>
+      <c r="D98" s="48"/>
+      <c r="E98" s="49"/>
+      <c r="F98" s="15"/>
+      <c r="G98" s="15"/>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A99" s="8" t="str">
+      <c r="A99" s="16" t="str">
         <f>IF(ISBLANK(B99),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B99))</f>
         <v/>
       </c>
-      <c r="B99" s="46"/>
-      <c r="C99" s="47"/>
-      <c r="D99" s="48"/>
-      <c r="E99" s="49"/>
-      <c r="F99" s="15"/>
-      <c r="G99" s="15"/>
+      <c r="B99" s="50"/>
+      <c r="C99" s="51"/>
+      <c r="D99" s="52"/>
+      <c r="E99" s="53"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A100" s="16" t="str">
+      <c r="A100" s="8" t="str">
         <f>IF(ISBLANK(B100),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B100))</f>
         <v/>
       </c>
-      <c r="B100" s="50"/>
-      <c r="C100" s="51"/>
-      <c r="D100" s="52"/>
-      <c r="E100" s="53"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
+      <c r="B100" s="46"/>
+      <c r="C100" s="47"/>
+      <c r="D100" s="48"/>
+      <c r="E100" s="49"/>
+      <c r="F100" s="15"/>
+      <c r="G100" s="15"/>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A101" s="8" t="str">
+      <c r="A101" s="16" t="str">
         <f>IF(ISBLANK(B101),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B101))</f>
         <v/>
       </c>
-      <c r="B101" s="46"/>
-      <c r="C101" s="47"/>
-      <c r="D101" s="48"/>
-      <c r="E101" s="49"/>
-      <c r="F101" s="15"/>
-      <c r="G101" s="15"/>
+      <c r="B101" s="50"/>
+      <c r="C101" s="51"/>
+      <c r="D101" s="52"/>
+      <c r="E101" s="53"/>
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A102" s="16" t="str">
+      <c r="A102" s="8" t="str">
         <f>IF(ISBLANK(B102),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B102))</f>
         <v/>
       </c>
-      <c r="B102" s="50"/>
-      <c r="C102" s="51"/>
-      <c r="D102" s="52"/>
-      <c r="E102" s="53"/>
-      <c r="F102" s="17"/>
-      <c r="G102" s="17"/>
+      <c r="B102" s="46"/>
+      <c r="C102" s="47"/>
+      <c r="D102" s="48"/>
+      <c r="E102" s="49"/>
+      <c r="F102" s="15"/>
+      <c r="G102" s="15"/>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A103" s="8" t="str">
+      <c r="A103" s="16" t="str">
         <f>IF(ISBLANK(B103),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B103))</f>
         <v/>
       </c>
-      <c r="B103" s="46"/>
-      <c r="C103" s="47"/>
-      <c r="D103" s="48"/>
-      <c r="E103" s="49"/>
-      <c r="F103" s="15"/>
-      <c r="G103" s="15"/>
+      <c r="B103" s="50"/>
+      <c r="C103" s="51"/>
+      <c r="D103" s="52"/>
+      <c r="E103" s="53"/>
+      <c r="F103" s="17"/>
+      <c r="G103" s="17"/>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A104" s="16" t="str">
+      <c r="A104" s="8" t="str">
         <f>IF(ISBLANK(B104),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B104))</f>
         <v/>
       </c>
-      <c r="B104" s="50"/>
-      <c r="C104" s="51"/>
-      <c r="D104" s="52"/>
-      <c r="E104" s="53"/>
-      <c r="F104" s="17"/>
-      <c r="G104" s="17"/>
+      <c r="B104" s="46"/>
+      <c r="C104" s="47"/>
+      <c r="D104" s="48"/>
+      <c r="E104" s="49"/>
+      <c r="F104" s="15"/>
+      <c r="G104" s="15"/>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A105" s="8" t="str">
+      <c r="A105" s="16" t="str">
         <f>IF(ISBLANK(B105),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B105))</f>
         <v/>
       </c>
-      <c r="B105" s="46"/>
-      <c r="C105" s="47"/>
-      <c r="D105" s="48"/>
-      <c r="E105" s="49"/>
-      <c r="F105" s="15"/>
-      <c r="G105" s="15"/>
+      <c r="B105" s="50"/>
+      <c r="C105" s="51"/>
+      <c r="D105" s="52"/>
+      <c r="E105" s="53"/>
+      <c r="F105" s="17"/>
+      <c r="G105" s="17"/>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A106" s="16" t="str">
+      <c r="A106" s="8" t="str">
         <f>IF(ISBLANK(B106),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B106))</f>
         <v/>
       </c>
-      <c r="B106" s="50"/>
-      <c r="C106" s="51"/>
-      <c r="D106" s="52"/>
-      <c r="E106" s="53"/>
-      <c r="F106" s="17"/>
-      <c r="G106" s="17"/>
+      <c r="B106" s="46"/>
+      <c r="C106" s="47"/>
+      <c r="D106" s="48"/>
+      <c r="E106" s="49"/>
+      <c r="F106" s="15"/>
+      <c r="G106" s="15"/>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A107" s="8" t="str">
+      <c r="A107" s="16" t="str">
         <f>IF(ISBLANK(B107),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B107))</f>
         <v/>
       </c>
-      <c r="B107" s="46"/>
-      <c r="C107" s="47"/>
-      <c r="D107" s="48"/>
-      <c r="E107" s="49"/>
-      <c r="F107" s="15"/>
-      <c r="G107" s="15"/>
+      <c r="B107" s="50"/>
+      <c r="C107" s="51"/>
+      <c r="D107" s="52"/>
+      <c r="E107" s="53"/>
+      <c r="F107" s="17"/>
+      <c r="G107" s="17"/>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A108" s="16" t="str">
+      <c r="A108" s="8" t="str">
         <f>IF(ISBLANK(B108),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B108))</f>
         <v/>
       </c>
-      <c r="B108" s="50"/>
-      <c r="C108" s="51"/>
-      <c r="D108" s="52"/>
-      <c r="E108" s="53"/>
-      <c r="F108" s="17"/>
-      <c r="G108" s="17"/>
+      <c r="B108" s="46"/>
+      <c r="C108" s="47"/>
+      <c r="D108" s="48"/>
+      <c r="E108" s="49"/>
+      <c r="F108" s="15"/>
+      <c r="G108" s="15"/>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="8" t="str">
+      <c r="A109" s="16" t="str">
         <f>IF(ISBLANK(B109),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B109))</f>
         <v/>
       </c>
-      <c r="B109" s="46"/>
-      <c r="C109" s="47"/>
-      <c r="D109" s="48"/>
-      <c r="E109" s="49"/>
-      <c r="F109" s="15"/>
-      <c r="G109" s="15"/>
+      <c r="B109" s="50"/>
+      <c r="C109" s="51"/>
+      <c r="D109" s="52"/>
+      <c r="E109" s="53"/>
+      <c r="F109" s="17"/>
+      <c r="G109" s="17"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="16" t="str">
+      <c r="A110" s="8" t="str">
         <f>IF(ISBLANK(B110),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B110))</f>
         <v/>
       </c>
-      <c r="B110" s="50"/>
-      <c r="C110" s="51"/>
-      <c r="D110" s="52"/>
-      <c r="E110" s="53"/>
-      <c r="F110" s="17"/>
-      <c r="G110" s="17"/>
+      <c r="B110" s="46"/>
+      <c r="C110" s="47"/>
+      <c r="D110" s="48"/>
+      <c r="E110" s="49"/>
+      <c r="F110" s="15"/>
+      <c r="G110" s="15"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="8" t="str">
+      <c r="A111" s="16" t="str">
         <f>IF(ISBLANK(B111),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B111))</f>
         <v/>
       </c>
-      <c r="B111" s="46"/>
-      <c r="C111" s="47"/>
-      <c r="D111" s="48"/>
-      <c r="E111" s="49"/>
-      <c r="F111" s="15"/>
-      <c r="G111" s="15"/>
+      <c r="B111" s="50"/>
+      <c r="C111" s="51"/>
+      <c r="D111" s="52"/>
+      <c r="E111" s="53"/>
+      <c r="F111" s="17"/>
+      <c r="G111" s="17"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="16" t="str">
+      <c r="A112" s="8" t="str">
         <f>IF(ISBLANK(B112),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B112))</f>
         <v/>
       </c>
-      <c r="B112" s="50"/>
-      <c r="C112" s="51"/>
-      <c r="D112" s="52"/>
-      <c r="E112" s="53"/>
-      <c r="F112" s="17"/>
-      <c r="G112" s="17"/>
+      <c r="B112" s="46"/>
+      <c r="C112" s="47"/>
+      <c r="D112" s="48"/>
+      <c r="E112" s="49"/>
+      <c r="F112" s="15"/>
+      <c r="G112" s="15"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="8" t="str">
+      <c r="A113" s="16" t="str">
         <f>IF(ISBLANK(B113),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B113))</f>
         <v/>
       </c>
-      <c r="B113" s="46"/>
-      <c r="C113" s="47"/>
-      <c r="D113" s="48"/>
-      <c r="E113" s="49"/>
-      <c r="F113" s="15"/>
-      <c r="G113" s="15"/>
+      <c r="B113" s="50"/>
+      <c r="C113" s="51"/>
+      <c r="D113" s="52"/>
+      <c r="E113" s="53"/>
+      <c r="F113" s="17"/>
+      <c r="G113" s="17"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="16" t="str">
+      <c r="A114" s="8" t="str">
         <f>IF(ISBLANK(B114),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B114))</f>
         <v/>
       </c>
-      <c r="B114" s="50"/>
-      <c r="C114" s="51"/>
-      <c r="D114" s="52"/>
-      <c r="E114" s="53"/>
-      <c r="F114" s="17"/>
-      <c r="G114" s="17"/>
+      <c r="B114" s="46"/>
+      <c r="C114" s="47"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="49"/>
+      <c r="F114" s="15"/>
+      <c r="G114" s="15"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="8" t="str">
+      <c r="A115" s="16" t="str">
         <f>IF(ISBLANK(B115),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B115))</f>
         <v/>
       </c>
-      <c r="B115" s="46"/>
-      <c r="C115" s="47"/>
-      <c r="D115" s="48"/>
-      <c r="E115" s="49"/>
-      <c r="F115" s="15"/>
-      <c r="G115" s="15"/>
+      <c r="B115" s="50"/>
+      <c r="C115" s="51"/>
+      <c r="D115" s="52"/>
+      <c r="E115" s="53"/>
+      <c r="F115" s="17"/>
+      <c r="G115" s="17"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="16" t="str">
+      <c r="A116" s="8" t="str">
         <f>IF(ISBLANK(B116),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B116))</f>
         <v/>
       </c>
-      <c r="B116" s="50"/>
-      <c r="C116" s="51"/>
-      <c r="D116" s="52"/>
-      <c r="E116" s="53"/>
-      <c r="F116" s="17"/>
-      <c r="G116" s="17"/>
+      <c r="B116" s="46"/>
+      <c r="C116" s="47"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="49"/>
+      <c r="F116" s="15"/>
+      <c r="G116" s="15"/>
     </row>
     <row r="117" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A117" s="8" t="str">
+      <c r="A117" s="16" t="str">
         <f>IF(ISBLANK(B117),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B117))</f>
         <v/>
       </c>
-      <c r="B117" s="46"/>
-      <c r="C117" s="47"/>
-      <c r="D117" s="48"/>
-      <c r="E117" s="49"/>
-      <c r="F117" s="15"/>
-      <c r="G117" s="15"/>
+      <c r="B117" s="50"/>
+      <c r="C117" s="51"/>
+      <c r="D117" s="52"/>
+      <c r="E117" s="53"/>
+      <c r="F117" s="17"/>
+      <c r="G117" s="17"/>
     </row>
     <row r="118" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A118" s="16" t="str">
+      <c r="A118" s="8" t="str">
         <f>IF(ISBLANK(B118),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B118))</f>
         <v/>
       </c>
-      <c r="B118" s="50"/>
-      <c r="C118" s="51"/>
-      <c r="D118" s="52"/>
-      <c r="E118" s="53"/>
-      <c r="F118" s="17"/>
-      <c r="G118" s="17"/>
+      <c r="B118" s="46"/>
+      <c r="C118" s="47"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="49"/>
+      <c r="F118" s="15"/>
+      <c r="G118" s="15"/>
     </row>
     <row r="119" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A119" s="8" t="str">
+      <c r="A119" s="16" t="str">
         <f>IF(ISBLANK(B119),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B119))</f>
         <v/>
       </c>
-      <c r="B119" s="46"/>
-      <c r="C119" s="47"/>
-      <c r="D119" s="48"/>
-      <c r="E119" s="49"/>
-      <c r="F119" s="15"/>
-      <c r="G119" s="15"/>
+      <c r="B119" s="50"/>
+      <c r="C119" s="51"/>
+      <c r="D119" s="52"/>
+      <c r="E119" s="53"/>
+      <c r="F119" s="17"/>
+      <c r="G119" s="17"/>
     </row>
     <row r="120" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A120" s="16" t="str">
+      <c r="A120" s="8" t="str">
         <f>IF(ISBLANK(B120),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B120))</f>
         <v/>
       </c>
-      <c r="B120" s="50"/>
-      <c r="C120" s="51"/>
-      <c r="D120" s="52"/>
-      <c r="E120" s="53"/>
-      <c r="F120" s="17"/>
-      <c r="G120" s="17"/>
+      <c r="B120" s="46"/>
+      <c r="C120" s="47"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="49"/>
+      <c r="F120" s="15"/>
+      <c r="G120" s="15"/>
     </row>
     <row r="121" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A121" s="8" t="str">
+      <c r="A121" s="16" t="str">
         <f>IF(ISBLANK(B121),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B121))</f>
         <v/>
       </c>
-      <c r="B121" s="46"/>
-      <c r="C121" s="47"/>
-      <c r="D121" s="48"/>
-      <c r="E121" s="49"/>
-      <c r="F121" s="15"/>
-      <c r="G121" s="15"/>
+      <c r="B121" s="50"/>
+      <c r="C121" s="51"/>
+      <c r="D121" s="52"/>
+      <c r="E121" s="53"/>
+      <c r="F121" s="17"/>
+      <c r="G121" s="17"/>
     </row>
     <row r="122" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A122" s="16" t="str">
+      <c r="A122" s="8" t="str">
         <f>IF(ISBLANK(B122),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B122))</f>
         <v/>
       </c>
-      <c r="B122" s="50"/>
-      <c r="C122" s="51"/>
-      <c r="D122" s="52"/>
-      <c r="E122" s="53"/>
-      <c r="F122" s="17"/>
-      <c r="G122" s="17"/>
+      <c r="B122" s="46"/>
+      <c r="C122" s="47"/>
+      <c r="D122" s="48"/>
+      <c r="E122" s="49"/>
+      <c r="F122" s="15"/>
+      <c r="G122" s="15"/>
     </row>
     <row r="123" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A123" s="8" t="str">
+      <c r="A123" s="16" t="str">
         <f>IF(ISBLANK(B123),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B123))</f>
         <v/>
       </c>
-      <c r="B123" s="46"/>
-      <c r="C123" s="47"/>
-      <c r="D123" s="48"/>
-      <c r="E123" s="49"/>
-      <c r="F123" s="15"/>
-      <c r="G123" s="15"/>
+      <c r="B123" s="50"/>
+      <c r="C123" s="51"/>
+      <c r="D123" s="52"/>
+      <c r="E123" s="53"/>
+      <c r="F123" s="17"/>
+      <c r="G123" s="17"/>
     </row>
     <row r="124" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A124" s="16" t="str">
+      <c r="A124" s="8" t="str">
         <f>IF(ISBLANK(B124),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B124))</f>
         <v/>
       </c>
-      <c r="B124" s="50"/>
-      <c r="C124" s="51"/>
-      <c r="D124" s="52"/>
-      <c r="E124" s="53"/>
-      <c r="F124" s="17"/>
-      <c r="G124" s="17"/>
+      <c r="B124" s="46"/>
+      <c r="C124" s="47"/>
+      <c r="D124" s="48"/>
+      <c r="E124" s="49"/>
+      <c r="F124" s="15"/>
+      <c r="G124" s="15"/>
     </row>
     <row r="125" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A125" s="8" t="str">
+      <c r="A125" s="16" t="str">
         <f>IF(ISBLANK(B125),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B125))</f>
         <v/>
       </c>
-      <c r="B125" s="46"/>
-      <c r="C125" s="47"/>
-      <c r="D125" s="48"/>
-      <c r="E125" s="49"/>
-      <c r="F125" s="15"/>
-      <c r="G125" s="15"/>
+      <c r="B125" s="50"/>
+      <c r="C125" s="51"/>
+      <c r="D125" s="52"/>
+      <c r="E125" s="53"/>
+      <c r="F125" s="17"/>
+      <c r="G125" s="17"/>
     </row>
     <row r="126" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A126" s="16" t="str">
+      <c r="A126" s="8" t="str">
         <f>IF(ISBLANK(B126),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B126))</f>
         <v/>
       </c>
-      <c r="B126" s="50"/>
-      <c r="C126" s="51"/>
-      <c r="D126" s="52"/>
-      <c r="E126" s="53"/>
-      <c r="F126" s="17"/>
-      <c r="G126" s="17"/>
+      <c r="B126" s="46"/>
+      <c r="C126" s="47"/>
+      <c r="D126" s="48"/>
+      <c r="E126" s="49"/>
+      <c r="F126" s="15"/>
+      <c r="G126" s="15"/>
     </row>
     <row r="127" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A127" s="8" t="str">
+      <c r="A127" s="16" t="str">
         <f>IF(ISBLANK(B127),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B127))</f>
         <v/>
       </c>
-      <c r="B127" s="46"/>
-      <c r="C127" s="47"/>
-      <c r="D127" s="48"/>
-      <c r="E127" s="49"/>
-      <c r="F127" s="15"/>
-      <c r="G127" s="15"/>
+      <c r="B127" s="50"/>
+      <c r="C127" s="51"/>
+      <c r="D127" s="52"/>
+      <c r="E127" s="53"/>
+      <c r="F127" s="17"/>
+      <c r="G127" s="17"/>
     </row>
     <row r="128" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A128" s="16" t="str">
+      <c r="A128" s="8" t="str">
         <f>IF(ISBLANK(B128),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B128))</f>
         <v/>
       </c>
-      <c r="B128" s="50"/>
-      <c r="C128" s="51"/>
-      <c r="D128" s="52"/>
-      <c r="E128" s="53"/>
-      <c r="F128" s="17"/>
-      <c r="G128" s="17"/>
+      <c r="B128" s="46"/>
+      <c r="C128" s="47"/>
+      <c r="D128" s="48"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="15"/>
+      <c r="G128" s="15"/>
     </row>
     <row r="129" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A129" s="8" t="str">
+      <c r="A129" s="16" t="str">
         <f>IF(ISBLANK(B129),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B129))</f>
         <v/>
       </c>
-      <c r="B129" s="46"/>
-      <c r="C129" s="47"/>
-      <c r="D129" s="48"/>
-      <c r="E129" s="49"/>
-      <c r="F129" s="15"/>
-      <c r="G129" s="15"/>
+      <c r="B129" s="50"/>
+      <c r="C129" s="51"/>
+      <c r="D129" s="52"/>
+      <c r="E129" s="53"/>
+      <c r="F129" s="17"/>
+      <c r="G129" s="17"/>
     </row>
     <row r="130" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A130" s="16" t="str">
+      <c r="A130" s="8" t="str">
         <f>IF(ISBLANK(B130),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B130))</f>
         <v/>
       </c>
-      <c r="B130" s="50"/>
-      <c r="C130" s="51"/>
-      <c r="D130" s="52"/>
-      <c r="E130" s="53"/>
-      <c r="F130" s="17"/>
-      <c r="G130" s="17"/>
+      <c r="B130" s="46"/>
+      <c r="C130" s="47"/>
+      <c r="D130" s="48"/>
+      <c r="E130" s="49"/>
+      <c r="F130" s="15"/>
+      <c r="G130" s="15"/>
     </row>
     <row r="131" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A131" s="8" t="str">
+      <c r="A131" s="16" t="str">
         <f>IF(ISBLANK(B131),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B131))</f>
         <v/>
       </c>
-      <c r="B131" s="46"/>
-      <c r="C131" s="47"/>
-      <c r="D131" s="48"/>
-      <c r="E131" s="49"/>
-      <c r="F131" s="15"/>
-      <c r="G131" s="15"/>
+      <c r="B131" s="50"/>
+      <c r="C131" s="51"/>
+      <c r="D131" s="52"/>
+      <c r="E131" s="53"/>
+      <c r="F131" s="17"/>
+      <c r="G131" s="17"/>
     </row>
     <row r="132" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A132" s="16" t="str">
+      <c r="A132" s="8" t="str">
         <f>IF(ISBLANK(B132),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B132))</f>
         <v/>
       </c>
-      <c r="B132" s="50"/>
-      <c r="C132" s="51"/>
-      <c r="D132" s="52"/>
-      <c r="E132" s="53"/>
-      <c r="F132" s="17"/>
-      <c r="G132" s="17"/>
+      <c r="B132" s="46"/>
+      <c r="C132" s="47"/>
+      <c r="D132" s="48"/>
+      <c r="E132" s="49"/>
+      <c r="F132" s="15"/>
+      <c r="G132" s="15"/>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="8" t="str">
+      <c r="A133" s="16" t="str">
         <f>IF(ISBLANK(B133),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B133))</f>
         <v/>
       </c>
-      <c r="B133" s="46"/>
-      <c r="C133" s="47"/>
-      <c r="D133" s="48"/>
-      <c r="E133" s="49"/>
-      <c r="F133" s="15"/>
-      <c r="G133" s="15"/>
+      <c r="B133" s="50"/>
+      <c r="C133" s="51"/>
+      <c r="D133" s="52"/>
+      <c r="E133" s="53"/>
+      <c r="F133" s="17"/>
+      <c r="G133" s="17"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="16" t="str">
+      <c r="A134" s="8" t="str">
         <f>IF(ISBLANK(B134),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B134))</f>
         <v/>
       </c>
-      <c r="B134" s="50"/>
-      <c r="C134" s="51"/>
-      <c r="D134" s="52"/>
-      <c r="E134" s="53"/>
-      <c r="F134" s="17"/>
-      <c r="G134" s="17"/>
+      <c r="B134" s="46"/>
+      <c r="C134" s="47"/>
+      <c r="D134" s="48"/>
+      <c r="E134" s="49"/>
+      <c r="F134" s="15"/>
+      <c r="G134" s="15"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="8" t="str">
+      <c r="A135" s="16" t="str">
         <f>IF(ISBLANK(B135),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B135))</f>
         <v/>
       </c>
-      <c r="B135" s="46"/>
-      <c r="C135" s="47"/>
-      <c r="D135" s="48"/>
-      <c r="E135" s="49"/>
-      <c r="F135" s="15"/>
-      <c r="G135" s="15"/>
+      <c r="B135" s="50"/>
+      <c r="C135" s="51"/>
+      <c r="D135" s="52"/>
+      <c r="E135" s="53"/>
+      <c r="F135" s="17"/>
+      <c r="G135" s="17"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="16" t="str">
+      <c r="A136" s="8" t="str">
         <f>IF(ISBLANK(B136),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B136))</f>
         <v/>
       </c>
-      <c r="B136" s="50"/>
-      <c r="C136" s="51"/>
-      <c r="D136" s="52"/>
-      <c r="E136" s="53"/>
-      <c r="F136" s="17"/>
-      <c r="G136" s="17"/>
+      <c r="B136" s="46"/>
+      <c r="C136" s="47"/>
+      <c r="D136" s="48"/>
+      <c r="E136" s="49"/>
+      <c r="F136" s="15"/>
+      <c r="G136" s="15"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="8" t="str">
+      <c r="A137" s="16" t="str">
         <f>IF(ISBLANK(B137),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B137))</f>
         <v/>
       </c>
-      <c r="B137" s="46"/>
-      <c r="C137" s="47"/>
-      <c r="D137" s="48"/>
-      <c r="E137" s="49"/>
-      <c r="F137" s="15"/>
-      <c r="G137" s="15"/>
+      <c r="B137" s="50"/>
+      <c r="C137" s="51"/>
+      <c r="D137" s="52"/>
+      <c r="E137" s="53"/>
+      <c r="F137" s="17"/>
+      <c r="G137" s="17"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="16" t="str">
+      <c r="A138" s="8" t="str">
         <f>IF(ISBLANK(B138),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B138))</f>
         <v/>
       </c>
-      <c r="B138" s="50"/>
-      <c r="C138" s="51"/>
-      <c r="D138" s="52"/>
-      <c r="E138" s="53"/>
-      <c r="F138" s="17"/>
-      <c r="G138" s="17"/>
+      <c r="B138" s="46"/>
+      <c r="C138" s="47"/>
+      <c r="D138" s="48"/>
+      <c r="E138" s="49"/>
+      <c r="F138" s="15"/>
+      <c r="G138" s="15"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="8" t="str">
+      <c r="A139" s="16" t="str">
         <f>IF(ISBLANK(B139),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B139))</f>
         <v/>
       </c>
-      <c r="B139" s="46"/>
-      <c r="C139" s="47"/>
-      <c r="D139" s="48"/>
-      <c r="E139" s="49"/>
-      <c r="F139" s="15"/>
-      <c r="G139" s="15"/>
+      <c r="B139" s="50"/>
+      <c r="C139" s="51"/>
+      <c r="D139" s="52"/>
+      <c r="E139" s="53"/>
+      <c r="F139" s="17"/>
+      <c r="G139" s="17"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="16" t="str">
+      <c r="A140" s="8" t="str">
         <f>IF(ISBLANK(B140),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B140))</f>
         <v/>
       </c>
-      <c r="B140" s="50"/>
-      <c r="C140" s="51"/>
-      <c r="D140" s="52"/>
-      <c r="E140" s="53"/>
-      <c r="F140" s="17"/>
-      <c r="G140" s="17"/>
+      <c r="B140" s="46"/>
+      <c r="C140" s="47"/>
+      <c r="D140" s="48"/>
+      <c r="E140" s="49"/>
+      <c r="F140" s="15"/>
+      <c r="G140" s="15"/>
     </row>
     <row r="141" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A141" s="8" t="str">
+      <c r="A141" s="16" t="str">
         <f>IF(ISBLANK(B141),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B141))</f>
         <v/>
       </c>
-      <c r="B141" s="46"/>
-      <c r="C141" s="47"/>
-      <c r="D141" s="48"/>
-      <c r="E141" s="49"/>
-      <c r="F141" s="15"/>
-      <c r="G141" s="15"/>
+      <c r="B141" s="50"/>
+      <c r="C141" s="51"/>
+      <c r="D141" s="52"/>
+      <c r="E141" s="53"/>
+      <c r="F141" s="17"/>
+      <c r="G141" s="17"/>
     </row>
     <row r="142" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A142" s="16" t="str">
+      <c r="A142" s="8" t="str">
         <f>IF(ISBLANK(B142),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B142))</f>
         <v/>
       </c>
-      <c r="B142" s="50"/>
-      <c r="C142" s="51"/>
-      <c r="D142" s="52"/>
-      <c r="E142" s="53"/>
-      <c r="F142" s="17"/>
-      <c r="G142" s="17"/>
+      <c r="B142" s="46"/>
+      <c r="C142" s="47"/>
+      <c r="D142" s="48"/>
+      <c r="E142" s="49"/>
+      <c r="F142" s="15"/>
+      <c r="G142" s="15"/>
     </row>
     <row r="143" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A143" s="8" t="str">
+      <c r="A143" s="16" t="str">
         <f>IF(ISBLANK(B143),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B143))</f>
         <v/>
       </c>
-      <c r="B143" s="46"/>
-      <c r="C143" s="47"/>
-      <c r="D143" s="48"/>
-      <c r="E143" s="49"/>
-      <c r="F143" s="15"/>
-      <c r="G143" s="15"/>
+      <c r="B143" s="50"/>
+      <c r="C143" s="51"/>
+      <c r="D143" s="52"/>
+      <c r="E143" s="53"/>
+      <c r="F143" s="17"/>
+      <c r="G143" s="17"/>
     </row>
     <row r="144" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A144" s="16" t="str">
+      <c r="A144" s="8" t="str">
         <f>IF(ISBLANK(B144),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B144))</f>
         <v/>
       </c>
-      <c r="B144" s="50"/>
-      <c r="C144" s="51"/>
-      <c r="D144" s="52"/>
-      <c r="E144" s="53"/>
-      <c r="F144" s="17"/>
-      <c r="G144" s="17"/>
+      <c r="B144" s="46"/>
+      <c r="C144" s="47"/>
+      <c r="D144" s="48"/>
+      <c r="E144" s="49"/>
+      <c r="F144" s="15"/>
+      <c r="G144" s="15"/>
     </row>
     <row r="145" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A145" s="8" t="str">
+      <c r="A145" s="16" t="str">
         <f>IF(ISBLANK(B145),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B145))</f>
         <v/>
       </c>
-      <c r="B145" s="46"/>
-      <c r="C145" s="47"/>
-      <c r="D145" s="48"/>
-      <c r="E145" s="49"/>
-      <c r="F145" s="15"/>
-      <c r="G145" s="15"/>
+      <c r="B145" s="50"/>
+      <c r="C145" s="51"/>
+      <c r="D145" s="52"/>
+      <c r="E145" s="53"/>
+      <c r="F145" s="17"/>
+      <c r="G145" s="17"/>
     </row>
     <row r="146" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A146" s="16" t="str">
+      <c r="A146" s="8" t="str">
         <f>IF(ISBLANK(B146),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B146))</f>
         <v/>
       </c>
-      <c r="B146" s="50"/>
-      <c r="C146" s="51"/>
-      <c r="D146" s="52"/>
-      <c r="E146" s="53"/>
-      <c r="F146" s="17"/>
-      <c r="G146" s="17"/>
+      <c r="B146" s="46"/>
+      <c r="C146" s="47"/>
+      <c r="D146" s="48"/>
+      <c r="E146" s="49"/>
+      <c r="F146" s="15"/>
+      <c r="G146" s="15"/>
     </row>
     <row r="147" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A147" s="8" t="str">
+      <c r="A147" s="16" t="str">
         <f>IF(ISBLANK(B147),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B147))</f>
         <v/>
       </c>
-      <c r="B147" s="46"/>
-      <c r="C147" s="47"/>
-      <c r="D147" s="48"/>
-      <c r="E147" s="49"/>
-      <c r="F147" s="15"/>
-      <c r="G147" s="15"/>
+      <c r="B147" s="50"/>
+      <c r="C147" s="51"/>
+      <c r="D147" s="52"/>
+      <c r="E147" s="53"/>
+      <c r="F147" s="17"/>
+      <c r="G147" s="17"/>
     </row>
     <row r="148" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A148" s="16" t="str">
+      <c r="A148" s="8" t="str">
         <f>IF(ISBLANK(B148),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B148))</f>
         <v/>
       </c>
-      <c r="B148" s="50"/>
-      <c r="C148" s="51"/>
-      <c r="D148" s="52"/>
-      <c r="E148" s="53"/>
-      <c r="F148" s="17"/>
-      <c r="G148" s="17"/>
+      <c r="B148" s="46"/>
+      <c r="C148" s="47"/>
+      <c r="D148" s="48"/>
+      <c r="E148" s="49"/>
+      <c r="F148" s="15"/>
+      <c r="G148" s="15"/>
     </row>
     <row r="149" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A149" s="8" t="str">
+      <c r="A149" s="16" t="str">
         <f>IF(ISBLANK(B149),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B149))</f>
         <v/>
       </c>
-      <c r="B149" s="46"/>
-      <c r="C149" s="47"/>
-      <c r="D149" s="48"/>
-      <c r="E149" s="49"/>
-      <c r="F149" s="15"/>
-      <c r="G149" s="15"/>
+      <c r="B149" s="50"/>
+      <c r="C149" s="51"/>
+      <c r="D149" s="52"/>
+      <c r="E149" s="53"/>
+      <c r="F149" s="17"/>
+      <c r="G149" s="17"/>
     </row>
     <row r="150" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A150" s="16" t="str">
+      <c r="A150" s="8" t="str">
         <f>IF(ISBLANK(B150),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B150))</f>
         <v/>
       </c>
-      <c r="B150" s="50"/>
-      <c r="C150" s="51"/>
-      <c r="D150" s="52"/>
-      <c r="E150" s="53"/>
-      <c r="F150" s="17"/>
-      <c r="G150" s="17"/>
+      <c r="B150" s="46"/>
+      <c r="C150" s="47"/>
+      <c r="D150" s="48"/>
+      <c r="E150" s="49"/>
+      <c r="F150" s="15"/>
+      <c r="G150" s="15"/>
     </row>
     <row r="151" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="str">
+      <c r="A151" s="16" t="str">
         <f>IF(ISBLANK(B151),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B151))</f>
         <v/>
       </c>
-      <c r="B151" s="46"/>
-      <c r="C151" s="47"/>
-      <c r="D151" s="48"/>
-      <c r="E151" s="49"/>
-      <c r="F151" s="15"/>
-      <c r="G151" s="15"/>
+      <c r="B151" s="50"/>
+      <c r="C151" s="51"/>
+      <c r="D151" s="52"/>
+      <c r="E151" s="53"/>
+      <c r="F151" s="17"/>
+      <c r="G151" s="17"/>
     </row>
     <row r="152" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A152" s="16" t="str">
+      <c r="A152" s="8" t="str">
         <f>IF(ISBLANK(B152),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B152))</f>
         <v/>
       </c>
-      <c r="B152" s="50"/>
-      <c r="C152" s="51"/>
-      <c r="D152" s="52"/>
-      <c r="E152" s="53"/>
-      <c r="F152" s="17"/>
-      <c r="G152" s="17"/>
+      <c r="B152" s="46"/>
+      <c r="C152" s="47"/>
+      <c r="D152" s="48"/>
+      <c r="E152" s="49"/>
+      <c r="F152" s="15"/>
+      <c r="G152" s="15"/>
     </row>
     <row r="153" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="str">
+      <c r="A153" s="16" t="str">
         <f>IF(ISBLANK(B153),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B153))</f>
         <v/>
       </c>
-      <c r="B153" s="46"/>
-      <c r="C153" s="47"/>
-      <c r="D153" s="48"/>
-      <c r="E153" s="49"/>
-      <c r="F153" s="15"/>
-      <c r="G153" s="15"/>
+      <c r="B153" s="50"/>
+      <c r="C153" s="51"/>
+      <c r="D153" s="52"/>
+      <c r="E153" s="53"/>
+      <c r="F153" s="17"/>
+      <c r="G153" s="17"/>
     </row>
     <row r="154" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A154" s="16" t="str">
+      <c r="A154" s="8" t="str">
         <f>IF(ISBLANK(B154),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B154))</f>
         <v/>
       </c>
-      <c r="B154" s="50"/>
-      <c r="C154" s="51"/>
-      <c r="D154" s="52"/>
-      <c r="E154" s="53"/>
-      <c r="F154" s="17"/>
-      <c r="G154" s="17"/>
+      <c r="B154" s="46"/>
+      <c r="C154" s="47"/>
+      <c r="D154" s="48"/>
+      <c r="E154" s="49"/>
+      <c r="F154" s="15"/>
+      <c r="G154" s="15"/>
     </row>
     <row r="155" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="str">
+      <c r="A155" s="16" t="str">
         <f>IF(ISBLANK(B155),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B155))</f>
         <v/>
       </c>
-      <c r="B155" s="46"/>
-      <c r="C155" s="47"/>
-      <c r="D155" s="48"/>
-      <c r="E155" s="49"/>
-      <c r="F155" s="15"/>
-      <c r="G155" s="15"/>
+      <c r="B155" s="50"/>
+      <c r="C155" s="51"/>
+      <c r="D155" s="52"/>
+      <c r="E155" s="53"/>
+      <c r="F155" s="17"/>
+      <c r="G155" s="17"/>
     </row>
     <row r="156" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A156" s="16" t="str">
+      <c r="A156" s="8" t="str">
         <f>IF(ISBLANK(B156),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B156))</f>
         <v/>
       </c>
-      <c r="B156" s="50"/>
-      <c r="C156" s="51"/>
-      <c r="D156" s="52"/>
-      <c r="E156" s="53"/>
-      <c r="F156" s="17"/>
-      <c r="G156" s="17"/>
+      <c r="B156" s="46"/>
+      <c r="C156" s="47"/>
+      <c r="D156" s="48"/>
+      <c r="E156" s="49"/>
+      <c r="F156" s="15"/>
+      <c r="G156" s="15"/>
     </row>
     <row r="157" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="str">
+      <c r="A157" s="16" t="str">
         <f>IF(ISBLANK(B157),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B157))</f>
         <v/>
       </c>
-      <c r="B157" s="46"/>
-      <c r="C157" s="47"/>
-      <c r="D157" s="48"/>
-      <c r="E157" s="49"/>
-      <c r="F157" s="15"/>
-      <c r="G157" s="15"/>
+      <c r="B157" s="50"/>
+      <c r="C157" s="51"/>
+      <c r="D157" s="52"/>
+      <c r="E157" s="53"/>
+      <c r="F157" s="17"/>
+      <c r="G157" s="17"/>
     </row>
     <row r="158" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A158" s="16" t="str">
+      <c r="A158" s="8" t="str">
         <f>IF(ISBLANK(B158),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B158))</f>
         <v/>
       </c>
-      <c r="B158" s="50"/>
-      <c r="C158" s="51"/>
-      <c r="D158" s="52"/>
-      <c r="E158" s="53"/>
-      <c r="F158" s="17"/>
-      <c r="G158" s="17"/>
+      <c r="B158" s="46"/>
+      <c r="C158" s="47"/>
+      <c r="D158" s="48"/>
+      <c r="E158" s="49"/>
+      <c r="F158" s="15"/>
+      <c r="G158" s="15"/>
     </row>
     <row r="159" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="str">
+      <c r="A159" s="16" t="str">
         <f>IF(ISBLANK(B159),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B159))</f>
         <v/>
       </c>
-      <c r="B159" s="46"/>
-      <c r="C159" s="47"/>
-      <c r="D159" s="48"/>
-      <c r="E159" s="49"/>
-      <c r="F159" s="15"/>
-      <c r="G159" s="15"/>
+      <c r="B159" s="50"/>
+      <c r="C159" s="51"/>
+      <c r="D159" s="52"/>
+      <c r="E159" s="53"/>
+      <c r="F159" s="17"/>
+      <c r="G159" s="17"/>
     </row>
     <row r="160" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A160" s="16" t="str">
+      <c r="A160" s="8" t="str">
         <f>IF(ISBLANK(B160),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B160))</f>
         <v/>
       </c>
-      <c r="B160" s="50"/>
-      <c r="C160" s="51"/>
-      <c r="D160" s="52"/>
-      <c r="E160" s="53"/>
-      <c r="F160" s="17"/>
-      <c r="G160" s="17"/>
+      <c r="B160" s="46"/>
+      <c r="C160" s="47"/>
+      <c r="D160" s="48"/>
+      <c r="E160" s="49"/>
+      <c r="F160" s="15"/>
+      <c r="G160" s="15"/>
     </row>
     <row r="161" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="str">
+      <c r="A161" s="16" t="str">
         <f>IF(ISBLANK(B161),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B161))</f>
         <v/>
       </c>
-      <c r="B161" s="46"/>
-      <c r="C161" s="47"/>
-      <c r="D161" s="48"/>
-      <c r="E161" s="49"/>
-      <c r="F161" s="15"/>
-      <c r="G161" s="15"/>
+      <c r="B161" s="50"/>
+      <c r="C161" s="51"/>
+      <c r="D161" s="52"/>
+      <c r="E161" s="53"/>
+      <c r="F161" s="17"/>
+      <c r="G161" s="17"/>
     </row>
     <row r="162" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A162" s="16" t="str">
+      <c r="A162" s="8" t="str">
         <f>IF(ISBLANK(B162),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B162))</f>
         <v/>
       </c>
-      <c r="B162" s="50"/>
-      <c r="C162" s="51"/>
-      <c r="D162" s="52"/>
-      <c r="E162" s="53"/>
-      <c r="F162" s="17"/>
-      <c r="G162" s="17"/>
+      <c r="B162" s="46"/>
+      <c r="C162" s="47"/>
+      <c r="D162" s="48"/>
+      <c r="E162" s="49"/>
+      <c r="F162" s="15"/>
+      <c r="G162" s="15"/>
     </row>
     <row r="163" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="str">
+      <c r="A163" s="16" t="str">
         <f>IF(ISBLANK(B163),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B163))</f>
         <v/>
       </c>
-      <c r="B163" s="46"/>
-      <c r="C163" s="47"/>
-      <c r="D163" s="48"/>
-      <c r="E163" s="49"/>
-      <c r="F163" s="15"/>
-      <c r="G163" s="15"/>
+      <c r="B163" s="50"/>
+      <c r="C163" s="51"/>
+      <c r="D163" s="52"/>
+      <c r="E163" s="53"/>
+      <c r="F163" s="17"/>
+      <c r="G163" s="17"/>
     </row>
     <row r="164" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A164" s="16" t="str">
+      <c r="A164" s="8" t="str">
         <f>IF(ISBLANK(B164),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B164))</f>
         <v/>
       </c>
-      <c r="B164" s="50"/>
-      <c r="C164" s="51"/>
-      <c r="D164" s="52"/>
-      <c r="E164" s="53"/>
-      <c r="F164" s="17"/>
-      <c r="G164" s="17"/>
+      <c r="B164" s="46"/>
+      <c r="C164" s="47"/>
+      <c r="D164" s="48"/>
+      <c r="E164" s="49"/>
+      <c r="F164" s="15"/>
+      <c r="G164" s="15"/>
     </row>
     <row r="165" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A165" s="8" t="str">
+      <c r="A165" s="16" t="str">
         <f>IF(ISBLANK(B165),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B165))</f>
         <v/>
       </c>
-      <c r="B165" s="46"/>
-      <c r="C165" s="47"/>
-      <c r="D165" s="48"/>
-      <c r="E165" s="49"/>
-      <c r="F165" s="15"/>
-      <c r="G165" s="15"/>
+      <c r="B165" s="50"/>
+      <c r="C165" s="51"/>
+      <c r="D165" s="52"/>
+      <c r="E165" s="53"/>
+      <c r="F165" s="17"/>
+      <c r="G165" s="17"/>
     </row>
     <row r="166" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A166" s="16" t="str">
+      <c r="A166" s="8" t="str">
         <f>IF(ISBLANK(B166),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B166))</f>
         <v/>
       </c>
-      <c r="B166" s="50"/>
-      <c r="C166" s="51"/>
-      <c r="D166" s="52"/>
-      <c r="E166" s="53"/>
-      <c r="F166" s="17"/>
-      <c r="G166" s="17"/>
+      <c r="B166" s="46"/>
+      <c r="C166" s="47"/>
+      <c r="D166" s="48"/>
+      <c r="E166" s="49"/>
+      <c r="F166" s="15"/>
+      <c r="G166" s="15"/>
     </row>
     <row r="167" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A167" s="8" t="str">
+      <c r="A167" s="16" t="str">
         <f>IF(ISBLANK(B167),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B167))</f>
         <v/>
       </c>
-      <c r="B167" s="46"/>
-      <c r="C167" s="47"/>
-      <c r="D167" s="48"/>
-      <c r="E167" s="49"/>
-      <c r="F167" s="15"/>
-      <c r="G167" s="15"/>
+      <c r="B167" s="50"/>
+      <c r="C167" s="51"/>
+      <c r="D167" s="52"/>
+      <c r="E167" s="53"/>
+      <c r="F167" s="17"/>
+      <c r="G167" s="17"/>
     </row>
     <row r="168" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A168" s="16" t="str">
+      <c r="A168" s="8" t="str">
         <f>IF(ISBLANK(B168),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B168))</f>
         <v/>
       </c>
-      <c r="B168" s="50"/>
-      <c r="C168" s="51"/>
-      <c r="D168" s="52"/>
-      <c r="E168" s="53"/>
-      <c r="F168" s="17"/>
-      <c r="G168" s="17"/>
+      <c r="B168" s="46"/>
+      <c r="C168" s="47"/>
+      <c r="D168" s="48"/>
+      <c r="E168" s="49"/>
+      <c r="F168" s="15"/>
+      <c r="G168" s="15"/>
     </row>
     <row r="169" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A169" s="8" t="str">
+      <c r="A169" s="16" t="str">
         <f>IF(ISBLANK(B169),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B169))</f>
         <v/>
       </c>
-      <c r="B169" s="46"/>
-      <c r="C169" s="47"/>
-      <c r="D169" s="48"/>
-      <c r="E169" s="49"/>
-      <c r="F169" s="15"/>
-      <c r="G169" s="15"/>
+      <c r="B169" s="50"/>
+      <c r="C169" s="51"/>
+      <c r="D169" s="52"/>
+      <c r="E169" s="53"/>
+      <c r="F169" s="17"/>
+      <c r="G169" s="17"/>
     </row>
     <row r="170" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A170" s="16" t="str">
+      <c r="A170" s="8" t="str">
         <f>IF(ISBLANK(B170),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B170))</f>
         <v/>
       </c>
-      <c r="B170" s="50"/>
-      <c r="C170" s="51"/>
-      <c r="D170" s="52"/>
-      <c r="E170" s="53"/>
-      <c r="F170" s="17"/>
-      <c r="G170" s="17"/>
+      <c r="B170" s="46"/>
+      <c r="C170" s="47"/>
+      <c r="D170" s="48"/>
+      <c r="E170" s="49"/>
+      <c r="F170" s="15"/>
+      <c r="G170" s="15"/>
     </row>
     <row r="171" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A171" s="8" t="str">
+      <c r="A171" s="16" t="str">
         <f>IF(ISBLANK(B171),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B171))</f>
         <v/>
       </c>
-      <c r="B171" s="46"/>
-      <c r="C171" s="47"/>
-      <c r="D171" s="48"/>
-      <c r="E171" s="49"/>
-      <c r="F171" s="15"/>
-      <c r="G171" s="15"/>
+      <c r="B171" s="50"/>
+      <c r="C171" s="51"/>
+      <c r="D171" s="52"/>
+      <c r="E171" s="53"/>
+      <c r="F171" s="17"/>
+      <c r="G171" s="17"/>
     </row>
     <row r="172" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A172" s="16" t="str">
+      <c r="A172" s="8" t="str">
         <f>IF(ISBLANK(B172),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B172))</f>
         <v/>
       </c>
-      <c r="B172" s="50"/>
-      <c r="C172" s="51"/>
-      <c r="D172" s="52"/>
-      <c r="E172" s="53"/>
-      <c r="F172" s="17"/>
-      <c r="G172" s="17"/>
+      <c r="B172" s="46"/>
+      <c r="C172" s="47"/>
+      <c r="D172" s="48"/>
+      <c r="E172" s="49"/>
+      <c r="F172" s="15"/>
+      <c r="G172" s="15"/>
     </row>
     <row r="173" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A173" s="8" t="str">
+      <c r="A173" s="16" t="str">
         <f>IF(ISBLANK(B173),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B173))</f>
         <v/>
       </c>
-      <c r="B173" s="46"/>
-      <c r="C173" s="47"/>
-      <c r="D173" s="48"/>
-      <c r="E173" s="49"/>
-      <c r="F173" s="15"/>
-      <c r="G173" s="15"/>
+      <c r="B173" s="50"/>
+      <c r="C173" s="51"/>
+      <c r="D173" s="52"/>
+      <c r="E173" s="53"/>
+      <c r="F173" s="17"/>
+      <c r="G173" s="17"/>
     </row>
     <row r="174" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A174" s="16" t="str">
+      <c r="A174" s="8" t="str">
         <f>IF(ISBLANK(B174),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B174))</f>
         <v/>
       </c>
-      <c r="B174" s="50"/>
-      <c r="C174" s="51"/>
-      <c r="D174" s="52"/>
-      <c r="E174" s="53"/>
-      <c r="F174" s="17"/>
-      <c r="G174" s="17"/>
+      <c r="B174" s="46"/>
+      <c r="C174" s="47"/>
+      <c r="D174" s="48"/>
+      <c r="E174" s="49"/>
+      <c r="F174" s="15"/>
+      <c r="G174" s="15"/>
     </row>
     <row r="175" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A175" s="8" t="str">
+      <c r="A175" s="16" t="str">
         <f>IF(ISBLANK(B175),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B175))</f>
         <v/>
       </c>
-      <c r="B175" s="46"/>
-      <c r="C175" s="47"/>
-      <c r="D175" s="48"/>
-      <c r="E175" s="49"/>
-      <c r="F175" s="15"/>
-      <c r="G175" s="15"/>
+      <c r="B175" s="50"/>
+      <c r="C175" s="51"/>
+      <c r="D175" s="52"/>
+      <c r="E175" s="53"/>
+      <c r="F175" s="17"/>
+      <c r="G175" s="17"/>
     </row>
     <row r="176" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A176" s="16" t="str">
+      <c r="A176" s="8" t="str">
         <f>IF(ISBLANK(B176),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B176))</f>
         <v/>
       </c>
-      <c r="B176" s="50"/>
-      <c r="C176" s="51"/>
-      <c r="D176" s="52"/>
-      <c r="E176" s="53"/>
-      <c r="F176" s="17"/>
-      <c r="G176" s="17"/>
+      <c r="B176" s="46"/>
+      <c r="C176" s="47"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="49"/>
+      <c r="F176" s="15"/>
+      <c r="G176" s="15"/>
     </row>
     <row r="177" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A177" s="8" t="str">
+      <c r="A177" s="16" t="str">
         <f>IF(ISBLANK(B177),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B177))</f>
         <v/>
       </c>
-      <c r="B177" s="46"/>
-      <c r="C177" s="47"/>
-      <c r="D177" s="48"/>
-      <c r="E177" s="49"/>
-      <c r="F177" s="15"/>
-      <c r="G177" s="15"/>
+      <c r="B177" s="50"/>
+      <c r="C177" s="51"/>
+      <c r="D177" s="52"/>
+      <c r="E177" s="53"/>
+      <c r="F177" s="17"/>
+      <c r="G177" s="17"/>
     </row>
     <row r="178" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A178" s="16" t="str">
+      <c r="A178" s="8" t="str">
         <f>IF(ISBLANK(B178),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B178))</f>
         <v/>
       </c>
-      <c r="B178" s="50"/>
-      <c r="C178" s="51"/>
-      <c r="D178" s="52"/>
-      <c r="E178" s="53"/>
-      <c r="F178" s="17"/>
-      <c r="G178" s="17"/>
+      <c r="B178" s="46"/>
+      <c r="C178" s="47"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="49"/>
+      <c r="F178" s="15"/>
+      <c r="G178" s="15"/>
     </row>
     <row r="179" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A179" s="8" t="str">
+      <c r="A179" s="16" t="str">
         <f>IF(ISBLANK(B179),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B179))</f>
         <v/>
       </c>
-      <c r="B179" s="46"/>
-      <c r="C179" s="47"/>
-      <c r="D179" s="48"/>
-      <c r="E179" s="49"/>
-      <c r="F179" s="15"/>
-      <c r="G179" s="15"/>
+      <c r="B179" s="50"/>
+      <c r="C179" s="51"/>
+      <c r="D179" s="52"/>
+      <c r="E179" s="53"/>
+      <c r="F179" s="17"/>
+      <c r="G179" s="17"/>
     </row>
     <row r="180" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A180" s="16" t="str">
+      <c r="A180" s="8" t="str">
         <f>IF(ISBLANK(B180),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B180))</f>
         <v/>
       </c>
-      <c r="B180" s="50"/>
-      <c r="C180" s="51"/>
-      <c r="D180" s="52"/>
-      <c r="E180" s="53"/>
-      <c r="F180" s="17"/>
-      <c r="G180" s="17"/>
+      <c r="B180" s="46"/>
+      <c r="C180" s="47"/>
+      <c r="D180" s="48"/>
+      <c r="E180" s="49"/>
+      <c r="F180" s="15"/>
+      <c r="G180" s="15"/>
     </row>
     <row r="181" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A181" s="8" t="str">
+      <c r="A181" s="16" t="str">
         <f>IF(ISBLANK(B181),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B181))</f>
         <v/>
       </c>
-      <c r="B181" s="46"/>
-      <c r="C181" s="47"/>
-      <c r="D181" s="48"/>
-      <c r="E181" s="49"/>
-      <c r="F181" s="15"/>
-      <c r="G181" s="15"/>
+      <c r="B181" s="50"/>
+      <c r="C181" s="51"/>
+      <c r="D181" s="52"/>
+      <c r="E181" s="53"/>
+      <c r="F181" s="17"/>
+      <c r="G181" s="17"/>
     </row>
     <row r="182" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A182" s="16" t="str">
+      <c r="A182" s="8" t="str">
         <f>IF(ISBLANK(B182),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B182))</f>
         <v/>
       </c>
-      <c r="B182" s="50"/>
-      <c r="C182" s="51"/>
-      <c r="D182" s="52"/>
-      <c r="E182" s="53"/>
-      <c r="F182" s="17"/>
-      <c r="G182" s="17"/>
+      <c r="B182" s="46"/>
+      <c r="C182" s="47"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="49"/>
+      <c r="F182" s="15"/>
+      <c r="G182" s="15"/>
     </row>
     <row r="183" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A183" s="8" t="str">
+      <c r="A183" s="16" t="str">
         <f>IF(ISBLANK(B183),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B183))</f>
         <v/>
       </c>
-      <c r="B183" s="46"/>
-      <c r="C183" s="47"/>
-      <c r="D183" s="48"/>
-      <c r="E183" s="49"/>
-      <c r="F183" s="15"/>
-      <c r="G183" s="15"/>
+      <c r="B183" s="50"/>
+      <c r="C183" s="51"/>
+      <c r="D183" s="52"/>
+      <c r="E183" s="53"/>
+      <c r="F183" s="17"/>
+      <c r="G183" s="17"/>
     </row>
     <row r="184" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A184" s="16" t="str">
+      <c r="A184" s="8" t="str">
         <f>IF(ISBLANK(B184),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B184))</f>
         <v/>
       </c>
-      <c r="B184" s="50"/>
-      <c r="C184" s="51"/>
-      <c r="D184" s="52"/>
-      <c r="E184" s="53"/>
-      <c r="F184" s="17"/>
-      <c r="G184" s="17"/>
+      <c r="B184" s="46"/>
+      <c r="C184" s="47"/>
+      <c r="D184" s="48"/>
+      <c r="E184" s="49"/>
+      <c r="F184" s="15"/>
+      <c r="G184" s="15"/>
     </row>
     <row r="185" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A185" s="8" t="str">
+      <c r="A185" s="16" t="str">
         <f>IF(ISBLANK(B185),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B185))</f>
         <v/>
       </c>
-      <c r="B185" s="46"/>
-      <c r="C185" s="47"/>
-      <c r="D185" s="48"/>
-      <c r="E185" s="49"/>
-      <c r="F185" s="15"/>
-      <c r="G185" s="15"/>
+      <c r="B185" s="50"/>
+      <c r="C185" s="51"/>
+      <c r="D185" s="52"/>
+      <c r="E185" s="53"/>
+      <c r="F185" s="17"/>
+      <c r="G185" s="17"/>
     </row>
     <row r="186" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A186" s="16" t="str">
+      <c r="A186" s="8" t="str">
         <f>IF(ISBLANK(B186),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B186))</f>
         <v/>
       </c>
-      <c r="B186" s="50"/>
-      <c r="C186" s="51"/>
-      <c r="D186" s="52"/>
-      <c r="E186" s="53"/>
-      <c r="F186" s="17"/>
-      <c r="G186" s="17"/>
+      <c r="B186" s="46"/>
+      <c r="C186" s="47"/>
+      <c r="D186" s="48"/>
+      <c r="E186" s="49"/>
+      <c r="F186" s="15"/>
+      <c r="G186" s="15"/>
     </row>
     <row r="187" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A187" s="8" t="str">
+      <c r="A187" s="16" t="str">
         <f>IF(ISBLANK(B187),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B187))</f>
         <v/>
       </c>
-      <c r="B187" s="46"/>
-      <c r="C187" s="47"/>
-      <c r="D187" s="48"/>
-      <c r="E187" s="49"/>
-      <c r="F187" s="15"/>
-      <c r="G187" s="15"/>
+      <c r="B187" s="50"/>
+      <c r="C187" s="51"/>
+      <c r="D187" s="52"/>
+      <c r="E187" s="53"/>
+      <c r="F187" s="17"/>
+      <c r="G187" s="17"/>
     </row>
     <row r="188" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A188" s="16" t="str">
+      <c r="A188" s="8" t="str">
         <f>IF(ISBLANK(B188),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B188))</f>
         <v/>
       </c>
-      <c r="B188" s="50"/>
-      <c r="C188" s="51"/>
-      <c r="D188" s="52"/>
-      <c r="E188" s="53"/>
-      <c r="F188" s="17"/>
-      <c r="G188" s="17"/>
+      <c r="B188" s="46"/>
+      <c r="C188" s="47"/>
+      <c r="D188" s="48"/>
+      <c r="E188" s="49"/>
+      <c r="F188" s="15"/>
+      <c r="G188" s="15"/>
     </row>
     <row r="189" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A189" s="8" t="str">
+      <c r="A189" s="16" t="str">
         <f>IF(ISBLANK(B189),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B189))</f>
         <v/>
       </c>
-      <c r="B189" s="46"/>
-      <c r="C189" s="47"/>
-      <c r="D189" s="48"/>
-      <c r="E189" s="49"/>
-      <c r="F189" s="15"/>
-      <c r="G189" s="15"/>
+      <c r="B189" s="50"/>
+      <c r="C189" s="51"/>
+      <c r="D189" s="52"/>
+      <c r="E189" s="53"/>
+      <c r="F189" s="17"/>
+      <c r="G189" s="17"/>
     </row>
     <row r="190" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A190" s="16" t="str">
+      <c r="A190" s="8" t="str">
         <f>IF(ISBLANK(B190),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B190))</f>
         <v/>
       </c>
-      <c r="B190" s="50"/>
-      <c r="C190" s="51"/>
-      <c r="D190" s="52"/>
-      <c r="E190" s="53"/>
-      <c r="F190" s="17"/>
-      <c r="G190" s="17"/>
+      <c r="B190" s="46"/>
+      <c r="C190" s="47"/>
+      <c r="D190" s="48"/>
+      <c r="E190" s="49"/>
+      <c r="F190" s="15"/>
+      <c r="G190" s="15"/>
     </row>
     <row r="191" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A191" s="8" t="str">
+      <c r="A191" s="16" t="str">
         <f>IF(ISBLANK(B191),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B191))</f>
         <v/>
       </c>
-      <c r="B191" s="46"/>
-      <c r="C191" s="47"/>
-      <c r="D191" s="48"/>
-      <c r="E191" s="49"/>
-      <c r="F191" s="15"/>
-      <c r="G191" s="15"/>
+      <c r="B191" s="50"/>
+      <c r="C191" s="51"/>
+      <c r="D191" s="52"/>
+      <c r="E191" s="53"/>
+      <c r="F191" s="17"/>
+      <c r="G191" s="17"/>
     </row>
     <row r="192" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A192" s="16" t="str">
+      <c r="A192" s="8" t="str">
         <f>IF(ISBLANK(B192),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B192))</f>
         <v/>
       </c>
-      <c r="B192" s="50"/>
-      <c r="C192" s="51"/>
-      <c r="D192" s="52"/>
-      <c r="E192" s="53"/>
-      <c r="F192" s="17"/>
-      <c r="G192" s="17"/>
+      <c r="B192" s="46"/>
+      <c r="C192" s="47"/>
+      <c r="D192" s="48"/>
+      <c r="E192" s="49"/>
+      <c r="F192" s="15"/>
+      <c r="G192" s="15"/>
     </row>
     <row r="193" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A193" s="8" t="str">
+      <c r="A193" s="16" t="str">
         <f>IF(ISBLANK(B193),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B193))</f>
         <v/>
       </c>
-      <c r="B193" s="46"/>
-      <c r="C193" s="47"/>
-      <c r="D193" s="48"/>
-      <c r="E193" s="49"/>
-      <c r="F193" s="15"/>
-      <c r="G193" s="15"/>
+      <c r="B193" s="50"/>
+      <c r="C193" s="51"/>
+      <c r="D193" s="52"/>
+      <c r="E193" s="53"/>
+      <c r="F193" s="17"/>
+      <c r="G193" s="17"/>
     </row>
     <row r="194" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A194" s="16" t="str">
+      <c r="A194" s="8" t="str">
         <f>IF(ISBLANK(B194),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B194))</f>
         <v/>
       </c>
-      <c r="B194" s="50"/>
-      <c r="C194" s="51"/>
-      <c r="D194" s="52"/>
-      <c r="E194" s="53"/>
-      <c r="F194" s="17"/>
-      <c r="G194" s="17"/>
+      <c r="B194" s="46"/>
+      <c r="C194" s="47"/>
+      <c r="D194" s="48"/>
+      <c r="E194" s="49"/>
+      <c r="F194" s="15"/>
+      <c r="G194" s="15"/>
     </row>
     <row r="195" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A195" s="8" t="str">
+      <c r="A195" s="16" t="str">
         <f>IF(ISBLANK(B195),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B195))</f>
         <v/>
       </c>
-      <c r="B195" s="46"/>
-      <c r="C195" s="47"/>
-      <c r="D195" s="48"/>
-      <c r="E195" s="49"/>
-      <c r="F195" s="15"/>
-      <c r="G195" s="15"/>
+      <c r="B195" s="50"/>
+      <c r="C195" s="51"/>
+      <c r="D195" s="52"/>
+      <c r="E195" s="53"/>
+      <c r="F195" s="17"/>
+      <c r="G195" s="17"/>
     </row>
     <row r="196" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A196" s="16" t="str">
+      <c r="A196" s="8" t="str">
         <f>IF(ISBLANK(B196),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B196))</f>
         <v/>
       </c>
-      <c r="B196" s="50"/>
-      <c r="C196" s="51"/>
-      <c r="D196" s="52"/>
-      <c r="E196" s="53"/>
-      <c r="F196" s="17"/>
-      <c r="G196" s="17"/>
+      <c r="B196" s="46"/>
+      <c r="C196" s="47"/>
+      <c r="D196" s="48"/>
+      <c r="E196" s="49"/>
+      <c r="F196" s="15"/>
+      <c r="G196" s="15"/>
     </row>
     <row r="197" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A197" s="8" t="str">
+      <c r="A197" s="16" t="str">
         <f>IF(ISBLANK(B197),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B197))</f>
         <v/>
       </c>
-      <c r="B197" s="46"/>
-      <c r="C197" s="47"/>
-      <c r="D197" s="48"/>
-      <c r="E197" s="49"/>
-      <c r="F197" s="15"/>
-      <c r="G197" s="15"/>
+      <c r="B197" s="50"/>
+      <c r="C197" s="51"/>
+      <c r="D197" s="52"/>
+      <c r="E197" s="53"/>
+      <c r="F197" s="17"/>
+      <c r="G197" s="17"/>
     </row>
     <row r="198" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A198" s="16" t="str">
+      <c r="A198" s="8" t="str">
         <f>IF(ISBLANK(B198),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B198))</f>
         <v/>
       </c>
-      <c r="B198" s="50"/>
-      <c r="C198" s="51"/>
-      <c r="D198" s="52"/>
-      <c r="E198" s="53"/>
-      <c r="F198" s="17"/>
-      <c r="G198" s="17"/>
+      <c r="B198" s="46"/>
+      <c r="C198" s="47"/>
+      <c r="D198" s="48"/>
+      <c r="E198" s="49"/>
+      <c r="F198" s="15"/>
+      <c r="G198" s="15"/>
     </row>
     <row r="199" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A199" s="8" t="str">
+      <c r="A199" s="16" t="str">
         <f>IF(ISBLANK(B199),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B199))</f>
         <v/>
       </c>
-      <c r="B199" s="46"/>
-      <c r="C199" s="47"/>
-      <c r="D199" s="48"/>
-      <c r="E199" s="49"/>
-      <c r="F199" s="15"/>
-      <c r="G199" s="15"/>
+      <c r="B199" s="50"/>
+      <c r="C199" s="51"/>
+      <c r="D199" s="52"/>
+      <c r="E199" s="53"/>
+      <c r="F199" s="17"/>
+      <c r="G199" s="17"/>
     </row>
     <row r="200" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A200" s="16" t="str">
+      <c r="A200" s="8" t="str">
         <f>IF(ISBLANK(B200),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B200))</f>
         <v/>
       </c>
-      <c r="B200" s="50"/>
-      <c r="C200" s="51"/>
-      <c r="D200" s="52"/>
-      <c r="E200" s="53"/>
-      <c r="F200" s="17"/>
-      <c r="G200" s="17"/>
+      <c r="B200" s="46"/>
+      <c r="C200" s="47"/>
+      <c r="D200" s="48"/>
+      <c r="E200" s="49"/>
+      <c r="F200" s="15"/>
+      <c r="G200" s="15"/>
     </row>
     <row r="201" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A201" s="8" t="str">
+      <c r="A201" s="16" t="str">
         <f>IF(ISBLANK(B201),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B201))</f>
         <v/>
       </c>
-      <c r="B201" s="46"/>
-      <c r="C201" s="47"/>
-      <c r="D201" s="48"/>
-      <c r="E201" s="49"/>
-      <c r="F201" s="15"/>
-      <c r="G201" s="15"/>
+      <c r="B201" s="50"/>
+      <c r="C201" s="51"/>
+      <c r="D201" s="52"/>
+      <c r="E201" s="53"/>
+      <c r="F201" s="17"/>
+      <c r="G201" s="17"/>
     </row>
     <row r="202" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A202" s="16" t="str">
+      <c r="A202" s="8" t="str">
         <f>IF(ISBLANK(B202),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B202))</f>
         <v/>
       </c>
-      <c r="B202" s="50"/>
-      <c r="C202" s="51"/>
-      <c r="D202" s="52"/>
-      <c r="E202" s="53"/>
-      <c r="F202" s="17"/>
-      <c r="G202" s="17"/>
+      <c r="B202" s="46"/>
+      <c r="C202" s="47"/>
+      <c r="D202" s="48"/>
+      <c r="E202" s="49"/>
+      <c r="F202" s="15"/>
+      <c r="G202" s="15"/>
     </row>
     <row r="203" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A203" s="8" t="str">
+      <c r="A203" s="16" t="str">
         <f>IF(ISBLANK(B203),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B203))</f>
         <v/>
       </c>
-      <c r="B203" s="46"/>
-      <c r="C203" s="47"/>
-      <c r="D203" s="48"/>
-      <c r="E203" s="49"/>
-      <c r="F203" s="15"/>
-      <c r="G203" s="15"/>
+      <c r="B203" s="50"/>
+      <c r="C203" s="51"/>
+      <c r="D203" s="52"/>
+      <c r="E203" s="53"/>
+      <c r="F203" s="17"/>
+      <c r="G203" s="17"/>
     </row>
     <row r="204" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A204" s="16" t="str">
+      <c r="A204" s="8" t="str">
         <f>IF(ISBLANK(B204),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B204))</f>
         <v/>
       </c>
-      <c r="B204" s="50"/>
-      <c r="C204" s="51"/>
-      <c r="D204" s="52"/>
-      <c r="E204" s="53"/>
-      <c r="F204" s="17"/>
-      <c r="G204" s="17"/>
+      <c r="B204" s="46"/>
+      <c r="C204" s="47"/>
+      <c r="D204" s="48"/>
+      <c r="E204" s="49"/>
+      <c r="F204" s="15"/>
+      <c r="G204" s="15"/>
     </row>
     <row r="205" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A205" s="8" t="str">
+      <c r="A205" s="16" t="str">
         <f>IF(ISBLANK(B205),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B205))</f>
         <v/>
       </c>
-      <c r="B205" s="46"/>
-      <c r="C205" s="47"/>
-      <c r="D205" s="48"/>
-      <c r="E205" s="49"/>
-      <c r="F205" s="15"/>
-      <c r="G205" s="15"/>
+      <c r="B205" s="50"/>
+      <c r="C205" s="51"/>
+      <c r="D205" s="52"/>
+      <c r="E205" s="53"/>
+      <c r="F205" s="17"/>
+      <c r="G205" s="17"/>
     </row>
     <row r="206" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A206" s="16" t="str">
+      <c r="A206" s="8" t="str">
         <f>IF(ISBLANK(B206),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B206))</f>
         <v/>
       </c>
-      <c r="B206" s="50"/>
-      <c r="C206" s="51"/>
-      <c r="D206" s="52"/>
-      <c r="E206" s="53"/>
-      <c r="F206" s="17"/>
-      <c r="G206" s="17"/>
+      <c r="B206" s="46"/>
+      <c r="C206" s="47"/>
+      <c r="D206" s="48"/>
+      <c r="E206" s="49"/>
+      <c r="F206" s="15"/>
+      <c r="G206" s="15"/>
     </row>
     <row r="207" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A207" s="8" t="str">
+      <c r="A207" s="16" t="str">
         <f>IF(ISBLANK(B207),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B207))</f>
         <v/>
       </c>
-      <c r="B207" s="46"/>
-      <c r="C207" s="47"/>
-      <c r="D207" s="48"/>
-      <c r="E207" s="49"/>
-      <c r="F207" s="15"/>
-      <c r="G207" s="15"/>
+      <c r="B207" s="50"/>
+      <c r="C207" s="51"/>
+      <c r="D207" s="52"/>
+      <c r="E207" s="53"/>
+      <c r="F207" s="17"/>
+      <c r="G207" s="17"/>
     </row>
     <row r="208" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A208" s="16" t="str">
+      <c r="A208" s="8" t="str">
         <f>IF(ISBLANK(B208),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B208))</f>
         <v/>
       </c>
-      <c r="B208" s="50"/>
-      <c r="C208" s="51"/>
-      <c r="D208" s="52"/>
-      <c r="E208" s="53"/>
-      <c r="F208" s="17"/>
-      <c r="G208" s="17"/>
+      <c r="B208" s="46"/>
+      <c r="C208" s="47"/>
+      <c r="D208" s="48"/>
+      <c r="E208" s="49"/>
+      <c r="F208" s="15"/>
+      <c r="G208" s="15"/>
     </row>
     <row r="209" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A209" s="8" t="str">
+      <c r="A209" s="16" t="str">
         <f>IF(ISBLANK(B209),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B209))</f>
         <v/>
       </c>
-      <c r="B209" s="46"/>
-      <c r="C209" s="47"/>
-      <c r="D209" s="48"/>
-      <c r="E209" s="49"/>
-      <c r="F209" s="15"/>
-      <c r="G209" s="15"/>
+      <c r="B209" s="50"/>
+      <c r="C209" s="51"/>
+      <c r="D209" s="52"/>
+      <c r="E209" s="53"/>
+      <c r="F209" s="17"/>
+      <c r="G209" s="17"/>
     </row>
     <row r="210" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A210" s="16" t="str">
+      <c r="A210" s="8" t="str">
         <f>IF(ISBLANK(B210),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B210))</f>
         <v/>
       </c>
-      <c r="B210" s="50"/>
-      <c r="C210" s="51"/>
-      <c r="D210" s="52"/>
-      <c r="E210" s="53"/>
-      <c r="F210" s="17"/>
-      <c r="G210" s="17"/>
+      <c r="B210" s="46"/>
+      <c r="C210" s="47"/>
+      <c r="D210" s="48"/>
+      <c r="E210" s="49"/>
+      <c r="F210" s="15"/>
+      <c r="G210" s="15"/>
     </row>
     <row r="211" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A211" s="8" t="str">
+      <c r="A211" s="16" t="str">
         <f>IF(ISBLANK(B211),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B211))</f>
         <v/>
       </c>
-      <c r="B211" s="46"/>
-      <c r="C211" s="47"/>
-      <c r="D211" s="48"/>
-      <c r="E211" s="49"/>
-      <c r="F211" s="15"/>
-      <c r="G211" s="15"/>
+      <c r="B211" s="50"/>
+      <c r="C211" s="51"/>
+      <c r="D211" s="52"/>
+      <c r="E211" s="53"/>
+      <c r="F211" s="17"/>
+      <c r="G211" s="17"/>
     </row>
     <row r="212" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A212" s="16" t="str">
+      <c r="A212" s="8" t="str">
         <f>IF(ISBLANK(B212),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B212))</f>
         <v/>
       </c>
-      <c r="B212" s="50"/>
-      <c r="C212" s="51"/>
-      <c r="D212" s="52"/>
-      <c r="E212" s="53"/>
-      <c r="F212" s="17"/>
-      <c r="G212" s="17"/>
+      <c r="B212" s="46"/>
+      <c r="C212" s="47"/>
+      <c r="D212" s="48"/>
+      <c r="E212" s="49"/>
+      <c r="F212" s="15"/>
+      <c r="G212" s="15"/>
     </row>
     <row r="213" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A213" s="8" t="str">
+      <c r="A213" s="16" t="str">
         <f>IF(ISBLANK(B213),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B213))</f>
         <v/>
       </c>
-      <c r="B213" s="46"/>
-      <c r="C213" s="47"/>
-      <c r="D213" s="48"/>
-      <c r="E213" s="49"/>
-      <c r="F213" s="15"/>
-      <c r="G213" s="15"/>
+      <c r="B213" s="50"/>
+      <c r="C213" s="51"/>
+      <c r="D213" s="52"/>
+      <c r="E213" s="53"/>
+      <c r="F213" s="17"/>
+      <c r="G213" s="17"/>
     </row>
     <row r="214" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A214" s="16" t="str">
+      <c r="A214" s="8" t="str">
         <f>IF(ISBLANK(B214),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B214))</f>
         <v/>
       </c>
-      <c r="B214" s="50"/>
-      <c r="C214" s="51"/>
-      <c r="D214" s="52"/>
-      <c r="E214" s="53"/>
-      <c r="F214" s="17"/>
-      <c r="G214" s="17"/>
+      <c r="B214" s="46"/>
+      <c r="C214" s="47"/>
+      <c r="D214" s="48"/>
+      <c r="E214" s="49"/>
+      <c r="F214" s="15"/>
+      <c r="G214" s="15"/>
     </row>
     <row r="215" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A215" s="8" t="str">
+      <c r="A215" s="16" t="str">
         <f>IF(ISBLANK(B215),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B215))</f>
         <v/>
       </c>
-      <c r="B215" s="46"/>
-      <c r="C215" s="47"/>
-      <c r="D215" s="48"/>
-      <c r="E215" s="49"/>
-      <c r="F215" s="15"/>
-      <c r="G215" s="15"/>
+      <c r="B215" s="50"/>
+      <c r="C215" s="51"/>
+      <c r="D215" s="52"/>
+      <c r="E215" s="53"/>
+      <c r="F215" s="17"/>
+      <c r="G215" s="17"/>
     </row>
     <row r="216" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A216" s="16" t="str">
+      <c r="A216" s="8" t="str">
         <f>IF(ISBLANK(B216),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B216))</f>
         <v/>
       </c>
-      <c r="B216" s="50"/>
-      <c r="C216" s="51"/>
-      <c r="D216" s="52"/>
-      <c r="E216" s="53"/>
-      <c r="F216" s="17"/>
-      <c r="G216" s="17"/>
+      <c r="B216" s="46"/>
+      <c r="C216" s="47"/>
+      <c r="D216" s="48"/>
+      <c r="E216" s="49"/>
+      <c r="F216" s="15"/>
+      <c r="G216" s="15"/>
     </row>
     <row r="217" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A217" s="8" t="str">
+      <c r="A217" s="16" t="str">
         <f>IF(ISBLANK(B217),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B217))</f>
         <v/>
       </c>
-      <c r="B217" s="46"/>
-      <c r="C217" s="47"/>
-      <c r="D217" s="48"/>
-      <c r="E217" s="49"/>
-      <c r="F217" s="15"/>
-      <c r="G217" s="15"/>
+      <c r="B217" s="50"/>
+      <c r="C217" s="51"/>
+      <c r="D217" s="52"/>
+      <c r="E217" s="53"/>
+      <c r="F217" s="17"/>
+      <c r="G217" s="17"/>
     </row>
     <row r="218" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A218" s="16" t="str">
+      <c r="A218" s="8" t="str">
         <f>IF(ISBLANK(B218),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B218))</f>
         <v/>
       </c>
-      <c r="B218" s="50"/>
-      <c r="C218" s="51"/>
-      <c r="D218" s="52"/>
-      <c r="E218" s="53"/>
-      <c r="F218" s="17"/>
-      <c r="G218" s="17"/>
+      <c r="B218" s="46"/>
+      <c r="C218" s="47"/>
+      <c r="D218" s="48"/>
+      <c r="E218" s="49"/>
+      <c r="F218" s="15"/>
+      <c r="G218" s="15"/>
     </row>
     <row r="219" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A219" s="8" t="str">
+      <c r="A219" s="16" t="str">
         <f>IF(ISBLANK(B219),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B219))</f>
         <v/>
       </c>
-      <c r="B219" s="46"/>
-      <c r="C219" s="47"/>
-      <c r="D219" s="48"/>
-      <c r="E219" s="49"/>
-      <c r="F219" s="15"/>
-      <c r="G219" s="15"/>
+      <c r="B219" s="50"/>
+      <c r="C219" s="51"/>
+      <c r="D219" s="52"/>
+      <c r="E219" s="53"/>
+      <c r="F219" s="17"/>
+      <c r="G219" s="17"/>
     </row>
     <row r="220" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A220" s="16" t="str">
+      <c r="A220" s="8" t="str">
         <f>IF(ISBLANK(B220),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B220))</f>
         <v/>
       </c>
-      <c r="B220" s="50"/>
-      <c r="C220" s="51"/>
-      <c r="D220" s="52"/>
-      <c r="E220" s="53"/>
-      <c r="F220" s="17"/>
-      <c r="G220" s="17"/>
+      <c r="B220" s="46"/>
+      <c r="C220" s="47"/>
+      <c r="D220" s="48"/>
+      <c r="E220" s="49"/>
+      <c r="F220" s="15"/>
+      <c r="G220" s="15"/>
     </row>
     <row r="221" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A221" s="8" t="str">
+      <c r="A221" s="16" t="str">
         <f>IF(ISBLANK(B221),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B221))</f>
         <v/>
       </c>
-      <c r="B221" s="46"/>
-      <c r="C221" s="47"/>
-      <c r="D221" s="48"/>
-      <c r="E221" s="49"/>
-      <c r="F221" s="15"/>
-      <c r="G221" s="15"/>
+      <c r="B221" s="50"/>
+      <c r="C221" s="51"/>
+      <c r="D221" s="52"/>
+      <c r="E221" s="53"/>
+      <c r="F221" s="17"/>
+      <c r="G221" s="17"/>
     </row>
     <row r="222" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A222" s="16" t="str">
+      <c r="A222" s="8" t="str">
         <f>IF(ISBLANK(B222),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B222))</f>
         <v/>
       </c>
-      <c r="B222" s="50"/>
-      <c r="C222" s="51"/>
-      <c r="D222" s="52"/>
-      <c r="E222" s="53"/>
-      <c r="F222" s="17"/>
-      <c r="G222" s="17"/>
+      <c r="B222" s="46"/>
+      <c r="C222" s="47"/>
+      <c r="D222" s="48"/>
+      <c r="E222" s="49"/>
+      <c r="F222" s="15"/>
+      <c r="G222" s="15"/>
     </row>
     <row r="223" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A223" s="8" t="str">
+      <c r="A223" s="16" t="str">
         <f>IF(ISBLANK(B223),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B223))</f>
         <v/>
       </c>
-      <c r="B223" s="46"/>
-      <c r="C223" s="47"/>
-      <c r="D223" s="48"/>
-      <c r="E223" s="49"/>
-      <c r="F223" s="15"/>
-      <c r="G223" s="15"/>
+      <c r="B223" s="50"/>
+      <c r="C223" s="51"/>
+      <c r="D223" s="52"/>
+      <c r="E223" s="53"/>
+      <c r="F223" s="17"/>
+      <c r="G223" s="17"/>
     </row>
     <row r="224" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A224" s="16" t="str">
+      <c r="A224" s="8" t="str">
         <f>IF(ISBLANK(B224),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B224))</f>
         <v/>
       </c>
-      <c r="B224" s="50"/>
-      <c r="C224" s="51"/>
-      <c r="D224" s="52"/>
-      <c r="E224" s="53"/>
-      <c r="F224" s="17"/>
-      <c r="G224" s="17"/>
+      <c r="B224" s="46"/>
+      <c r="C224" s="47"/>
+      <c r="D224" s="48"/>
+      <c r="E224" s="49"/>
+      <c r="F224" s="15"/>
+      <c r="G224" s="15"/>
     </row>
     <row r="225" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A225" s="8" t="str">
+      <c r="A225" s="16" t="str">
         <f>IF(ISBLANK(B225),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B225))</f>
         <v/>
       </c>
-      <c r="B225" s="46"/>
-      <c r="C225" s="47"/>
-      <c r="D225" s="48"/>
-      <c r="E225" s="49"/>
-      <c r="F225" s="15"/>
-      <c r="G225" s="15"/>
+      <c r="B225" s="50"/>
+      <c r="C225" s="51"/>
+      <c r="D225" s="52"/>
+      <c r="E225" s="53"/>
+      <c r="F225" s="17"/>
+      <c r="G225" s="17"/>
     </row>
     <row r="226" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A226" s="16" t="str">
+      <c r="A226" s="8" t="str">
         <f>IF(ISBLANK(B226),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B226))</f>
         <v/>
       </c>
-      <c r="B226" s="50"/>
-      <c r="C226" s="51"/>
-      <c r="D226" s="52"/>
-      <c r="E226" s="53"/>
-      <c r="F226" s="17"/>
-      <c r="G226" s="17"/>
+      <c r="B226" s="46"/>
+      <c r="C226" s="47"/>
+      <c r="D226" s="48"/>
+      <c r="E226" s="49"/>
+      <c r="F226" s="15"/>
+      <c r="G226" s="15"/>
     </row>
     <row r="227" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A227" s="8" t="str">
+      <c r="A227" s="16" t="str">
         <f>IF(ISBLANK(B227),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B227))</f>
         <v/>
       </c>
-      <c r="B227" s="46"/>
-      <c r="C227" s="47"/>
-      <c r="D227" s="48"/>
-      <c r="E227" s="49"/>
-      <c r="F227" s="15"/>
-      <c r="G227" s="15"/>
+      <c r="B227" s="50"/>
+      <c r="C227" s="51"/>
+      <c r="D227" s="52"/>
+      <c r="E227" s="53"/>
+      <c r="F227" s="17"/>
+      <c r="G227" s="17"/>
     </row>
     <row r="228" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A228" s="16" t="str">
+      <c r="A228" s="8" t="str">
         <f>IF(ISBLANK(B228),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B228))</f>
         <v/>
       </c>
-      <c r="B228" s="50"/>
-      <c r="C228" s="51"/>
-      <c r="D228" s="52"/>
-      <c r="E228" s="53"/>
-      <c r="F228" s="17"/>
-      <c r="G228" s="17"/>
+      <c r="B228" s="46"/>
+      <c r="C228" s="47"/>
+      <c r="D228" s="48"/>
+      <c r="E228" s="49"/>
+      <c r="F228" s="15"/>
+      <c r="G228" s="15"/>
     </row>
     <row r="229" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A229" s="8" t="str">
+      <c r="A229" s="16" t="str">
         <f>IF(ISBLANK(B229),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B229))</f>
         <v/>
       </c>
-      <c r="B229" s="46"/>
-      <c r="C229" s="47"/>
-      <c r="D229" s="48"/>
-      <c r="E229" s="49"/>
-      <c r="F229" s="15"/>
-      <c r="G229" s="15"/>
+      <c r="B229" s="50"/>
+      <c r="C229" s="51"/>
+      <c r="D229" s="52"/>
+      <c r="E229" s="53"/>
+      <c r="F229" s="17"/>
+      <c r="G229" s="17"/>
     </row>
     <row r="230" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A230" s="16" t="str">
+      <c r="A230" s="8" t="str">
         <f>IF(ISBLANK(B230),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B230))</f>
         <v/>
       </c>
-      <c r="B230" s="50"/>
-      <c r="C230" s="51"/>
-      <c r="D230" s="52"/>
-      <c r="E230" s="53"/>
-      <c r="F230" s="17"/>
-      <c r="G230" s="17"/>
+      <c r="B230" s="46"/>
+      <c r="C230" s="47"/>
+      <c r="D230" s="48"/>
+      <c r="E230" s="49"/>
+      <c r="F230" s="15"/>
+      <c r="G230" s="15"/>
     </row>
     <row r="231" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A231" s="8" t="str">
+      <c r="A231" s="16" t="str">
         <f>IF(ISBLANK(B231),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B231))</f>
         <v/>
       </c>
-      <c r="B231" s="46"/>
-      <c r="C231" s="47"/>
-      <c r="D231" s="48"/>
-      <c r="E231" s="49"/>
-      <c r="F231" s="15"/>
-      <c r="G231" s="15"/>
+      <c r="B231" s="50"/>
+      <c r="C231" s="51"/>
+      <c r="D231" s="52"/>
+      <c r="E231" s="53"/>
+      <c r="F231" s="17"/>
+      <c r="G231" s="17"/>
     </row>
     <row r="232" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A232" s="16" t="str">
+      <c r="A232" s="8" t="str">
         <f>IF(ISBLANK(B232),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B232))</f>
         <v/>
       </c>
-      <c r="B232" s="50"/>
-      <c r="C232" s="51"/>
-      <c r="D232" s="52"/>
-      <c r="E232" s="53"/>
-      <c r="F232" s="17"/>
-      <c r="G232" s="17"/>
+      <c r="B232" s="46"/>
+      <c r="C232" s="47"/>
+      <c r="D232" s="48"/>
+      <c r="E232" s="49"/>
+      <c r="F232" s="15"/>
+      <c r="G232" s="15"/>
     </row>
     <row r="233" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A233" s="8" t="str">
+      <c r="A233" s="16" t="str">
         <f>IF(ISBLANK(B233),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B233))</f>
         <v/>
       </c>
-      <c r="B233" s="46"/>
-      <c r="C233" s="47"/>
-      <c r="D233" s="48"/>
-      <c r="E233" s="49"/>
-      <c r="F233" s="15"/>
-      <c r="G233" s="15"/>
+      <c r="B233" s="50"/>
+      <c r="C233" s="51"/>
+      <c r="D233" s="52"/>
+      <c r="E233" s="53"/>
+      <c r="F233" s="17"/>
+      <c r="G233" s="17"/>
     </row>
     <row r="234" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A234" s="16" t="str">
+      <c r="A234" s="8" t="str">
         <f>IF(ISBLANK(B234),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B234))</f>
         <v/>
       </c>
-      <c r="B234" s="50"/>
-      <c r="C234" s="51"/>
-      <c r="D234" s="52"/>
-      <c r="E234" s="53"/>
-      <c r="F234" s="17"/>
-      <c r="G234" s="17"/>
+      <c r="B234" s="46"/>
+      <c r="C234" s="47"/>
+      <c r="D234" s="48"/>
+      <c r="E234" s="49"/>
+      <c r="F234" s="15"/>
+      <c r="G234" s="15"/>
     </row>
     <row r="235" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A235" s="8" t="str">
+      <c r="A235" s="16" t="str">
         <f>IF(ISBLANK(B235),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B235))</f>
         <v/>
       </c>
-      <c r="B235" s="46"/>
-      <c r="C235" s="47"/>
-      <c r="D235" s="48"/>
-      <c r="E235" s="49"/>
-      <c r="F235" s="15"/>
-      <c r="G235" s="15"/>
+      <c r="B235" s="50"/>
+      <c r="C235" s="51"/>
+      <c r="D235" s="52"/>
+      <c r="E235" s="53"/>
+      <c r="F235" s="17"/>
+      <c r="G235" s="17"/>
     </row>
     <row r="236" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A236" s="16" t="str">
+      <c r="A236" s="8" t="str">
         <f>IF(ISBLANK(B236),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B236))</f>
         <v/>
       </c>
-      <c r="B236" s="50"/>
-      <c r="C236" s="51"/>
-      <c r="D236" s="52"/>
-      <c r="E236" s="53"/>
-      <c r="F236" s="17"/>
-      <c r="G236" s="17"/>
+      <c r="B236" s="46"/>
+      <c r="C236" s="47"/>
+      <c r="D236" s="48"/>
+      <c r="E236" s="49"/>
+      <c r="F236" s="15"/>
+      <c r="G236" s="15"/>
     </row>
     <row r="237" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A237" s="8" t="str">
+      <c r="A237" s="16" t="str">
         <f>IF(ISBLANK(B237),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B237))</f>
         <v/>
       </c>
-      <c r="B237" s="46"/>
-      <c r="C237" s="47"/>
-      <c r="D237" s="48"/>
-      <c r="E237" s="49"/>
-      <c r="F237" s="15"/>
-      <c r="G237" s="15"/>
+      <c r="B237" s="50"/>
+      <c r="C237" s="51"/>
+      <c r="D237" s="52"/>
+      <c r="E237" s="53"/>
+      <c r="F237" s="17"/>
+      <c r="G237" s="17"/>
     </row>
     <row r="238" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A238" s="16" t="str">
+      <c r="A238" s="8" t="str">
         <f>IF(ISBLANK(B238),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B238))</f>
         <v/>
       </c>
-      <c r="B238" s="50"/>
-      <c r="C238" s="51"/>
-      <c r="D238" s="52"/>
-      <c r="E238" s="53"/>
-      <c r="F238" s="17"/>
-      <c r="G238" s="17"/>
+      <c r="B238" s="46"/>
+      <c r="C238" s="47"/>
+      <c r="D238" s="48"/>
+      <c r="E238" s="49"/>
+      <c r="F238" s="15"/>
+      <c r="G238" s="15"/>
     </row>
     <row r="239" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A239" s="8" t="str">
+      <c r="A239" s="16" t="str">
         <f>IF(ISBLANK(B239),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B239))</f>
         <v/>
       </c>
-      <c r="B239" s="46"/>
-      <c r="C239" s="47"/>
-      <c r="D239" s="48"/>
-      <c r="E239" s="49"/>
-      <c r="F239" s="15"/>
-      <c r="G239" s="15"/>
+      <c r="B239" s="50"/>
+      <c r="C239" s="51"/>
+      <c r="D239" s="52"/>
+      <c r="E239" s="53"/>
+      <c r="F239" s="17"/>
+      <c r="G239" s="17"/>
     </row>
     <row r="240" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A240" s="16" t="str">
+      <c r="A240" s="8" t="str">
         <f>IF(ISBLANK(B240),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B240))</f>
         <v/>
       </c>
-      <c r="B240" s="50"/>
-      <c r="C240" s="51"/>
-      <c r="D240" s="52"/>
-      <c r="E240" s="53"/>
-      <c r="F240" s="17"/>
-      <c r="G240" s="17"/>
+      <c r="B240" s="46"/>
+      <c r="C240" s="47"/>
+      <c r="D240" s="48"/>
+      <c r="E240" s="49"/>
+      <c r="F240" s="15"/>
+      <c r="G240" s="15"/>
     </row>
     <row r="241" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A241" s="8" t="str">
+      <c r="A241" s="16" t="str">
         <f>IF(ISBLANK(B241),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B241))</f>
         <v/>
       </c>
-      <c r="B241" s="46"/>
-      <c r="C241" s="47"/>
-      <c r="D241" s="48"/>
-      <c r="E241" s="49"/>
-      <c r="F241" s="15"/>
-      <c r="G241" s="15"/>
+      <c r="B241" s="50"/>
+      <c r="C241" s="51"/>
+      <c r="D241" s="52"/>
+      <c r="E241" s="53"/>
+      <c r="F241" s="17"/>
+      <c r="G241" s="17"/>
     </row>
     <row r="242" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A242" s="16" t="str">
+      <c r="A242" s="8" t="str">
         <f>IF(ISBLANK(B242),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B242))</f>
         <v/>
       </c>
-      <c r="B242" s="50"/>
-      <c r="C242" s="51"/>
-      <c r="D242" s="52"/>
-      <c r="E242" s="53"/>
-      <c r="F242" s="17"/>
-      <c r="G242" s="17"/>
+      <c r="B242" s="46"/>
+      <c r="C242" s="47"/>
+      <c r="D242" s="48"/>
+      <c r="E242" s="49"/>
+      <c r="F242" s="15"/>
+      <c r="G242" s="15"/>
     </row>
     <row r="243" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A243" s="8" t="str">
+      <c r="A243" s="16" t="str">
         <f>IF(ISBLANK(B243),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B243))</f>
         <v/>
       </c>
-      <c r="B243" s="46"/>
-      <c r="C243" s="47"/>
-      <c r="D243" s="48"/>
-      <c r="E243" s="49"/>
-      <c r="F243" s="15"/>
-      <c r="G243" s="15"/>
+      <c r="B243" s="50"/>
+      <c r="C243" s="51"/>
+      <c r="D243" s="52"/>
+      <c r="E243" s="53"/>
+      <c r="F243" s="17"/>
+      <c r="G243" s="17"/>
     </row>
     <row r="244" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A244" s="16" t="str">
+      <c r="A244" s="8" t="str">
         <f>IF(ISBLANK(B244),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B244))</f>
         <v/>
       </c>
-      <c r="B244" s="50"/>
-      <c r="C244" s="51"/>
-      <c r="D244" s="52"/>
-      <c r="E244" s="53"/>
-      <c r="F244" s="17"/>
-      <c r="G244" s="17"/>
+      <c r="B244" s="46"/>
+      <c r="C244" s="47"/>
+      <c r="D244" s="48"/>
+      <c r="E244" s="49"/>
+      <c r="F244" s="15"/>
+      <c r="G244" s="15"/>
     </row>
     <row r="245" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A245" s="8" t="str">
+      <c r="A245" s="16" t="str">
         <f>IF(ISBLANK(B245),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B245))</f>
         <v/>
       </c>
-      <c r="B245" s="46"/>
-      <c r="C245" s="47"/>
-      <c r="D245" s="48"/>
-      <c r="E245" s="49"/>
-      <c r="F245" s="15"/>
-      <c r="G245" s="15"/>
+      <c r="B245" s="50"/>
+      <c r="C245" s="51"/>
+      <c r="D245" s="52"/>
+      <c r="E245" s="53"/>
+      <c r="F245" s="17"/>
+      <c r="G245" s="17"/>
     </row>
     <row r="246" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A246" s="16" t="str">
+      <c r="A246" s="8" t="str">
         <f>IF(ISBLANK(B246),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B246))</f>
         <v/>
       </c>
-      <c r="B246" s="50"/>
-      <c r="C246" s="51"/>
-      <c r="D246" s="52"/>
-      <c r="E246" s="53"/>
-      <c r="F246" s="17"/>
-      <c r="G246" s="17"/>
+      <c r="B246" s="46"/>
+      <c r="C246" s="47"/>
+      <c r="D246" s="48"/>
+      <c r="E246" s="49"/>
+      <c r="F246" s="15"/>
+      <c r="G246" s="15"/>
     </row>
     <row r="247" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A247" s="8" t="str">
+      <c r="A247" s="16" t="str">
         <f>IF(ISBLANK(B247),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B247))</f>
         <v/>
       </c>
-      <c r="B247" s="46"/>
-      <c r="C247" s="47"/>
-      <c r="D247" s="48"/>
-      <c r="E247" s="49"/>
-      <c r="F247" s="15"/>
-      <c r="G247" s="15"/>
+      <c r="B247" s="50"/>
+      <c r="C247" s="51"/>
+      <c r="D247" s="52"/>
+      <c r="E247" s="53"/>
+      <c r="F247" s="17"/>
+      <c r="G247" s="17"/>
     </row>
     <row r="248" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A248" s="16" t="str">
+      <c r="A248" s="8" t="str">
         <f>IF(ISBLANK(B248),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B248))</f>
         <v/>
       </c>
-      <c r="B248" s="50"/>
-      <c r="C248" s="51"/>
-      <c r="D248" s="52"/>
-      <c r="E248" s="53"/>
-      <c r="F248" s="17"/>
-      <c r="G248" s="17"/>
+      <c r="B248" s="46"/>
+      <c r="C248" s="47"/>
+      <c r="D248" s="48"/>
+      <c r="E248" s="49"/>
+      <c r="F248" s="15"/>
+      <c r="G248" s="15"/>
     </row>
     <row r="249" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A249" s="8" t="str">
+      <c r="A249" s="16" t="str">
         <f>IF(ISBLANK(B249),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B249))</f>
         <v/>
       </c>
-      <c r="B249" s="46"/>
-      <c r="C249" s="47"/>
-      <c r="D249" s="48"/>
-      <c r="E249" s="49"/>
-      <c r="F249" s="15"/>
-      <c r="G249" s="15"/>
+      <c r="B249" s="50"/>
+      <c r="C249" s="51"/>
+      <c r="D249" s="52"/>
+      <c r="E249" s="53"/>
+      <c r="F249" s="17"/>
+      <c r="G249" s="17"/>
     </row>
     <row r="250" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A250" s="16" t="str">
+      <c r="A250" s="8" t="str">
         <f>IF(ISBLANK(B250),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B250))</f>
         <v/>
       </c>
-      <c r="B250" s="50"/>
-      <c r="C250" s="51"/>
-      <c r="D250" s="52"/>
-      <c r="E250" s="53"/>
-      <c r="F250" s="17"/>
-      <c r="G250" s="17"/>
+      <c r="B250" s="46"/>
+      <c r="C250" s="47"/>
+      <c r="D250" s="48"/>
+      <c r="E250" s="49"/>
+      <c r="F250" s="15"/>
+      <c r="G250" s="15"/>
     </row>
     <row r="251" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A251" s="8" t="str">
+      <c r="A251" s="16" t="str">
         <f>IF(ISBLANK(B251),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B251))</f>
         <v/>
       </c>
-      <c r="B251" s="46"/>
-      <c r="C251" s="47"/>
-      <c r="D251" s="48"/>
-      <c r="E251" s="49"/>
-      <c r="F251" s="15"/>
-      <c r="G251" s="15"/>
+      <c r="B251" s="50"/>
+      <c r="C251" s="51"/>
+      <c r="D251" s="52"/>
+      <c r="E251" s="53"/>
+      <c r="F251" s="17"/>
+      <c r="G251" s="17"/>
     </row>
     <row r="252" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A252" s="16" t="str">
+      <c r="A252" s="8" t="str">
         <f>IF(ISBLANK(B252),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B252))</f>
         <v/>
       </c>
-      <c r="B252" s="50"/>
-      <c r="C252" s="51"/>
-      <c r="D252" s="52"/>
-      <c r="E252" s="53"/>
-      <c r="F252" s="17"/>
-      <c r="G252" s="17"/>
+      <c r="B252" s="46"/>
+      <c r="C252" s="47"/>
+      <c r="D252" s="48"/>
+      <c r="E252" s="49"/>
+      <c r="F252" s="15"/>
+      <c r="G252" s="15"/>
     </row>
     <row r="253" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A253" s="8" t="str">
+      <c r="A253" s="16" t="str">
         <f>IF(ISBLANK(B253),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B253))</f>
         <v/>
       </c>
-      <c r="B253" s="46"/>
-      <c r="C253" s="47"/>
-      <c r="D253" s="48"/>
-      <c r="E253" s="49"/>
-      <c r="F253" s="15"/>
-      <c r="G253" s="15"/>
+      <c r="B253" s="50"/>
+      <c r="C253" s="51"/>
+      <c r="D253" s="52"/>
+      <c r="E253" s="53"/>
+      <c r="F253" s="17"/>
+      <c r="G253" s="17"/>
     </row>
     <row r="254" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A254" s="16" t="str">
+      <c r="A254" s="8" t="str">
         <f>IF(ISBLANK(B254),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B254))</f>
         <v/>
       </c>
-      <c r="B254" s="50"/>
-      <c r="C254" s="51"/>
-      <c r="D254" s="52"/>
-      <c r="E254" s="53"/>
-      <c r="F254" s="17"/>
-      <c r="G254" s="17"/>
+      <c r="B254" s="46"/>
+      <c r="C254" s="47"/>
+      <c r="D254" s="48"/>
+      <c r="E254" s="49"/>
+      <c r="F254" s="15"/>
+      <c r="G254" s="15"/>
     </row>
     <row r="255" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A255" s="8" t="str">
+      <c r="A255" s="16" t="str">
         <f>IF(ISBLANK(B255),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B255))</f>
         <v/>
       </c>
-      <c r="B255" s="46"/>
-      <c r="C255" s="47"/>
-      <c r="D255" s="48"/>
-      <c r="E255" s="49"/>
-      <c r="F255" s="15"/>
-      <c r="G255" s="15"/>
+      <c r="B255" s="50"/>
+      <c r="C255" s="51"/>
+      <c r="D255" s="52"/>
+      <c r="E255" s="53"/>
+      <c r="F255" s="17"/>
+      <c r="G255" s="17"/>
     </row>
     <row r="256" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A256" s="16" t="str">
+      <c r="A256" s="8" t="str">
         <f>IF(ISBLANK(B256),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B256))</f>
         <v/>
       </c>
-      <c r="B256" s="50"/>
-      <c r="C256" s="51"/>
-      <c r="D256" s="52"/>
-      <c r="E256" s="53"/>
-      <c r="F256" s="17"/>
-      <c r="G256" s="17"/>
+      <c r="B256" s="46"/>
+      <c r="C256" s="47"/>
+      <c r="D256" s="48"/>
+      <c r="E256" s="49"/>
+      <c r="F256" s="15"/>
+      <c r="G256" s="15"/>
     </row>
     <row r="257" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A257" s="8" t="str">
+      <c r="A257" s="16" t="str">
         <f>IF(ISBLANK(B257),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B257))</f>
         <v/>
       </c>
-      <c r="B257" s="46"/>
-      <c r="C257" s="47"/>
-      <c r="D257" s="48"/>
-      <c r="E257" s="49"/>
-      <c r="F257" s="15"/>
-      <c r="G257" s="15"/>
+      <c r="B257" s="50"/>
+      <c r="C257" s="51"/>
+      <c r="D257" s="52"/>
+      <c r="E257" s="53"/>
+      <c r="F257" s="17"/>
+      <c r="G257" s="17"/>
     </row>
     <row r="258" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A258" s="16" t="str">
+      <c r="A258" s="8" t="str">
         <f>IF(ISBLANK(B258),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B258))</f>
         <v/>
       </c>
-      <c r="B258" s="50"/>
-      <c r="C258" s="51"/>
-      <c r="D258" s="52"/>
-      <c r="E258" s="53"/>
-      <c r="F258" s="17"/>
-      <c r="G258" s="17"/>
+      <c r="B258" s="46"/>
+      <c r="C258" s="47"/>
+      <c r="D258" s="48"/>
+      <c r="E258" s="49"/>
+      <c r="F258" s="15"/>
+      <c r="G258" s="15"/>
     </row>
     <row r="259" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A259" s="8" t="str">
+      <c r="A259" s="16" t="str">
         <f>IF(ISBLANK(B259),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B259))</f>
         <v/>
       </c>
-      <c r="B259" s="46"/>
-      <c r="C259" s="47"/>
-      <c r="D259" s="48"/>
-      <c r="E259" s="49"/>
-      <c r="F259" s="15"/>
-      <c r="G259" s="15"/>
+      <c r="B259" s="50"/>
+      <c r="C259" s="51"/>
+      <c r="D259" s="52"/>
+      <c r="E259" s="53"/>
+      <c r="F259" s="17"/>
+      <c r="G259" s="17"/>
     </row>
     <row r="260" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A260" s="16" t="str">
+      <c r="A260" s="8" t="str">
         <f>IF(ISBLANK(B260),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B260))</f>
         <v/>
       </c>
-      <c r="B260" s="50"/>
-      <c r="C260" s="51"/>
-      <c r="D260" s="52"/>
-      <c r="E260" s="53"/>
-      <c r="F260" s="17"/>
-      <c r="G260" s="17"/>
+      <c r="B260" s="46"/>
+      <c r="C260" s="47"/>
+      <c r="D260" s="48"/>
+      <c r="E260" s="49"/>
+      <c r="F260" s="15"/>
+      <c r="G260" s="15"/>
     </row>
     <row r="261" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A261" s="8" t="str">
+      <c r="A261" s="16" t="str">
         <f>IF(ISBLANK(B261),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B261))</f>
         <v/>
       </c>
-      <c r="B261" s="46"/>
-      <c r="C261" s="47"/>
-      <c r="D261" s="48"/>
-      <c r="E261" s="49"/>
-      <c r="F261" s="15"/>
-      <c r="G261" s="15"/>
+      <c r="B261" s="50"/>
+      <c r="C261" s="51"/>
+      <c r="D261" s="52"/>
+      <c r="E261" s="53"/>
+      <c r="F261" s="17"/>
+      <c r="G261" s="17"/>
     </row>
     <row r="262" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A262" s="16" t="str">
+      <c r="A262" s="8" t="str">
         <f>IF(ISBLANK(B262),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B262))</f>
         <v/>
       </c>
-      <c r="B262" s="50"/>
-      <c r="C262" s="51"/>
-      <c r="D262" s="52"/>
-      <c r="E262" s="53"/>
-      <c r="F262" s="17"/>
-      <c r="G262" s="17"/>
+      <c r="B262" s="46"/>
+      <c r="C262" s="47"/>
+      <c r="D262" s="48"/>
+      <c r="E262" s="49"/>
+      <c r="F262" s="15"/>
+      <c r="G262" s="15"/>
     </row>
     <row r="263" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A263" s="8" t="str">
+      <c r="A263" s="16" t="str">
         <f>IF(ISBLANK(B263),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B263))</f>
         <v/>
       </c>
-      <c r="B263" s="46"/>
-      <c r="C263" s="47"/>
-      <c r="D263" s="48"/>
-      <c r="E263" s="49"/>
-      <c r="F263" s="15"/>
-      <c r="G263" s="15"/>
+      <c r="B263" s="50"/>
+      <c r="C263" s="51"/>
+      <c r="D263" s="52"/>
+      <c r="E263" s="53"/>
+      <c r="F263" s="17"/>
+      <c r="G263" s="17"/>
     </row>
     <row r="264" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A264" s="16" t="str">
+      <c r="A264" s="8" t="str">
         <f>IF(ISBLANK(B264),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B264))</f>
         <v/>
       </c>
-      <c r="B264" s="50"/>
-      <c r="C264" s="51"/>
-      <c r="D264" s="52"/>
-      <c r="E264" s="53"/>
-      <c r="F264" s="17"/>
-      <c r="G264" s="17"/>
+      <c r="B264" s="46"/>
+      <c r="C264" s="47"/>
+      <c r="D264" s="48"/>
+      <c r="E264" s="49"/>
+      <c r="F264" s="15"/>
+      <c r="G264" s="15"/>
     </row>
     <row r="265" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A265" s="8" t="str">
+      <c r="A265" s="16" t="str">
         <f>IF(ISBLANK(B265),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B265))</f>
         <v/>
       </c>
-      <c r="B265" s="46"/>
-      <c r="C265" s="47"/>
-      <c r="D265" s="48"/>
-      <c r="E265" s="49"/>
-      <c r="F265" s="15"/>
-      <c r="G265" s="15"/>
+      <c r="B265" s="50"/>
+      <c r="C265" s="51"/>
+      <c r="D265" s="52"/>
+      <c r="E265" s="53"/>
+      <c r="F265" s="17"/>
+      <c r="G265" s="17"/>
     </row>
     <row r="266" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A266" s="16" t="str">
+      <c r="A266" s="8" t="str">
         <f>IF(ISBLANK(B266),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B266))</f>
         <v/>
       </c>
-      <c r="B266" s="50"/>
-      <c r="C266" s="51"/>
-      <c r="D266" s="52"/>
-      <c r="E266" s="53"/>
-      <c r="F266" s="17"/>
-      <c r="G266" s="17"/>
+      <c r="B266" s="46"/>
+      <c r="C266" s="47"/>
+      <c r="D266" s="48"/>
+      <c r="E266" s="49"/>
+      <c r="F266" s="15"/>
+      <c r="G266" s="15"/>
     </row>
     <row r="267" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A267" s="8" t="str">
+      <c r="A267" s="16" t="str">
         <f>IF(ISBLANK(B267),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B267))</f>
         <v/>
       </c>
-      <c r="B267" s="46"/>
-      <c r="C267" s="47"/>
-      <c r="D267" s="48"/>
-      <c r="E267" s="49"/>
-      <c r="F267" s="15"/>
-      <c r="G267" s="15"/>
+      <c r="B267" s="50"/>
+      <c r="C267" s="51"/>
+      <c r="D267" s="52"/>
+      <c r="E267" s="53"/>
+      <c r="F267" s="17"/>
+      <c r="G267" s="17"/>
     </row>
     <row r="268" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A268" s="16" t="str">
+      <c r="A268" s="8" t="str">
         <f>IF(ISBLANK(B268),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B268))</f>
         <v/>
       </c>
-      <c r="B268" s="50"/>
-      <c r="C268" s="51"/>
-      <c r="D268" s="52"/>
-      <c r="E268" s="53"/>
-      <c r="F268" s="17"/>
-      <c r="G268" s="17"/>
+      <c r="B268" s="46"/>
+      <c r="C268" s="47"/>
+      <c r="D268" s="48"/>
+      <c r="E268" s="49"/>
+      <c r="F268" s="15"/>
+      <c r="G268" s="15"/>
     </row>
     <row r="269" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A269" s="8" t="str">
+      <c r="A269" s="16" t="str">
         <f>IF(ISBLANK(B269),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B269))</f>
         <v/>
       </c>
-      <c r="B269" s="46"/>
-      <c r="C269" s="47"/>
-      <c r="D269" s="48"/>
-      <c r="E269" s="49"/>
-      <c r="F269" s="15"/>
-      <c r="G269" s="15"/>
+      <c r="B269" s="50"/>
+      <c r="C269" s="51"/>
+      <c r="D269" s="52"/>
+      <c r="E269" s="53"/>
+      <c r="F269" s="17"/>
+      <c r="G269" s="17"/>
     </row>
     <row r="270" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A270" s="16" t="str">
+      <c r="A270" s="8" t="str">
         <f>IF(ISBLANK(B270),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B270))</f>
         <v/>
       </c>
-      <c r="B270" s="50"/>
-      <c r="C270" s="51"/>
-      <c r="D270" s="52"/>
-      <c r="E270" s="53"/>
-      <c r="F270" s="17"/>
-      <c r="G270" s="17"/>
+      <c r="B270" s="46"/>
+      <c r="C270" s="47"/>
+      <c r="D270" s="48"/>
+      <c r="E270" s="49"/>
+      <c r="F270" s="15"/>
+      <c r="G270" s="15"/>
     </row>
     <row r="271" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A271" s="8" t="str">
+      <c r="A271" s="16" t="str">
         <f>IF(ISBLANK(B271),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B271))</f>
         <v/>
       </c>
-      <c r="B271" s="46"/>
-      <c r="C271" s="47"/>
-      <c r="D271" s="48"/>
-      <c r="E271" s="49"/>
-      <c r="F271" s="15"/>
-      <c r="G271" s="15"/>
+      <c r="B271" s="50"/>
+      <c r="C271" s="51"/>
+      <c r="D271" s="52"/>
+      <c r="E271" s="53"/>
+      <c r="F271" s="17"/>
+      <c r="G271" s="17"/>
     </row>
     <row r="272" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A272" s="16" t="str">
+      <c r="A272" s="8" t="str">
         <f>IF(ISBLANK(B272),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B272))</f>
         <v/>
       </c>
-      <c r="B272" s="50"/>
-      <c r="C272" s="51"/>
-      <c r="D272" s="52"/>
-      <c r="E272" s="53"/>
-      <c r="F272" s="17"/>
-      <c r="G272" s="17"/>
+      <c r="B272" s="46"/>
+      <c r="C272" s="47"/>
+      <c r="D272" s="48"/>
+      <c r="E272" s="49"/>
+      <c r="F272" s="15"/>
+      <c r="G272" s="15"/>
     </row>
     <row r="273" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A273" s="8" t="str">
+      <c r="A273" s="16" t="str">
         <f>IF(ISBLANK(B273),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B273))</f>
         <v/>
       </c>
-      <c r="B273" s="46"/>
-      <c r="C273" s="47"/>
-      <c r="D273" s="48"/>
-      <c r="E273" s="49"/>
-      <c r="F273" s="15"/>
-      <c r="G273" s="15"/>
+      <c r="B273" s="50"/>
+      <c r="C273" s="51"/>
+      <c r="D273" s="52"/>
+      <c r="E273" s="53"/>
+      <c r="F273" s="17"/>
+      <c r="G273" s="17"/>
     </row>
     <row r="274" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A274" s="16" t="str">
+      <c r="A274" s="8" t="str">
         <f>IF(ISBLANK(B274),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B274))</f>
         <v/>
       </c>
-      <c r="B274" s="50"/>
-      <c r="C274" s="51"/>
-      <c r="D274" s="52"/>
-      <c r="E274" s="53"/>
-      <c r="F274" s="17"/>
-      <c r="G274" s="17"/>
+      <c r="B274" s="46"/>
+      <c r="C274" s="47"/>
+      <c r="D274" s="48"/>
+      <c r="E274" s="49"/>
+      <c r="F274" s="15"/>
+      <c r="G274" s="15"/>
     </row>
     <row r="275" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A275" s="8" t="str">
+      <c r="A275" s="16" t="str">
         <f>IF(ISBLANK(B275),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B275))</f>
         <v/>
       </c>
-      <c r="B275" s="46"/>
-      <c r="C275" s="47"/>
-      <c r="D275" s="48"/>
-      <c r="E275" s="49"/>
-      <c r="F275" s="15"/>
-      <c r="G275" s="15"/>
+      <c r="B275" s="50"/>
+      <c r="C275" s="51"/>
+      <c r="D275" s="52"/>
+      <c r="E275" s="53"/>
+      <c r="F275" s="17"/>
+      <c r="G275" s="17"/>
     </row>
     <row r="276" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A276" s="16" t="str">
+      <c r="A276" s="8" t="str">
         <f>IF(ISBLANK(B276),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B276))</f>
         <v/>
       </c>
-      <c r="B276" s="50"/>
-      <c r="C276" s="51"/>
-      <c r="D276" s="52"/>
-      <c r="E276" s="53"/>
-      <c r="F276" s="17"/>
-      <c r="G276" s="17"/>
+      <c r="B276" s="46"/>
+      <c r="C276" s="47"/>
+      <c r="D276" s="48"/>
+      <c r="E276" s="49"/>
+      <c r="F276" s="15"/>
+      <c r="G276" s="15"/>
     </row>
     <row r="277" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A277" s="8" t="str">
+      <c r="A277" s="16" t="str">
         <f>IF(ISBLANK(B277),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B277))</f>
         <v/>
       </c>
-      <c r="B277" s="46"/>
-      <c r="C277" s="47"/>
-      <c r="D277" s="48"/>
-      <c r="E277" s="49"/>
-      <c r="F277" s="15"/>
-      <c r="G277" s="15"/>
+      <c r="B277" s="50"/>
+      <c r="C277" s="51"/>
+      <c r="D277" s="52"/>
+      <c r="E277" s="53"/>
+      <c r="F277" s="17"/>
+      <c r="G277" s="17"/>
     </row>
     <row r="278" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A278" s="16" t="str">
+      <c r="A278" s="8" t="str">
         <f>IF(ISBLANK(B278),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B278))</f>
         <v/>
       </c>
-      <c r="B278" s="50"/>
-      <c r="C278" s="51"/>
-      <c r="D278" s="52"/>
-      <c r="E278" s="53"/>
-      <c r="F278" s="17"/>
-      <c r="G278" s="17"/>
+      <c r="B278" s="46"/>
+      <c r="C278" s="47"/>
+      <c r="D278" s="48"/>
+      <c r="E278" s="49"/>
+      <c r="F278" s="15"/>
+      <c r="G278" s="15"/>
     </row>
     <row r="279" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A279" s="8" t="str">
+      <c r="A279" s="16" t="str">
         <f>IF(ISBLANK(B279),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B279))</f>
         <v/>
       </c>
-      <c r="B279" s="46"/>
-      <c r="C279" s="47"/>
-      <c r="D279" s="48"/>
-      <c r="E279" s="49"/>
-      <c r="F279" s="15"/>
-      <c r="G279" s="15"/>
+      <c r="B279" s="50"/>
+      <c r="C279" s="51"/>
+      <c r="D279" s="52"/>
+      <c r="E279" s="53"/>
+      <c r="F279" s="17"/>
+      <c r="G279" s="17"/>
     </row>
     <row r="280" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A280" s="16" t="str">
+      <c r="A280" s="8" t="str">
         <f>IF(ISBLANK(B280),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B280))</f>
         <v/>
       </c>
-      <c r="B280" s="50"/>
-      <c r="C280" s="51"/>
-      <c r="D280" s="52"/>
-      <c r="E280" s="53"/>
-      <c r="F280" s="17"/>
-      <c r="G280" s="17"/>
+      <c r="B280" s="46"/>
+      <c r="C280" s="47"/>
+      <c r="D280" s="48"/>
+      <c r="E280" s="49"/>
+      <c r="F280" s="15"/>
+      <c r="G280" s="15"/>
     </row>
     <row r="281" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A281" s="8" t="str">
+      <c r="A281" s="16" t="str">
         <f>IF(ISBLANK(B281),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B281))</f>
         <v/>
       </c>
-      <c r="B281" s="46"/>
-      <c r="C281" s="47"/>
-      <c r="D281" s="48"/>
-      <c r="E281" s="49"/>
-      <c r="F281" s="15"/>
-      <c r="G281" s="15"/>
+      <c r="B281" s="50"/>
+      <c r="C281" s="51"/>
+      <c r="D281" s="52"/>
+      <c r="E281" s="53"/>
+      <c r="F281" s="17"/>
+      <c r="G281" s="17"/>
     </row>
     <row r="282" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A282" s="16" t="str">
+      <c r="A282" s="8" t="str">
         <f>IF(ISBLANK(B282),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B282))</f>
         <v/>
       </c>
-      <c r="B282" s="50"/>
-      <c r="C282" s="51"/>
-      <c r="D282" s="52"/>
-      <c r="E282" s="53"/>
-      <c r="F282" s="17"/>
-      <c r="G282" s="17"/>
+      <c r="B282" s="46"/>
+      <c r="C282" s="47"/>
+      <c r="D282" s="48"/>
+      <c r="E282" s="49"/>
+      <c r="F282" s="15"/>
+      <c r="G282" s="15"/>
     </row>
     <row r="283" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A283" s="8" t="str">
+      <c r="A283" s="16" t="str">
         <f>IF(ISBLANK(B283),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B283))</f>
         <v/>
       </c>
-      <c r="B283" s="46"/>
-      <c r="C283" s="47"/>
-      <c r="D283" s="48"/>
-      <c r="E283" s="49"/>
-      <c r="F283" s="15"/>
-      <c r="G283" s="15"/>
+      <c r="B283" s="50"/>
+      <c r="C283" s="51"/>
+      <c r="D283" s="52"/>
+      <c r="E283" s="53"/>
+      <c r="F283" s="17"/>
+      <c r="G283" s="17"/>
     </row>
     <row r="284" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A284" s="16" t="str">
+      <c r="A284" s="8" t="str">
         <f>IF(ISBLANK(B284),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B284))</f>
         <v/>
       </c>
-      <c r="B284" s="50"/>
-      <c r="C284" s="51"/>
-      <c r="D284" s="52"/>
-      <c r="E284" s="53"/>
-      <c r="F284" s="17"/>
-      <c r="G284" s="17"/>
+      <c r="B284" s="46"/>
+      <c r="C284" s="47"/>
+      <c r="D284" s="48"/>
+      <c r="E284" s="49"/>
+      <c r="F284" s="15"/>
+      <c r="G284" s="15"/>
     </row>
     <row r="285" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A285" s="8" t="str">
+      <c r="A285" s="16" t="str">
         <f>IF(ISBLANK(B285),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B285))</f>
         <v/>
       </c>
-      <c r="B285" s="46"/>
-      <c r="C285" s="47"/>
-      <c r="D285" s="48"/>
-      <c r="E285" s="49"/>
-      <c r="F285" s="15"/>
-      <c r="G285" s="15"/>
+      <c r="B285" s="50"/>
+      <c r="C285" s="51"/>
+      <c r="D285" s="52"/>
+      <c r="E285" s="53"/>
+      <c r="F285" s="17"/>
+      <c r="G285" s="17"/>
     </row>
     <row r="286" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A286" s="16" t="str">
+      <c r="A286" s="8" t="str">
         <f>IF(ISBLANK(B286),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B286))</f>
         <v/>
       </c>
-      <c r="B286" s="50"/>
-      <c r="C286" s="51"/>
-      <c r="D286" s="52"/>
-      <c r="E286" s="53"/>
-      <c r="F286" s="17"/>
-      <c r="G286" s="17"/>
+      <c r="B286" s="46"/>
+      <c r="C286" s="47"/>
+      <c r="D286" s="48"/>
+      <c r="E286" s="49"/>
+      <c r="F286" s="15"/>
+      <c r="G286" s="15"/>
     </row>
     <row r="287" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A287" s="8" t="str">
+      <c r="A287" s="16" t="str">
         <f>IF(ISBLANK(B287),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B287))</f>
         <v/>
       </c>
-      <c r="B287" s="46"/>
-      <c r="C287" s="47"/>
-      <c r="D287" s="48"/>
-      <c r="E287" s="49"/>
-      <c r="F287" s="15"/>
-      <c r="G287" s="15"/>
+      <c r="B287" s="50"/>
+      <c r="C287" s="51"/>
+      <c r="D287" s="52"/>
+      <c r="E287" s="53"/>
+      <c r="F287" s="17"/>
+      <c r="G287" s="17"/>
     </row>
     <row r="288" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A288" s="16" t="str">
+      <c r="A288" s="8" t="str">
         <f>IF(ISBLANK(B288),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B288))</f>
         <v/>
       </c>
-      <c r="B288" s="50"/>
-      <c r="C288" s="51"/>
-      <c r="D288" s="52"/>
-      <c r="E288" s="53"/>
-      <c r="F288" s="17"/>
-      <c r="G288" s="17"/>
+      <c r="B288" s="46"/>
+      <c r="C288" s="47"/>
+      <c r="D288" s="48"/>
+      <c r="E288" s="49"/>
+      <c r="F288" s="15"/>
+      <c r="G288" s="15"/>
     </row>
     <row r="289" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A289" s="8" t="str">
+      <c r="A289" s="16" t="str">
         <f>IF(ISBLANK(B289),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B289))</f>
         <v/>
       </c>
-      <c r="B289" s="46"/>
-      <c r="C289" s="47"/>
-      <c r="D289" s="48"/>
-      <c r="E289" s="49"/>
-      <c r="F289" s="15"/>
-      <c r="G289" s="15"/>
+      <c r="B289" s="50"/>
+      <c r="C289" s="51"/>
+      <c r="D289" s="52"/>
+      <c r="E289" s="53"/>
+      <c r="F289" s="17"/>
+      <c r="G289" s="17"/>
     </row>
     <row r="290" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A290" s="16" t="str">
+      <c r="A290" s="8" t="str">
         <f>IF(ISBLANK(B290),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B290))</f>
         <v/>
       </c>
-      <c r="B290" s="50"/>
-      <c r="C290" s="51"/>
-      <c r="D290" s="52"/>
-      <c r="E290" s="53"/>
-      <c r="F290" s="17"/>
-      <c r="G290" s="17"/>
+      <c r="B290" s="46"/>
+      <c r="C290" s="47"/>
+      <c r="D290" s="48"/>
+      <c r="E290" s="49"/>
+      <c r="F290" s="15"/>
+      <c r="G290" s="15"/>
     </row>
     <row r="291" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A291" s="8" t="str">
+      <c r="A291" s="16" t="str">
         <f>IF(ISBLANK(B291),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B291))</f>
         <v/>
       </c>
-      <c r="B291" s="46"/>
-      <c r="C291" s="47"/>
-      <c r="D291" s="48"/>
-      <c r="E291" s="49"/>
-      <c r="F291" s="15"/>
-      <c r="G291" s="15"/>
+      <c r="B291" s="50"/>
+      <c r="C291" s="51"/>
+      <c r="D291" s="52"/>
+      <c r="E291" s="53"/>
+      <c r="F291" s="17"/>
+      <c r="G291" s="17"/>
     </row>
     <row r="292" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A292" s="16" t="str">
+      <c r="A292" s="8" t="str">
         <f>IF(ISBLANK(B292),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B292))</f>
         <v/>
       </c>
-      <c r="B292" s="50"/>
-      <c r="C292" s="51"/>
-      <c r="D292" s="52"/>
-      <c r="E292" s="53"/>
-      <c r="F292" s="17"/>
-      <c r="G292" s="17"/>
+      <c r="B292" s="46"/>
+      <c r="C292" s="47"/>
+      <c r="D292" s="48"/>
+      <c r="E292" s="49"/>
+      <c r="F292" s="15"/>
+      <c r="G292" s="15"/>
     </row>
     <row r="293" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A293" s="8" t="str">
+      <c r="A293" s="16" t="str">
         <f>IF(ISBLANK(B293),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B293))</f>
         <v/>
       </c>
-      <c r="B293" s="46"/>
-      <c r="C293" s="47"/>
-      <c r="D293" s="48"/>
-      <c r="E293" s="49"/>
-      <c r="F293" s="15"/>
-      <c r="G293" s="15"/>
+      <c r="B293" s="50"/>
+      <c r="C293" s="51"/>
+      <c r="D293" s="52"/>
+      <c r="E293" s="53"/>
+      <c r="F293" s="17"/>
+      <c r="G293" s="17"/>
     </row>
     <row r="294" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A294" s="16" t="str">
+      <c r="A294" s="8" t="str">
         <f>IF(ISBLANK(B294),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B294))</f>
         <v/>
       </c>
-      <c r="B294" s="50"/>
-      <c r="C294" s="51"/>
-      <c r="D294" s="52"/>
-      <c r="E294" s="53"/>
-      <c r="F294" s="17"/>
-      <c r="G294" s="17"/>
+      <c r="B294" s="46"/>
+      <c r="C294" s="47"/>
+      <c r="D294" s="48"/>
+      <c r="E294" s="49"/>
+      <c r="F294" s="15"/>
+      <c r="G294" s="15"/>
     </row>
     <row r="295" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A295" s="8" t="str">
+      <c r="A295" s="16" t="str">
         <f>IF(ISBLANK(B295),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B295))</f>
         <v/>
       </c>
-      <c r="B295" s="46"/>
-      <c r="C295" s="47"/>
-      <c r="D295" s="48"/>
-      <c r="E295" s="49"/>
-      <c r="F295" s="15"/>
-      <c r="G295" s="15"/>
+      <c r="B295" s="50"/>
+      <c r="C295" s="51"/>
+      <c r="D295" s="52"/>
+      <c r="E295" s="53"/>
+      <c r="F295" s="17"/>
+      <c r="G295" s="17"/>
     </row>
     <row r="296" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A296" s="16" t="str">
+      <c r="A296" s="8" t="str">
         <f>IF(ISBLANK(B296),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B296))</f>
         <v/>
       </c>
-      <c r="B296" s="50"/>
-      <c r="C296" s="51"/>
-      <c r="D296" s="52"/>
-      <c r="E296" s="53"/>
-      <c r="F296" s="17"/>
-      <c r="G296" s="17"/>
+      <c r="B296" s="46"/>
+      <c r="C296" s="47"/>
+      <c r="D296" s="48"/>
+      <c r="E296" s="49"/>
+      <c r="F296" s="15"/>
+      <c r="G296" s="15"/>
     </row>
     <row r="297" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A297" s="8" t="str">
+      <c r="A297" s="16" t="str">
         <f>IF(ISBLANK(B297),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B297))</f>
         <v/>
       </c>
-      <c r="B297" s="46"/>
-      <c r="C297" s="47"/>
-      <c r="D297" s="48"/>
-      <c r="E297" s="49"/>
-      <c r="F297" s="15"/>
-      <c r="G297" s="15"/>
+      <c r="B297" s="50"/>
+      <c r="C297" s="51"/>
+      <c r="D297" s="52"/>
+      <c r="E297" s="53"/>
+      <c r="F297" s="17"/>
+      <c r="G297" s="17"/>
     </row>
     <row r="298" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A298" s="16" t="str">
+      <c r="A298" s="8" t="str">
         <f>IF(ISBLANK(B298),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B298))</f>
         <v/>
       </c>
-      <c r="B298" s="50"/>
-      <c r="C298" s="51"/>
-      <c r="D298" s="52"/>
-      <c r="E298" s="53"/>
-      <c r="F298" s="17"/>
-      <c r="G298" s="17"/>
+      <c r="B298" s="46"/>
+      <c r="C298" s="47"/>
+      <c r="D298" s="48"/>
+      <c r="E298" s="49"/>
+      <c r="F298" s="15"/>
+      <c r="G298" s="15"/>
     </row>
     <row r="299" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A299" s="8" t="str">
+      <c r="A299" s="16" t="str">
         <f>IF(ISBLANK(B299),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B299))</f>
         <v/>
       </c>
-      <c r="B299" s="46"/>
-      <c r="C299" s="47"/>
-      <c r="D299" s="48"/>
-      <c r="E299" s="49"/>
-      <c r="F299" s="15"/>
-      <c r="G299" s="15"/>
+      <c r="B299" s="50"/>
+      <c r="C299" s="51"/>
+      <c r="D299" s="52"/>
+      <c r="E299" s="53"/>
+      <c r="F299" s="17"/>
+      <c r="G299" s="17"/>
     </row>
     <row r="300" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A300" s="16" t="str">
+      <c r="A300" s="8" t="str">
         <f>IF(ISBLANK(B300),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B300))</f>
         <v/>
       </c>
-      <c r="B300" s="50"/>
-      <c r="C300" s="51"/>
-      <c r="D300" s="52"/>
-      <c r="E300" s="53"/>
-      <c r="F300" s="17"/>
-      <c r="G300" s="17"/>
+      <c r="B300" s="46"/>
+      <c r="C300" s="47"/>
+      <c r="D300" s="48"/>
+      <c r="E300" s="49"/>
+      <c r="F300" s="15"/>
+      <c r="G300" s="15"/>
     </row>
     <row r="301" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A301" s="8" t="str">
+      <c r="A301" s="16" t="str">
         <f>IF(ISBLANK(B301),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B301))</f>
         <v/>
       </c>
-      <c r="B301" s="46"/>
-      <c r="C301" s="47"/>
-      <c r="D301" s="48"/>
-      <c r="E301" s="49"/>
-      <c r="F301" s="15"/>
-      <c r="G301" s="15"/>
+      <c r="B301" s="50"/>
+      <c r="C301" s="51"/>
+      <c r="D301" s="52"/>
+      <c r="E301" s="53"/>
+      <c r="F301" s="17"/>
+      <c r="G301" s="17"/>
     </row>
     <row r="302" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A302" s="16" t="str">
+      <c r="A302" s="8" t="str">
         <f>IF(ISBLANK(B302),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B302))</f>
         <v/>
       </c>
-      <c r="B302" s="50"/>
-      <c r="C302" s="51"/>
-      <c r="D302" s="52"/>
-      <c r="E302" s="53"/>
-      <c r="F302" s="17"/>
-      <c r="G302" s="17"/>
+      <c r="B302" s="46"/>
+      <c r="C302" s="47"/>
+      <c r="D302" s="48"/>
+      <c r="E302" s="49"/>
+      <c r="F302" s="15"/>
+      <c r="G302" s="15"/>
     </row>
     <row r="303" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A303" s="8" t="str">
+      <c r="A303" s="16" t="str">
         <f>IF(ISBLANK(B303),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B303))</f>
         <v/>
       </c>
-      <c r="B303" s="46"/>
-      <c r="C303" s="47"/>
-      <c r="D303" s="48"/>
-      <c r="E303" s="49"/>
-      <c r="F303" s="15"/>
-      <c r="G303" s="15"/>
+      <c r="B303" s="50"/>
+      <c r="C303" s="51"/>
+      <c r="D303" s="52"/>
+      <c r="E303" s="53"/>
+      <c r="F303" s="17"/>
+      <c r="G303" s="17"/>
     </row>
     <row r="304" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A304" s="16" t="str">
+      <c r="A304" s="8" t="str">
         <f>IF(ISBLANK(B304),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B304))</f>
         <v/>
       </c>
-      <c r="B304" s="50"/>
-      <c r="C304" s="51"/>
-      <c r="D304" s="52"/>
-      <c r="E304" s="53"/>
-      <c r="F304" s="17"/>
-      <c r="G304" s="17"/>
+      <c r="B304" s="46"/>
+      <c r="C304" s="47"/>
+      <c r="D304" s="48"/>
+      <c r="E304" s="49"/>
+      <c r="F304" s="15"/>
+      <c r="G304" s="15"/>
     </row>
     <row r="305" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A305" s="8" t="str">
+      <c r="A305" s="16" t="str">
         <f>IF(ISBLANK(B305),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B305))</f>
         <v/>
       </c>
-      <c r="B305" s="46"/>
-      <c r="C305" s="47"/>
-      <c r="D305" s="48"/>
-      <c r="E305" s="49"/>
-      <c r="F305" s="15"/>
-      <c r="G305" s="15"/>
+      <c r="B305" s="50"/>
+      <c r="C305" s="51"/>
+      <c r="D305" s="52"/>
+      <c r="E305" s="53"/>
+      <c r="F305" s="17"/>
+      <c r="G305" s="17"/>
     </row>
     <row r="306" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A306" s="16" t="str">
+      <c r="A306" s="8" t="str">
         <f>IF(ISBLANK(B306),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B306))</f>
         <v/>
       </c>
-      <c r="B306" s="50"/>
-      <c r="C306" s="51"/>
-      <c r="D306" s="52"/>
-      <c r="E306" s="53"/>
-      <c r="F306" s="17"/>
-      <c r="G306" s="17"/>
+      <c r="B306" s="46"/>
+      <c r="C306" s="47"/>
+      <c r="D306" s="48"/>
+      <c r="E306" s="49"/>
+      <c r="F306" s="15"/>
+      <c r="G306" s="15"/>
     </row>
     <row r="307" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A307" s="8" t="str">
+      <c r="A307" s="16" t="str">
         <f>IF(ISBLANK(B307),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B307))</f>
         <v/>
       </c>
-      <c r="B307" s="46"/>
-      <c r="C307" s="47"/>
-      <c r="D307" s="48"/>
-      <c r="E307" s="49"/>
-      <c r="F307" s="15"/>
-      <c r="G307" s="15"/>
+      <c r="B307" s="50"/>
+      <c r="C307" s="51"/>
+      <c r="D307" s="52"/>
+      <c r="E307" s="53"/>
+      <c r="F307" s="17"/>
+      <c r="G307" s="17"/>
     </row>
     <row r="308" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A308" s="16" t="str">
+      <c r="A308" s="8" t="str">
         <f>IF(ISBLANK(B308),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B308))</f>
         <v/>
       </c>
-      <c r="B308" s="50"/>
-      <c r="C308" s="51"/>
-      <c r="D308" s="52"/>
-      <c r="E308" s="53"/>
-      <c r="F308" s="17"/>
-      <c r="G308" s="17"/>
+      <c r="B308" s="46"/>
+      <c r="C308" s="47"/>
+      <c r="D308" s="48"/>
+      <c r="E308" s="49"/>
+      <c r="F308" s="15"/>
+      <c r="G308" s="15"/>
     </row>
     <row r="309" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A309" s="8" t="str">
+      <c r="A309" s="16" t="str">
         <f>IF(ISBLANK(B309),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B309))</f>
         <v/>
       </c>
-      <c r="B309" s="46"/>
-      <c r="C309" s="47"/>
-      <c r="D309" s="48"/>
-      <c r="E309" s="49"/>
-      <c r="F309" s="15"/>
-      <c r="G309" s="15"/>
+      <c r="B309" s="50"/>
+      <c r="C309" s="51"/>
+      <c r="D309" s="52"/>
+      <c r="E309" s="53"/>
+      <c r="F309" s="17"/>
+      <c r="G309" s="17"/>
     </row>
     <row r="310" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A310" s="16" t="str">
+      <c r="A310" s="8" t="str">
         <f>IF(ISBLANK(B310),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B310))</f>
         <v/>
       </c>
-      <c r="B310" s="50"/>
-      <c r="C310" s="51"/>
-      <c r="D310" s="52"/>
-      <c r="E310" s="53"/>
-      <c r="F310" s="17"/>
-      <c r="G310" s="17"/>
+      <c r="B310" s="46"/>
+      <c r="C310" s="47"/>
+      <c r="D310" s="48"/>
+      <c r="E310" s="49"/>
+      <c r="F310" s="15"/>
+      <c r="G310" s="15"/>
     </row>
     <row r="311" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A311" s="8" t="str">
+      <c r="A311" s="16" t="str">
         <f>IF(ISBLANK(B311),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B311))</f>
         <v/>
       </c>
-      <c r="B311" s="46"/>
-      <c r="C311" s="47"/>
-      <c r="D311" s="48"/>
-      <c r="E311" s="49"/>
-      <c r="F311" s="15"/>
-      <c r="G311" s="15"/>
+      <c r="B311" s="50"/>
+      <c r="C311" s="51"/>
+      <c r="D311" s="52"/>
+      <c r="E311" s="53"/>
+      <c r="F311" s="17"/>
+      <c r="G311" s="17"/>
     </row>
     <row r="312" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A312" s="16" t="str">
+      <c r="A312" s="8" t="str">
         <f>IF(ISBLANK(B312),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B312))</f>
         <v/>
       </c>
-      <c r="B312" s="50"/>
-      <c r="C312" s="51"/>
-      <c r="D312" s="52"/>
-      <c r="E312" s="53"/>
-      <c r="F312" s="17"/>
-      <c r="G312" s="17"/>
+      <c r="B312" s="46"/>
+      <c r="C312" s="47"/>
+      <c r="D312" s="48"/>
+      <c r="E312" s="49"/>
+      <c r="F312" s="15"/>
+      <c r="G312" s="15"/>
     </row>
     <row r="313" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A313" s="8" t="str">
+      <c r="A313" s="16" t="str">
         <f>IF(ISBLANK(B313),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B313))</f>
         <v/>
       </c>
-      <c r="B313" s="46"/>
-      <c r="C313" s="47"/>
-      <c r="D313" s="48"/>
-      <c r="E313" s="49"/>
-      <c r="F313" s="15"/>
-      <c r="G313" s="15"/>
+      <c r="B313" s="50"/>
+      <c r="C313" s="51"/>
+      <c r="D313" s="52"/>
+      <c r="E313" s="53"/>
+      <c r="F313" s="17"/>
+      <c r="G313" s="17"/>
     </row>
     <row r="314" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A314" s="16" t="str">
+      <c r="A314" s="8" t="str">
         <f>IF(ISBLANK(B314),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B314))</f>
         <v/>
       </c>
-      <c r="B314" s="50"/>
-      <c r="C314" s="51"/>
-      <c r="D314" s="52"/>
-      <c r="E314" s="53"/>
-      <c r="F314" s="17"/>
-      <c r="G314" s="17"/>
+      <c r="B314" s="46"/>
+      <c r="C314" s="47"/>
+      <c r="D314" s="48"/>
+      <c r="E314" s="49"/>
+      <c r="F314" s="15"/>
+      <c r="G314" s="15"/>
     </row>
     <row r="315" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A315" s="8" t="str">
+      <c r="A315" s="16" t="str">
         <f>IF(ISBLANK(B315),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B315))</f>
         <v/>
       </c>
-      <c r="B315" s="46"/>
-      <c r="C315" s="47"/>
-      <c r="D315" s="48"/>
-      <c r="E315" s="49"/>
-      <c r="F315" s="15"/>
-      <c r="G315" s="15"/>
+      <c r="B315" s="50"/>
+      <c r="C315" s="51"/>
+      <c r="D315" s="52"/>
+      <c r="E315" s="53"/>
+      <c r="F315" s="17"/>
+      <c r="G315" s="17"/>
     </row>
     <row r="316" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A316" s="16" t="str">
+      <c r="A316" s="8" t="str">
         <f>IF(ISBLANK(B316),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B316))</f>
         <v/>
       </c>
-      <c r="B316" s="50"/>
-      <c r="C316" s="51"/>
-      <c r="D316" s="52"/>
-      <c r="E316" s="53"/>
-      <c r="F316" s="17"/>
-      <c r="G316" s="17"/>
+      <c r="B316" s="46"/>
+      <c r="C316" s="47"/>
+      <c r="D316" s="48"/>
+      <c r="E316" s="49"/>
+      <c r="F316" s="15"/>
+      <c r="G316" s="15"/>
     </row>
     <row r="317" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A317" s="8" t="str">
+      <c r="A317" s="16" t="str">
         <f>IF(ISBLANK(B317),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B317))</f>
         <v/>
       </c>
-      <c r="B317" s="46"/>
-      <c r="C317" s="47"/>
-      <c r="D317" s="48"/>
-      <c r="E317" s="49"/>
-      <c r="F317" s="15"/>
-      <c r="G317" s="15"/>
+      <c r="B317" s="50"/>
+      <c r="C317" s="51"/>
+      <c r="D317" s="52"/>
+      <c r="E317" s="53"/>
+      <c r="F317" s="17"/>
+      <c r="G317" s="17"/>
     </row>
     <row r="318" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A318" s="16" t="str">
+      <c r="A318" s="8" t="str">
         <f>IF(ISBLANK(B318),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B318))</f>
         <v/>
       </c>
-      <c r="B318" s="50"/>
-      <c r="C318" s="51"/>
-      <c r="D318" s="52"/>
-      <c r="E318" s="53"/>
-      <c r="F318" s="17"/>
-      <c r="G318" s="17"/>
+      <c r="B318" s="46"/>
+      <c r="C318" s="47"/>
+      <c r="D318" s="48"/>
+      <c r="E318" s="49"/>
+      <c r="F318" s="15"/>
+      <c r="G318" s="15"/>
     </row>
     <row r="319" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A319" s="8" t="str">
+      <c r="A319" s="16" t="str">
         <f>IF(ISBLANK(B319),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B319))</f>
         <v/>
       </c>
-      <c r="B319" s="46"/>
-      <c r="C319" s="47"/>
-      <c r="D319" s="48"/>
-      <c r="E319" s="49"/>
-      <c r="F319" s="15"/>
-      <c r="G319" s="15"/>
+      <c r="B319" s="50"/>
+      <c r="C319" s="51"/>
+      <c r="D319" s="52"/>
+      <c r="E319" s="53"/>
+      <c r="F319" s="17"/>
+      <c r="G319" s="17"/>
     </row>
     <row r="320" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A320" s="16" t="str">
+      <c r="A320" s="8" t="str">
         <f>IF(ISBLANK(B320),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B320))</f>
         <v/>
       </c>
-      <c r="B320" s="50"/>
-      <c r="C320" s="51"/>
-      <c r="D320" s="52"/>
-      <c r="E320" s="53"/>
-      <c r="F320" s="17"/>
-      <c r="G320" s="17"/>
+      <c r="B320" s="46"/>
+      <c r="C320" s="47"/>
+      <c r="D320" s="48"/>
+      <c r="E320" s="49"/>
+      <c r="F320" s="15"/>
+      <c r="G320" s="15"/>
     </row>
     <row r="321" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A321" s="8" t="str">
+      <c r="A321" s="16" t="str">
         <f>IF(ISBLANK(B321),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B321))</f>
         <v/>
       </c>
-      <c r="B321" s="46"/>
-      <c r="C321" s="47"/>
-      <c r="D321" s="48"/>
-      <c r="E321" s="49"/>
-      <c r="F321" s="15"/>
-      <c r="G321" s="15"/>
+      <c r="B321" s="50"/>
+      <c r="C321" s="51"/>
+      <c r="D321" s="52"/>
+      <c r="E321" s="53"/>
+      <c r="F321" s="17"/>
+      <c r="G321" s="17"/>
     </row>
     <row r="322" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A322" s="16" t="str">
+      <c r="A322" s="8" t="str">
         <f>IF(ISBLANK(B322),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B322))</f>
         <v/>
       </c>
-      <c r="B322" s="50"/>
-      <c r="C322" s="51"/>
-      <c r="D322" s="52"/>
-      <c r="E322" s="53"/>
-      <c r="F322" s="17"/>
-      <c r="G322" s="17"/>
+      <c r="B322" s="46"/>
+      <c r="C322" s="47"/>
+      <c r="D322" s="48"/>
+      <c r="E322" s="49"/>
+      <c r="F322" s="15"/>
+      <c r="G322" s="15"/>
     </row>
     <row r="323" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A323" s="8" t="str">
+      <c r="A323" s="16" t="str">
         <f>IF(ISBLANK(B323),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B323))</f>
         <v/>
       </c>
-      <c r="B323" s="46"/>
-      <c r="C323" s="47"/>
-      <c r="D323" s="48"/>
-      <c r="E323" s="49"/>
-      <c r="F323" s="15"/>
-      <c r="G323" s="15"/>
+      <c r="B323" s="50"/>
+      <c r="C323" s="51"/>
+      <c r="D323" s="52"/>
+      <c r="E323" s="53"/>
+      <c r="F323" s="17"/>
+      <c r="G323" s="17"/>
     </row>
     <row r="324" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A324" s="16" t="str">
+      <c r="A324" s="8" t="str">
         <f>IF(ISBLANK(B324),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B324))</f>
         <v/>
       </c>
-      <c r="B324" s="50"/>
-      <c r="C324" s="51"/>
-      <c r="D324" s="52"/>
-      <c r="E324" s="53"/>
-      <c r="F324" s="17"/>
-      <c r="G324" s="17"/>
+      <c r="B324" s="46"/>
+      <c r="C324" s="47"/>
+      <c r="D324" s="48"/>
+      <c r="E324" s="49"/>
+      <c r="F324" s="15"/>
+      <c r="G324" s="15"/>
     </row>
     <row r="325" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A325" s="8" t="str">
+      <c r="A325" s="16" t="str">
         <f>IF(ISBLANK(B325),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B325))</f>
         <v/>
       </c>
-      <c r="B325" s="46"/>
-      <c r="C325" s="47"/>
-      <c r="D325" s="48"/>
-      <c r="E325" s="49"/>
-      <c r="F325" s="15"/>
-      <c r="G325" s="15"/>
+      <c r="B325" s="50"/>
+      <c r="C325" s="51"/>
+      <c r="D325" s="52"/>
+      <c r="E325" s="53"/>
+      <c r="F325" s="17"/>
+      <c r="G325" s="17"/>
     </row>
     <row r="326" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A326" s="16" t="str">
+      <c r="A326" s="8" t="str">
         <f>IF(ISBLANK(B326),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B326))</f>
         <v/>
       </c>
-      <c r="B326" s="50"/>
-      <c r="C326" s="51"/>
-      <c r="D326" s="52"/>
-      <c r="E326" s="53"/>
-      <c r="F326" s="17"/>
-      <c r="G326" s="17"/>
+      <c r="B326" s="46"/>
+      <c r="C326" s="47"/>
+      <c r="D326" s="48"/>
+      <c r="E326" s="49"/>
+      <c r="F326" s="15"/>
+      <c r="G326" s="15"/>
     </row>
     <row r="327" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A327" s="8" t="str">
+      <c r="A327" s="16" t="str">
         <f>IF(ISBLANK(B327),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B327))</f>
         <v/>
       </c>
-      <c r="B327" s="46"/>
-      <c r="C327" s="47"/>
-      <c r="D327" s="48"/>
-      <c r="E327" s="49"/>
-      <c r="F327" s="15"/>
-      <c r="G327" s="15"/>
+      <c r="B327" s="50"/>
+      <c r="C327" s="51"/>
+      <c r="D327" s="52"/>
+      <c r="E327" s="53"/>
+      <c r="F327" s="17"/>
+      <c r="G327" s="17"/>
     </row>
     <row r="328" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A328" s="16" t="str">
+      <c r="A328" s="8" t="str">
         <f>IF(ISBLANK(B328),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B328))</f>
         <v/>
       </c>
-      <c r="B328" s="50"/>
-      <c r="C328" s="51"/>
-      <c r="D328" s="52"/>
-      <c r="E328" s="53"/>
-      <c r="F328" s="17"/>
-      <c r="G328" s="17"/>
+      <c r="B328" s="46"/>
+      <c r="C328" s="47"/>
+      <c r="D328" s="48"/>
+      <c r="E328" s="49"/>
+      <c r="F328" s="15"/>
+      <c r="G328" s="15"/>
     </row>
     <row r="329" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A329" s="8" t="str">
+      <c r="A329" s="16" t="str">
         <f>IF(ISBLANK(B329),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B329))</f>
         <v/>
       </c>
-      <c r="B329" s="46"/>
-      <c r="C329" s="47"/>
-      <c r="D329" s="48"/>
-      <c r="E329" s="49"/>
-      <c r="F329" s="15"/>
-      <c r="G329" s="15"/>
+      <c r="B329" s="50"/>
+      <c r="C329" s="51"/>
+      <c r="D329" s="52"/>
+      <c r="E329" s="53"/>
+      <c r="F329" s="17"/>
+      <c r="G329" s="17"/>
     </row>
     <row r="330" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A330" s="16" t="str">
+      <c r="A330" s="8" t="str">
         <f>IF(ISBLANK(B330),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B330))</f>
         <v/>
       </c>
-      <c r="B330" s="50"/>
-      <c r="C330" s="51"/>
-      <c r="D330" s="52"/>
-      <c r="E330" s="53"/>
-      <c r="F330" s="17"/>
-      <c r="G330" s="17"/>
+      <c r="B330" s="46"/>
+      <c r="C330" s="47"/>
+      <c r="D330" s="48"/>
+      <c r="E330" s="49"/>
+      <c r="F330" s="15"/>
+      <c r="G330" s="15"/>
     </row>
     <row r="331" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A331" s="8" t="str">
+      <c r="A331" s="16" t="str">
         <f>IF(ISBLANK(B331),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B331))</f>
         <v/>
       </c>
-      <c r="B331" s="46"/>
-      <c r="C331" s="47"/>
-      <c r="D331" s="48"/>
-      <c r="E331" s="49"/>
-      <c r="F331" s="15"/>
-      <c r="G331" s="15"/>
+      <c r="B331" s="50"/>
+      <c r="C331" s="51"/>
+      <c r="D331" s="52"/>
+      <c r="E331" s="53"/>
+      <c r="F331" s="17"/>
+      <c r="G331" s="17"/>
     </row>
     <row r="332" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A332" s="16" t="str">
+      <c r="A332" s="8" t="str">
         <f>IF(ISBLANK(B332),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B332))</f>
         <v/>
       </c>
-      <c r="B332" s="50"/>
-      <c r="C332" s="51"/>
-      <c r="D332" s="52"/>
-      <c r="E332" s="53"/>
-      <c r="F332" s="17"/>
-      <c r="G332" s="17"/>
+      <c r="B332" s="46"/>
+      <c r="C332" s="47"/>
+      <c r="D332" s="48"/>
+      <c r="E332" s="49"/>
+      <c r="F332" s="15"/>
+      <c r="G332" s="15"/>
     </row>
     <row r="333" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A333" s="8" t="str">
+      <c r="A333" s="16" t="str">
         <f>IF(ISBLANK(B333),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B333))</f>
         <v/>
       </c>
-      <c r="B333" s="46"/>
-      <c r="C333" s="47"/>
-      <c r="D333" s="48"/>
-      <c r="E333" s="49"/>
-      <c r="F333" s="15"/>
-      <c r="G333" s="15"/>
+      <c r="B333" s="50"/>
+      <c r="C333" s="51"/>
+      <c r="D333" s="52"/>
+      <c r="E333" s="53"/>
+      <c r="F333" s="17"/>
+      <c r="G333" s="17"/>
     </row>
     <row r="334" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A334" s="16" t="str">
+      <c r="A334" s="8" t="str">
         <f>IF(ISBLANK(B334),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B334))</f>
         <v/>
       </c>
-      <c r="B334" s="50"/>
-      <c r="C334" s="51"/>
-      <c r="D334" s="52"/>
-      <c r="E334" s="53"/>
-      <c r="F334" s="17"/>
-      <c r="G334" s="17"/>
+      <c r="B334" s="46"/>
+      <c r="C334" s="47"/>
+      <c r="D334" s="48"/>
+      <c r="E334" s="49"/>
+      <c r="F334" s="15"/>
+      <c r="G334" s="15"/>
     </row>
     <row r="335" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A335" s="8" t="str">
+      <c r="A335" s="16" t="str">
         <f>IF(ISBLANK(B335),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B335))</f>
         <v/>
       </c>
-      <c r="B335" s="46"/>
-      <c r="C335" s="47"/>
-      <c r="D335" s="48"/>
-      <c r="E335" s="49"/>
-      <c r="F335" s="15"/>
-      <c r="G335" s="15"/>
+      <c r="B335" s="50"/>
+      <c r="C335" s="51"/>
+      <c r="D335" s="52"/>
+      <c r="E335" s="53"/>
+      <c r="F335" s="17"/>
+      <c r="G335" s="17"/>
     </row>
     <row r="336" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A336" s="16" t="str">
+      <c r="A336" s="8" t="str">
         <f>IF(ISBLANK(B336),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B336))</f>
         <v/>
       </c>
-      <c r="B336" s="50"/>
-      <c r="C336" s="51"/>
-      <c r="D336" s="52"/>
-      <c r="E336" s="53"/>
-      <c r="F336" s="17"/>
-      <c r="G336" s="17"/>
+      <c r="B336" s="46"/>
+      <c r="C336" s="47"/>
+      <c r="D336" s="48"/>
+      <c r="E336" s="49"/>
+      <c r="F336" s="15"/>
+      <c r="G336" s="15"/>
     </row>
     <row r="337" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A337" s="8" t="str">
+      <c r="A337" s="16" t="str">
         <f>IF(ISBLANK(B337),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B337))</f>
         <v/>
       </c>
-      <c r="B337" s="46"/>
-      <c r="C337" s="47"/>
-      <c r="D337" s="48"/>
-      <c r="E337" s="49"/>
-      <c r="F337" s="15"/>
-      <c r="G337" s="15"/>
+      <c r="B337" s="50"/>
+      <c r="C337" s="51"/>
+      <c r="D337" s="52"/>
+      <c r="E337" s="53"/>
+      <c r="F337" s="17"/>
+      <c r="G337" s="17"/>
     </row>
     <row r="338" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A338" s="16" t="str">
+      <c r="A338" s="8" t="str">
         <f>IF(ISBLANK(B338),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B338))</f>
         <v/>
       </c>
-      <c r="B338" s="50"/>
-      <c r="C338" s="51"/>
-      <c r="D338" s="52"/>
-      <c r="E338" s="53"/>
-      <c r="F338" s="17"/>
-      <c r="G338" s="17"/>
+      <c r="B338" s="46"/>
+      <c r="C338" s="47"/>
+      <c r="D338" s="48"/>
+      <c r="E338" s="49"/>
+      <c r="F338" s="15"/>
+      <c r="G338" s="15"/>
     </row>
     <row r="339" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A339" s="8" t="str">
+      <c r="A339" s="16" t="str">
         <f>IF(ISBLANK(B339),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B339))</f>
         <v/>
       </c>
-      <c r="B339" s="46"/>
-      <c r="C339" s="47"/>
-      <c r="D339" s="48"/>
-      <c r="E339" s="49"/>
-      <c r="F339" s="15"/>
-      <c r="G339" s="15"/>
+      <c r="B339" s="50"/>
+      <c r="C339" s="51"/>
+      <c r="D339" s="52"/>
+      <c r="E339" s="53"/>
+      <c r="F339" s="17"/>
+      <c r="G339" s="17"/>
     </row>
     <row r="340" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A340" s="16" t="str">
+      <c r="A340" s="8" t="str">
         <f>IF(ISBLANK(B340),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B340))</f>
         <v/>
       </c>
-      <c r="B340" s="50"/>
-      <c r="C340" s="51"/>
-      <c r="D340" s="52"/>
-      <c r="E340" s="53"/>
-      <c r="F340" s="17"/>
-      <c r="G340" s="17"/>
+      <c r="B340" s="46"/>
+      <c r="C340" s="47"/>
+      <c r="D340" s="48"/>
+      <c r="E340" s="49"/>
+      <c r="F340" s="15"/>
+      <c r="G340" s="15"/>
     </row>
     <row r="341" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A341" s="8" t="str">
+      <c r="A341" s="16" t="str">
         <f>IF(ISBLANK(B341),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B341))</f>
         <v/>
       </c>
-      <c r="B341" s="46"/>
-      <c r="C341" s="47"/>
-      <c r="D341" s="48"/>
-      <c r="E341" s="49"/>
-      <c r="F341" s="15"/>
-      <c r="G341" s="15"/>
+      <c r="B341" s="50"/>
+      <c r="C341" s="51"/>
+      <c r="D341" s="52"/>
+      <c r="E341" s="53"/>
+      <c r="F341" s="17"/>
+      <c r="G341" s="17"/>
     </row>
     <row r="342" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A342" s="16" t="str">
+      <c r="A342" s="8" t="str">
         <f>IF(ISBLANK(B342),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B342))</f>
         <v/>
       </c>
-      <c r="B342" s="50"/>
-      <c r="C342" s="51"/>
-      <c r="D342" s="52"/>
-      <c r="E342" s="53"/>
-      <c r="F342" s="17"/>
-      <c r="G342" s="17"/>
+      <c r="B342" s="46"/>
+      <c r="C342" s="47"/>
+      <c r="D342" s="48"/>
+      <c r="E342" s="49"/>
+      <c r="F342" s="15"/>
+      <c r="G342" s="15"/>
     </row>
     <row r="343" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A343" s="8" t="str">
+      <c r="A343" s="16" t="str">
         <f>IF(ISBLANK(B343),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B343))</f>
         <v/>
       </c>
-      <c r="B343" s="46"/>
-      <c r="C343" s="47"/>
-      <c r="D343" s="48"/>
-      <c r="E343" s="49"/>
-      <c r="F343" s="15"/>
-      <c r="G343" s="15"/>
+      <c r="B343" s="50"/>
+      <c r="C343" s="51"/>
+      <c r="D343" s="52"/>
+      <c r="E343" s="53"/>
+      <c r="F343" s="17"/>
+      <c r="G343" s="17"/>
     </row>
     <row r="344" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A344" s="16" t="str">
+      <c r="A344" s="8" t="str">
         <f>IF(ISBLANK(B344),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B344))</f>
         <v/>
       </c>
-      <c r="B344" s="50"/>
-      <c r="C344" s="51"/>
-      <c r="D344" s="52"/>
-      <c r="E344" s="53"/>
-      <c r="F344" s="17"/>
-      <c r="G344" s="17"/>
+      <c r="B344" s="46"/>
+      <c r="C344" s="47"/>
+      <c r="D344" s="48"/>
+      <c r="E344" s="49"/>
+      <c r="F344" s="15"/>
+      <c r="G344" s="15"/>
     </row>
     <row r="345" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A345" s="8" t="str">
+      <c r="A345" s="16" t="str">
         <f>IF(ISBLANK(B345),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B345))</f>
         <v/>
       </c>
-      <c r="B345" s="46"/>
-      <c r="C345" s="47"/>
-      <c r="D345" s="48"/>
-      <c r="E345" s="49"/>
-      <c r="F345" s="15"/>
-      <c r="G345" s="15"/>
+      <c r="B345" s="50"/>
+      <c r="C345" s="51"/>
+      <c r="D345" s="52"/>
+      <c r="E345" s="53"/>
+      <c r="F345" s="17"/>
+      <c r="G345" s="17"/>
     </row>
     <row r="346" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A346" s="16" t="str">
+      <c r="A346" s="8" t="str">
         <f>IF(ISBLANK(B346),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B346))</f>
         <v/>
       </c>
-      <c r="B346" s="50"/>
-      <c r="C346" s="51"/>
-      <c r="D346" s="52"/>
-      <c r="E346" s="53"/>
-      <c r="F346" s="17"/>
-      <c r="G346" s="17"/>
+      <c r="B346" s="46"/>
+      <c r="C346" s="47"/>
+      <c r="D346" s="48"/>
+      <c r="E346" s="49"/>
+      <c r="F346" s="15"/>
+      <c r="G346" s="15"/>
     </row>
     <row r="347" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A347" s="8" t="str">
+      <c r="A347" s="16" t="str">
         <f>IF(ISBLANK(B347),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B347))</f>
         <v/>
       </c>
-      <c r="B347" s="46"/>
-      <c r="C347" s="47"/>
-      <c r="D347" s="48"/>
-      <c r="E347" s="49"/>
-      <c r="F347" s="15"/>
-      <c r="G347" s="15"/>
+      <c r="B347" s="50"/>
+      <c r="C347" s="51"/>
+      <c r="D347" s="52"/>
+      <c r="E347" s="53"/>
+      <c r="F347" s="17"/>
+      <c r="G347" s="17"/>
     </row>
     <row r="348" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A348" s="16" t="str">
+      <c r="A348" s="8" t="str">
         <f>IF(ISBLANK(B348),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B348))</f>
         <v/>
       </c>
-      <c r="B348" s="50"/>
-      <c r="C348" s="51"/>
-      <c r="D348" s="52"/>
-      <c r="E348" s="53"/>
-      <c r="F348" s="17"/>
-      <c r="G348" s="17"/>
+      <c r="B348" s="46"/>
+      <c r="C348" s="47"/>
+      <c r="D348" s="48"/>
+      <c r="E348" s="49"/>
+      <c r="F348" s="15"/>
+      <c r="G348" s="15"/>
     </row>
     <row r="349" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A349" s="8" t="str">
+      <c r="A349" s="16" t="str">
         <f>IF(ISBLANK(B349),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B349))</f>
         <v/>
       </c>
-      <c r="B349" s="46"/>
-      <c r="C349" s="47"/>
-      <c r="D349" s="48"/>
-      <c r="E349" s="49"/>
-      <c r="F349" s="15"/>
-      <c r="G349" s="15"/>
+      <c r="B349" s="50"/>
+      <c r="C349" s="51"/>
+      <c r="D349" s="52"/>
+      <c r="E349" s="53"/>
+      <c r="F349" s="17"/>
+      <c r="G349" s="17"/>
     </row>
     <row r="350" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A350" s="16" t="str">
+      <c r="A350" s="8" t="str">
         <f>IF(ISBLANK(B350),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B350))</f>
         <v/>
       </c>
-      <c r="B350" s="50"/>
-      <c r="C350" s="51"/>
-      <c r="D350" s="52"/>
-      <c r="E350" s="53"/>
-      <c r="F350" s="17"/>
-      <c r="G350" s="17"/>
+      <c r="B350" s="46"/>
+      <c r="C350" s="47"/>
+      <c r="D350" s="48"/>
+      <c r="E350" s="49"/>
+      <c r="F350" s="15"/>
+      <c r="G350" s="15"/>
     </row>
     <row r="351" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A351" s="8" t="str">
+      <c r="A351" s="16" t="str">
         <f>IF(ISBLANK(B351),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B351))</f>
         <v/>
       </c>
-      <c r="B351" s="46"/>
-      <c r="C351" s="47"/>
-      <c r="D351" s="48"/>
-      <c r="E351" s="49"/>
-      <c r="F351" s="15"/>
-      <c r="G351" s="15"/>
+      <c r="B351" s="50"/>
+      <c r="C351" s="51"/>
+      <c r="D351" s="52"/>
+      <c r="E351" s="53"/>
+      <c r="F351" s="17"/>
+      <c r="G351" s="17"/>
     </row>
     <row r="352" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A352" s="16" t="str">
+      <c r="A352" s="8" t="str">
         <f>IF(ISBLANK(B352),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B352))</f>
         <v/>
       </c>
-      <c r="B352" s="50"/>
-      <c r="C352" s="51"/>
-      <c r="D352" s="52"/>
-      <c r="E352" s="53"/>
-      <c r="F352" s="17"/>
-      <c r="G352" s="17"/>
+      <c r="B352" s="46"/>
+      <c r="C352" s="47"/>
+      <c r="D352" s="48"/>
+      <c r="E352" s="49"/>
+      <c r="F352" s="15"/>
+      <c r="G352" s="15"/>
     </row>
     <row r="353" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A353" s="8" t="str">
+      <c r="A353" s="16" t="str">
         <f>IF(ISBLANK(B353),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B353))</f>
         <v/>
       </c>
-      <c r="B353" s="46"/>
-      <c r="C353" s="47"/>
-      <c r="D353" s="48"/>
-      <c r="E353" s="49"/>
-      <c r="F353" s="15"/>
-      <c r="G353" s="15"/>
+      <c r="B353" s="50"/>
+      <c r="C353" s="51"/>
+      <c r="D353" s="52"/>
+      <c r="E353" s="53"/>
+      <c r="F353" s="17"/>
+      <c r="G353" s="17"/>
     </row>
     <row r="354" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A354" s="16" t="str">
+      <c r="A354" s="8" t="str">
         <f>IF(ISBLANK(B354),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B354))</f>
         <v/>
       </c>
-      <c r="B354" s="50"/>
-      <c r="C354" s="51"/>
-      <c r="D354" s="52"/>
-      <c r="E354" s="53"/>
-      <c r="F354" s="17"/>
-      <c r="G354" s="17"/>
+      <c r="B354" s="46"/>
+      <c r="C354" s="47"/>
+      <c r="D354" s="48"/>
+      <c r="E354" s="49"/>
+      <c r="F354" s="15"/>
+      <c r="G354" s="15"/>
     </row>
     <row r="355" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A355" s="8" t="str">
+      <c r="A355" s="16" t="str">
         <f>IF(ISBLANK(B355),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B355))</f>
         <v/>
       </c>
-      <c r="B355" s="46"/>
-      <c r="C355" s="47"/>
-      <c r="D355" s="48"/>
-      <c r="E355" s="49"/>
-      <c r="F355" s="15"/>
-      <c r="G355" s="15"/>
+      <c r="B355" s="50"/>
+      <c r="C355" s="51"/>
+      <c r="D355" s="52"/>
+      <c r="E355" s="53"/>
+      <c r="F355" s="17"/>
+      <c r="G355" s="17"/>
     </row>
     <row r="356" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A356" s="16" t="str">
+      <c r="A356" s="8" t="str">
         <f>IF(ISBLANK(B356),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B356))</f>
         <v/>
       </c>
-      <c r="B356" s="50"/>
-      <c r="C356" s="51"/>
-      <c r="D356" s="52"/>
-      <c r="E356" s="53"/>
-      <c r="F356" s="17"/>
-      <c r="G356" s="17"/>
+      <c r="B356" s="46"/>
+      <c r="C356" s="47"/>
+      <c r="D356" s="48"/>
+      <c r="E356" s="49"/>
+      <c r="F356" s="15"/>
+      <c r="G356" s="15"/>
     </row>
     <row r="357" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A357" s="8" t="str">
+      <c r="A357" s="16" t="str">
         <f>IF(ISBLANK(B357),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B357))</f>
         <v/>
       </c>
-      <c r="B357" s="46"/>
-      <c r="C357" s="47"/>
-      <c r="D357" s="48"/>
-      <c r="E357" s="49"/>
-      <c r="F357" s="15"/>
-      <c r="G357" s="15"/>
+      <c r="B357" s="50"/>
+      <c r="C357" s="51"/>
+      <c r="D357" s="52"/>
+      <c r="E357" s="53"/>
+      <c r="F357" s="17"/>
+      <c r="G357" s="17"/>
     </row>
     <row r="358" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A358" s="16" t="str">
+      <c r="A358" s="8" t="str">
         <f>IF(ISBLANK(B358),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B358))</f>
         <v/>
       </c>
-      <c r="B358" s="50"/>
-      <c r="C358" s="51"/>
-      <c r="D358" s="52"/>
-      <c r="E358" s="53"/>
-      <c r="F358" s="17"/>
-      <c r="G358" s="17"/>
+      <c r="B358" s="46"/>
+      <c r="C358" s="47"/>
+      <c r="D358" s="48"/>
+      <c r="E358" s="49"/>
+      <c r="F358" s="15"/>
+      <c r="G358" s="15"/>
     </row>
     <row r="359" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A359" s="8" t="str">
+      <c r="A359" s="16" t="str">
         <f>IF(ISBLANK(B359),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B359))</f>
         <v/>
       </c>
-      <c r="B359" s="46"/>
-      <c r="C359" s="47"/>
-      <c r="D359" s="48"/>
-      <c r="E359" s="49"/>
-      <c r="F359" s="15"/>
-      <c r="G359" s="15"/>
+      <c r="B359" s="50"/>
+      <c r="C359" s="51"/>
+      <c r="D359" s="52"/>
+      <c r="E359" s="53"/>
+      <c r="F359" s="17"/>
+      <c r="G359" s="17"/>
     </row>
     <row r="360" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A360" s="16" t="str">
+      <c r="A360" s="8" t="str">
         <f>IF(ISBLANK(B360),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B360))</f>
         <v/>
       </c>
-      <c r="B360" s="50"/>
-      <c r="C360" s="51"/>
-      <c r="D360" s="52"/>
-      <c r="E360" s="53"/>
-      <c r="F360" s="17"/>
-      <c r="G360" s="17"/>
+      <c r="B360" s="46"/>
+      <c r="C360" s="47"/>
+      <c r="D360" s="48"/>
+      <c r="E360" s="49"/>
+      <c r="F360" s="15"/>
+      <c r="G360" s="15"/>
     </row>
     <row r="361" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A361" s="8" t="str">
+      <c r="A361" s="16" t="str">
         <f>IF(ISBLANK(B361),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B361))</f>
         <v/>
       </c>
-      <c r="B361" s="46"/>
-      <c r="C361" s="47"/>
-      <c r="D361" s="48"/>
-      <c r="E361" s="49"/>
-      <c r="F361" s="15"/>
-      <c r="G361" s="15"/>
+      <c r="B361" s="50"/>
+      <c r="C361" s="51"/>
+      <c r="D361" s="52"/>
+      <c r="E361" s="53"/>
+      <c r="F361" s="17"/>
+      <c r="G361" s="17"/>
     </row>
     <row r="362" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A362" s="16" t="str">
+      <c r="A362" s="8" t="str">
         <f>IF(ISBLANK(B362),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B362))</f>
         <v/>
       </c>
-      <c r="B362" s="50"/>
-      <c r="C362" s="51"/>
-      <c r="D362" s="52"/>
-      <c r="E362" s="53"/>
-      <c r="F362" s="17"/>
-      <c r="G362" s="17"/>
+      <c r="B362" s="46"/>
+      <c r="C362" s="47"/>
+      <c r="D362" s="48"/>
+      <c r="E362" s="49"/>
+      <c r="F362" s="15"/>
+      <c r="G362" s="15"/>
     </row>
     <row r="363" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A363" s="8" t="str">
+      <c r="A363" s="16" t="str">
         <f>IF(ISBLANK(B363),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B363))</f>
         <v/>
       </c>
-      <c r="B363" s="46"/>
-      <c r="C363" s="47"/>
-      <c r="D363" s="48"/>
-      <c r="E363" s="49"/>
-      <c r="F363" s="15"/>
-      <c r="G363" s="15"/>
+      <c r="B363" s="50"/>
+      <c r="C363" s="51"/>
+      <c r="D363" s="52"/>
+      <c r="E363" s="53"/>
+      <c r="F363" s="17"/>
+      <c r="G363" s="17"/>
     </row>
     <row r="364" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A364" s="16" t="str">
+      <c r="A364" s="8" t="str">
         <f>IF(ISBLANK(B364),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B364))</f>
         <v/>
       </c>
-      <c r="B364" s="50"/>
-      <c r="C364" s="51"/>
-      <c r="D364" s="52"/>
-      <c r="E364" s="53"/>
-      <c r="F364" s="17"/>
-      <c r="G364" s="17"/>
+      <c r="B364" s="46"/>
+      <c r="C364" s="47"/>
+      <c r="D364" s="48"/>
+      <c r="E364" s="49"/>
+      <c r="F364" s="15"/>
+      <c r="G364" s="15"/>
     </row>
     <row r="365" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A365" s="8" t="str">
+      <c r="A365" s="16" t="str">
         <f>IF(ISBLANK(B365),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B365))</f>
         <v/>
       </c>
-      <c r="B365" s="46"/>
-      <c r="C365" s="47"/>
-      <c r="D365" s="48"/>
-      <c r="E365" s="49"/>
-      <c r="F365" s="15"/>
-      <c r="G365" s="15"/>
+      <c r="B365" s="50"/>
+      <c r="C365" s="51"/>
+      <c r="D365" s="52"/>
+      <c r="E365" s="53"/>
+      <c r="F365" s="17"/>
+      <c r="G365" s="17"/>
     </row>
     <row r="366" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A366" s="16" t="str">
+      <c r="A366" s="8" t="str">
         <f>IF(ISBLANK(B366),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B366))</f>
         <v/>
       </c>
-      <c r="B366" s="50"/>
-      <c r="C366" s="51"/>
-      <c r="D366" s="52"/>
-      <c r="E366" s="53"/>
-      <c r="F366" s="17"/>
-      <c r="G366" s="17"/>
+      <c r="B366" s="46"/>
+      <c r="C366" s="47"/>
+      <c r="D366" s="48"/>
+      <c r="E366" s="49"/>
+      <c r="F366" s="15"/>
+      <c r="G366" s="15"/>
     </row>
     <row r="367" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A367" s="8" t="str">
+      <c r="A367" s="16" t="str">
         <f>IF(ISBLANK(B367),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B367))</f>
         <v/>
       </c>
-      <c r="B367" s="46"/>
-      <c r="C367" s="47"/>
-      <c r="D367" s="48"/>
-      <c r="E367" s="49"/>
-      <c r="F367" s="15"/>
-      <c r="G367" s="15"/>
+      <c r="B367" s="50"/>
+      <c r="C367" s="51"/>
+      <c r="D367" s="52"/>
+      <c r="E367" s="53"/>
+      <c r="F367" s="17"/>
+      <c r="G367" s="17"/>
     </row>
     <row r="368" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A368" s="16" t="str">
+      <c r="A368" s="8" t="str">
         <f>IF(ISBLANK(B368),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B368))</f>
         <v/>
       </c>
-      <c r="B368" s="50"/>
-      <c r="C368" s="51"/>
-      <c r="D368" s="52"/>
-      <c r="E368" s="53"/>
-      <c r="F368" s="17"/>
-      <c r="G368" s="17"/>
+      <c r="B368" s="46"/>
+      <c r="C368" s="47"/>
+      <c r="D368" s="48"/>
+      <c r="E368" s="49"/>
+      <c r="F368" s="15"/>
+      <c r="G368" s="15"/>
     </row>
     <row r="369" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A369" s="8" t="str">
+      <c r="A369" s="16" t="str">
         <f>IF(ISBLANK(B369),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B369))</f>
         <v/>
       </c>
-      <c r="B369" s="46"/>
-      <c r="C369" s="47"/>
-      <c r="D369" s="48"/>
-      <c r="E369" s="49"/>
-      <c r="F369" s="15"/>
-      <c r="G369" s="15"/>
+      <c r="B369" s="50"/>
+      <c r="C369" s="51"/>
+      <c r="D369" s="52"/>
+      <c r="E369" s="53"/>
+      <c r="F369" s="17"/>
+      <c r="G369" s="17"/>
     </row>
     <row r="370" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A370" s="16" t="str">
+      <c r="A370" s="8" t="str">
         <f>IF(ISBLANK(B370),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B370))</f>
         <v/>
       </c>
-      <c r="B370" s="50"/>
-      <c r="C370" s="51"/>
-      <c r="D370" s="52"/>
-      <c r="E370" s="53"/>
-      <c r="F370" s="17"/>
-      <c r="G370" s="17"/>
+      <c r="B370" s="46"/>
+      <c r="C370" s="47"/>
+      <c r="D370" s="48"/>
+      <c r="E370" s="49"/>
+      <c r="F370" s="15"/>
+      <c r="G370" s="15"/>
     </row>
     <row r="371" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A371" s="8" t="str">
+      <c r="A371" s="16" t="str">
         <f>IF(ISBLANK(B371),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B371))</f>
         <v/>
       </c>
-      <c r="B371" s="46"/>
-      <c r="C371" s="47"/>
-      <c r="D371" s="48"/>
-      <c r="E371" s="49"/>
-      <c r="F371" s="15"/>
-      <c r="G371" s="15"/>
+      <c r="B371" s="50"/>
+      <c r="C371" s="51"/>
+      <c r="D371" s="52"/>
+      <c r="E371" s="53"/>
+      <c r="F371" s="17"/>
+      <c r="G371" s="17"/>
     </row>
     <row r="372" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A372" s="16" t="str">
+      <c r="A372" s="8" t="str">
         <f>IF(ISBLANK(B372),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B372))</f>
         <v/>
       </c>
-      <c r="B372" s="50"/>
-      <c r="C372" s="51"/>
-      <c r="D372" s="52"/>
-      <c r="E372" s="53"/>
-      <c r="F372" s="17"/>
-      <c r="G372" s="17"/>
+      <c r="B372" s="46"/>
+      <c r="C372" s="47"/>
+      <c r="D372" s="48"/>
+      <c r="E372" s="49"/>
+      <c r="F372" s="15"/>
+      <c r="G372" s="15"/>
     </row>
     <row r="373" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A373" s="8" t="str">
+      <c r="A373" s="16" t="str">
         <f>IF(ISBLANK(B373),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B373))</f>
         <v/>
       </c>
-      <c r="B373" s="46"/>
-      <c r="C373" s="47"/>
-      <c r="D373" s="48"/>
-      <c r="E373" s="49"/>
-      <c r="F373" s="15"/>
-      <c r="G373" s="15"/>
+      <c r="B373" s="50"/>
+      <c r="C373" s="51"/>
+      <c r="D373" s="52"/>
+      <c r="E373" s="53"/>
+      <c r="F373" s="17"/>
+      <c r="G373" s="17"/>
     </row>
     <row r="374" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A374" s="16" t="str">
+      <c r="A374" s="8" t="str">
         <f>IF(ISBLANK(B374),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B374))</f>
         <v/>
       </c>
-      <c r="B374" s="50"/>
-      <c r="C374" s="51"/>
-      <c r="D374" s="52"/>
-      <c r="E374" s="53"/>
-      <c r="F374" s="17"/>
-      <c r="G374" s="17"/>
+      <c r="B374" s="46"/>
+      <c r="C374" s="47"/>
+      <c r="D374" s="48"/>
+      <c r="E374" s="49"/>
+      <c r="F374" s="15"/>
+      <c r="G374" s="15"/>
     </row>
     <row r="375" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A375" s="8" t="str">
+      <c r="A375" s="16" t="str">
         <f>IF(ISBLANK(B375),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B375))</f>
         <v/>
       </c>
-      <c r="B375" s="46"/>
-      <c r="C375" s="47"/>
-      <c r="D375" s="48"/>
-      <c r="E375" s="49"/>
-      <c r="F375" s="15"/>
-      <c r="G375" s="15"/>
+      <c r="B375" s="50"/>
+      <c r="C375" s="51"/>
+      <c r="D375" s="52"/>
+      <c r="E375" s="53"/>
+      <c r="F375" s="17"/>
+      <c r="G375" s="17"/>
     </row>
     <row r="376" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A376" s="16" t="str">
+      <c r="A376" s="8" t="str">
         <f>IF(ISBLANK(B376),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B376))</f>
         <v/>
       </c>
-      <c r="B376" s="50"/>
-      <c r="C376" s="51"/>
-      <c r="D376" s="52"/>
-      <c r="E376" s="53"/>
-      <c r="F376" s="17"/>
-      <c r="G376" s="17"/>
+      <c r="B376" s="46"/>
+      <c r="C376" s="47"/>
+      <c r="D376" s="48"/>
+      <c r="E376" s="49"/>
+      <c r="F376" s="15"/>
+      <c r="G376" s="15"/>
     </row>
     <row r="377" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A377" s="8" t="str">
+      <c r="A377" s="16" t="str">
         <f>IF(ISBLANK(B377),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B377))</f>
         <v/>
       </c>
-      <c r="B377" s="46"/>
-      <c r="C377" s="47"/>
-      <c r="D377" s="48"/>
-      <c r="E377" s="49"/>
-      <c r="F377" s="15"/>
-      <c r="G377" s="15"/>
+      <c r="B377" s="50"/>
+      <c r="C377" s="51"/>
+      <c r="D377" s="52"/>
+      <c r="E377" s="53"/>
+      <c r="F377" s="17"/>
+      <c r="G377" s="17"/>
     </row>
     <row r="378" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A378" s="16" t="str">
+      <c r="A378" s="8" t="str">
         <f>IF(ISBLANK(B378),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B378))</f>
         <v/>
       </c>
-      <c r="B378" s="50"/>
-      <c r="C378" s="51"/>
-      <c r="D378" s="52"/>
-      <c r="E378" s="53"/>
-      <c r="F378" s="17"/>
-      <c r="G378" s="17"/>
+      <c r="B378" s="46"/>
+      <c r="C378" s="47"/>
+      <c r="D378" s="48"/>
+      <c r="E378" s="49"/>
+      <c r="F378" s="15"/>
+      <c r="G378" s="15"/>
     </row>
     <row r="379" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A379" s="8" t="str">
+      <c r="A379" s="16" t="str">
         <f>IF(ISBLANK(B379),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B379))</f>
         <v/>
       </c>
-      <c r="B379" s="46"/>
-      <c r="C379" s="47"/>
-      <c r="D379" s="48"/>
-      <c r="E379" s="49"/>
-      <c r="F379" s="15"/>
-      <c r="G379" s="15"/>
+      <c r="B379" s="50"/>
+      <c r="C379" s="51"/>
+      <c r="D379" s="52"/>
+      <c r="E379" s="53"/>
+      <c r="F379" s="17"/>
+      <c r="G379" s="17"/>
     </row>
     <row r="380" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A380" s="16" t="str">
+      <c r="A380" s="8" t="str">
         <f>IF(ISBLANK(B380),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B380))</f>
         <v/>
       </c>
-      <c r="B380" s="50"/>
-      <c r="C380" s="51"/>
-      <c r="D380" s="52"/>
-      <c r="E380" s="53"/>
-      <c r="F380" s="17"/>
-      <c r="G380" s="17"/>
+      <c r="B380" s="46"/>
+      <c r="C380" s="47"/>
+      <c r="D380" s="48"/>
+      <c r="E380" s="49"/>
+      <c r="F380" s="15"/>
+      <c r="G380" s="15"/>
     </row>
     <row r="381" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A381" s="8" t="str">
+      <c r="A381" s="16" t="str">
         <f>IF(ISBLANK(B381),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B381))</f>
         <v/>
       </c>
-      <c r="B381" s="46"/>
-      <c r="C381" s="47"/>
-      <c r="D381" s="48"/>
-      <c r="E381" s="49"/>
-      <c r="F381" s="15"/>
-      <c r="G381" s="15"/>
+      <c r="B381" s="50"/>
+      <c r="C381" s="51"/>
+      <c r="D381" s="52"/>
+      <c r="E381" s="53"/>
+      <c r="F381" s="17"/>
+      <c r="G381" s="17"/>
     </row>
     <row r="382" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A382" s="16" t="str">
+      <c r="A382" s="8" t="str">
         <f>IF(ISBLANK(B382),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B382))</f>
         <v/>
       </c>
-      <c r="B382" s="50"/>
-      <c r="C382" s="51"/>
-      <c r="D382" s="52"/>
-      <c r="E382" s="53"/>
-      <c r="F382" s="17"/>
-      <c r="G382" s="17"/>
+      <c r="B382" s="46"/>
+      <c r="C382" s="47"/>
+      <c r="D382" s="48"/>
+      <c r="E382" s="49"/>
+      <c r="F382" s="15"/>
+      <c r="G382" s="15"/>
     </row>
     <row r="383" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A383" s="8" t="str">
+      <c r="A383" s="16" t="str">
         <f>IF(ISBLANK(B383),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B383))</f>
         <v/>
       </c>
-      <c r="B383" s="46"/>
-      <c r="C383" s="47"/>
-      <c r="D383" s="48"/>
-      <c r="E383" s="49"/>
-      <c r="F383" s="15"/>
-      <c r="G383" s="15"/>
+      <c r="B383" s="50"/>
+      <c r="C383" s="51"/>
+      <c r="D383" s="52"/>
+      <c r="E383" s="53"/>
+      <c r="F383" s="17"/>
+      <c r="G383" s="17"/>
     </row>
     <row r="384" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A384" s="16" t="str">
+      <c r="A384" s="8" t="str">
         <f>IF(ISBLANK(B384),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B384))</f>
         <v/>
       </c>
-      <c r="B384" s="50"/>
-      <c r="C384" s="51"/>
-      <c r="D384" s="52"/>
-      <c r="E384" s="53"/>
-      <c r="F384" s="17"/>
-      <c r="G384" s="17"/>
+      <c r="B384" s="46"/>
+      <c r="C384" s="47"/>
+      <c r="D384" s="48"/>
+      <c r="E384" s="49"/>
+      <c r="F384" s="15"/>
+      <c r="G384" s="15"/>
     </row>
     <row r="385" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A385" s="8" t="str">
+      <c r="A385" s="16" t="str">
         <f>IF(ISBLANK(B385),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B385))</f>
         <v/>
       </c>
-      <c r="B385" s="46"/>
-      <c r="C385" s="47"/>
-      <c r="D385" s="48"/>
-      <c r="E385" s="49"/>
-      <c r="F385" s="15"/>
-      <c r="G385" s="15"/>
+      <c r="B385" s="50"/>
+      <c r="C385" s="51"/>
+      <c r="D385" s="52"/>
+      <c r="E385" s="53"/>
+      <c r="F385" s="17"/>
+      <c r="G385" s="17"/>
     </row>
     <row r="386" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A386" s="16" t="str">
+      <c r="A386" s="8" t="str">
         <f>IF(ISBLANK(B386),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B386))</f>
         <v/>
       </c>
-      <c r="B386" s="50"/>
-      <c r="C386" s="51"/>
-      <c r="D386" s="52"/>
-      <c r="E386" s="53"/>
-      <c r="F386" s="17"/>
-      <c r="G386" s="17"/>
+      <c r="B386" s="46"/>
+      <c r="C386" s="47"/>
+      <c r="D386" s="48"/>
+      <c r="E386" s="49"/>
+      <c r="F386" s="15"/>
+      <c r="G386" s="15"/>
     </row>
     <row r="387" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A387" s="8" t="str">
+      <c r="A387" s="16" t="str">
         <f>IF(ISBLANK(B387),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B387))</f>
         <v/>
       </c>
-      <c r="B387" s="46"/>
-      <c r="C387" s="47"/>
-      <c r="D387" s="48"/>
-      <c r="E387" s="49"/>
-      <c r="F387" s="15"/>
-      <c r="G387" s="15"/>
+      <c r="B387" s="50"/>
+      <c r="C387" s="51"/>
+      <c r="D387" s="52"/>
+      <c r="E387" s="53"/>
+      <c r="F387" s="17"/>
+      <c r="G387" s="17"/>
     </row>
     <row r="388" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A388" s="16" t="str">
+      <c r="A388" s="8" t="str">
         <f>IF(ISBLANK(B388),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B388))</f>
         <v/>
       </c>
-      <c r="B388" s="50"/>
-      <c r="C388" s="51"/>
-      <c r="D388" s="52"/>
-      <c r="E388" s="53"/>
-      <c r="F388" s="17"/>
-      <c r="G388" s="17"/>
+      <c r="B388" s="46"/>
+      <c r="C388" s="47"/>
+      <c r="D388" s="48"/>
+      <c r="E388" s="49"/>
+      <c r="F388" s="15"/>
+      <c r="G388" s="15"/>
     </row>
     <row r="389" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A389" s="8" t="str">
+      <c r="A389" s="16" t="str">
         <f>IF(ISBLANK(B389),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B389))</f>
         <v/>
       </c>
-      <c r="B389" s="46"/>
-      <c r="C389" s="47"/>
-      <c r="D389" s="48"/>
-      <c r="E389" s="49"/>
-      <c r="F389" s="15"/>
-      <c r="G389" s="15"/>
+      <c r="B389" s="50"/>
+      <c r="C389" s="51"/>
+      <c r="D389" s="52"/>
+      <c r="E389" s="53"/>
+      <c r="F389" s="17"/>
+      <c r="G389" s="17"/>
     </row>
     <row r="390" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A390" s="16" t="str">
+      <c r="A390" s="8" t="str">
         <f>IF(ISBLANK(B390),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B390))</f>
         <v/>
       </c>
-      <c r="B390" s="50"/>
-      <c r="C390" s="51"/>
-      <c r="D390" s="52"/>
-      <c r="E390" s="53"/>
-      <c r="F390" s="17"/>
-      <c r="G390" s="17"/>
+      <c r="B390" s="46"/>
+      <c r="C390" s="47"/>
+      <c r="D390" s="48"/>
+      <c r="E390" s="49"/>
+      <c r="F390" s="15"/>
+      <c r="G390" s="15"/>
     </row>
     <row r="391" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A391" s="8" t="str">
+      <c r="A391" s="16" t="str">
         <f>IF(ISBLANK(B391),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B391))</f>
         <v/>
       </c>
-      <c r="B391" s="46"/>
-      <c r="C391" s="47"/>
-      <c r="D391" s="48"/>
-      <c r="E391" s="49"/>
-      <c r="F391" s="15"/>
-      <c r="G391" s="15"/>
+      <c r="B391" s="50"/>
+      <c r="C391" s="51"/>
+      <c r="D391" s="52"/>
+      <c r="E391" s="53"/>
+      <c r="F391" s="17"/>
+      <c r="G391" s="17"/>
     </row>
     <row r="392" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A392" s="16" t="str">
+      <c r="A392" s="8" t="str">
         <f>IF(ISBLANK(B392),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B392))</f>
         <v/>
       </c>
-      <c r="B392" s="50"/>
-      <c r="C392" s="51"/>
-      <c r="D392" s="52"/>
-      <c r="E392" s="53"/>
-      <c r="F392" s="17"/>
-      <c r="G392" s="17"/>
+      <c r="B392" s="46"/>
+      <c r="C392" s="47"/>
+      <c r="D392" s="48"/>
+      <c r="E392" s="49"/>
+      <c r="F392" s="15"/>
+      <c r="G392" s="15"/>
     </row>
     <row r="393" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A393" s="8" t="str">
+      <c r="A393" s="16" t="str">
         <f>IF(ISBLANK(B393),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B393))</f>
         <v/>
       </c>
-      <c r="B393" s="46"/>
-      <c r="C393" s="47"/>
-      <c r="D393" s="48"/>
-      <c r="E393" s="49"/>
-      <c r="F393" s="15"/>
-      <c r="G393" s="15"/>
+      <c r="B393" s="50"/>
+      <c r="C393" s="51"/>
+      <c r="D393" s="52"/>
+      <c r="E393" s="53"/>
+      <c r="F393" s="17"/>
+      <c r="G393" s="17"/>
     </row>
     <row r="394" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A394" s="16" t="str">
+      <c r="A394" s="8" t="str">
         <f>IF(ISBLANK(B394),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B394))</f>
         <v/>
       </c>
-      <c r="B394" s="50"/>
-      <c r="C394" s="51"/>
-      <c r="D394" s="52"/>
-      <c r="E394" s="53"/>
-      <c r="F394" s="17"/>
-      <c r="G394" s="17"/>
+      <c r="B394" s="46"/>
+      <c r="C394" s="47"/>
+      <c r="D394" s="48"/>
+      <c r="E394" s="49"/>
+      <c r="F394" s="15"/>
+      <c r="G394" s="15"/>
     </row>
     <row r="395" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A395" s="8" t="str">
+      <c r="A395" s="16" t="str">
         <f>IF(ISBLANK(B395),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B395))</f>
         <v/>
       </c>
-      <c r="B395" s="46"/>
-      <c r="C395" s="47"/>
-      <c r="D395" s="48"/>
-      <c r="E395" s="49"/>
-      <c r="F395" s="15"/>
-      <c r="G395" s="15"/>
+      <c r="B395" s="50"/>
+      <c r="C395" s="51"/>
+      <c r="D395" s="52"/>
+      <c r="E395" s="53"/>
+      <c r="F395" s="17"/>
+      <c r="G395" s="17"/>
     </row>
     <row r="396" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A396" s="16" t="str">
+      <c r="A396" s="8" t="str">
         <f>IF(ISBLANK(B396),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B396))</f>
         <v/>
       </c>
-      <c r="B396" s="50"/>
-      <c r="C396" s="51"/>
-      <c r="D396" s="52"/>
-      <c r="E396" s="53"/>
-      <c r="F396" s="17"/>
-      <c r="G396" s="17"/>
+      <c r="B396" s="46"/>
+      <c r="C396" s="47"/>
+      <c r="D396" s="48"/>
+      <c r="E396" s="49"/>
+      <c r="F396" s="15"/>
+      <c r="G396" s="15"/>
     </row>
     <row r="397" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A397" s="8" t="str">
+      <c r="A397" s="16" t="str">
         <f>IF(ISBLANK(B397),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B397))</f>
         <v/>
       </c>
-      <c r="B397" s="46"/>
-      <c r="C397" s="47"/>
-      <c r="D397" s="48"/>
-      <c r="E397" s="49"/>
-      <c r="F397" s="15"/>
-      <c r="G397" s="15"/>
+      <c r="B397" s="50"/>
+      <c r="C397" s="51"/>
+      <c r="D397" s="52"/>
+      <c r="E397" s="53"/>
+      <c r="F397" s="17"/>
+      <c r="G397" s="17"/>
     </row>
     <row r="398" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A398" s="16" t="str">
+      <c r="A398" s="8" t="str">
         <f>IF(ISBLANK(B398),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B398))</f>
         <v/>
       </c>
-      <c r="B398" s="50"/>
-      <c r="C398" s="51"/>
-      <c r="D398" s="52"/>
-      <c r="E398" s="53"/>
-      <c r="F398" s="17"/>
-      <c r="G398" s="17"/>
+      <c r="B398" s="46"/>
+      <c r="C398" s="47"/>
+      <c r="D398" s="48"/>
+      <c r="E398" s="49"/>
+      <c r="F398" s="15"/>
+      <c r="G398" s="15"/>
     </row>
     <row r="399" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A399" s="8" t="str">
+      <c r="A399" s="16" t="str">
         <f>IF(ISBLANK(B399),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B399))</f>
         <v/>
       </c>
-      <c r="B399" s="46"/>
-      <c r="C399" s="47"/>
-      <c r="D399" s="48"/>
-      <c r="E399" s="49"/>
-      <c r="F399" s="15"/>
-      <c r="G399" s="15"/>
+      <c r="B399" s="50"/>
+      <c r="C399" s="51"/>
+      <c r="D399" s="52"/>
+      <c r="E399" s="53"/>
+      <c r="F399" s="17"/>
+      <c r="G399" s="17"/>
     </row>
     <row r="400" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A400" s="16" t="str">
+      <c r="A400" s="8" t="str">
         <f>IF(ISBLANK(B400),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B400))</f>
         <v/>
       </c>
-      <c r="B400" s="50"/>
-      <c r="C400" s="51"/>
-      <c r="D400" s="52"/>
-      <c r="E400" s="53"/>
-      <c r="F400" s="17"/>
-      <c r="G400" s="17"/>
+      <c r="B400" s="46"/>
+      <c r="C400" s="47"/>
+      <c r="D400" s="48"/>
+      <c r="E400" s="49"/>
+      <c r="F400" s="15"/>
+      <c r="G400" s="15"/>
     </row>
     <row r="401" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A401" s="8" t="str">
+      <c r="A401" s="16" t="str">
         <f>IF(ISBLANK(B401),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B401))</f>
         <v/>
       </c>
-      <c r="B401" s="46"/>
-      <c r="C401" s="47"/>
-      <c r="D401" s="48"/>
-      <c r="E401" s="49"/>
-      <c r="F401" s="15"/>
-      <c r="G401" s="15"/>
+      <c r="B401" s="50"/>
+      <c r="C401" s="51"/>
+      <c r="D401" s="52"/>
+      <c r="E401" s="53"/>
+      <c r="F401" s="17"/>
+      <c r="G401" s="17"/>
     </row>
     <row r="402" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A402" s="16" t="str">
+      <c r="A402" s="8" t="str">
         <f>IF(ISBLANK(B402),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B402))</f>
         <v/>
       </c>
-      <c r="B402" s="50"/>
-      <c r="C402" s="51"/>
-      <c r="D402" s="52"/>
-      <c r="E402" s="53"/>
-      <c r="F402" s="17"/>
-      <c r="G402" s="17"/>
+      <c r="B402" s="46"/>
+      <c r="C402" s="47"/>
+      <c r="D402" s="48"/>
+      <c r="E402" s="49"/>
+      <c r="F402" s="15"/>
+      <c r="G402" s="15"/>
     </row>
     <row r="403" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A403" s="8" t="str">
+      <c r="A403" s="16" t="str">
         <f>IF(ISBLANK(B403),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B403))</f>
         <v/>
       </c>
-      <c r="B403" s="46"/>
-      <c r="C403" s="47"/>
-      <c r="D403" s="48"/>
-      <c r="E403" s="49"/>
-      <c r="F403" s="15"/>
-      <c r="G403" s="15"/>
+      <c r="B403" s="50"/>
+      <c r="C403" s="51"/>
+      <c r="D403" s="52"/>
+      <c r="E403" s="53"/>
+      <c r="F403" s="17"/>
+      <c r="G403" s="17"/>
     </row>
     <row r="404" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A404" s="16" t="str">
+      <c r="A404" s="8" t="str">
         <f>IF(ISBLANK(B404),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B404))</f>
         <v/>
       </c>
-      <c r="B404" s="50"/>
-      <c r="C404" s="51"/>
-      <c r="D404" s="52"/>
-      <c r="E404" s="53"/>
-      <c r="F404" s="17"/>
-      <c r="G404" s="17"/>
+      <c r="B404" s="46"/>
+      <c r="C404" s="47"/>
+      <c r="D404" s="48"/>
+      <c r="E404" s="49"/>
+      <c r="F404" s="15"/>
+      <c r="G404" s="15"/>
     </row>
     <row r="405" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A405" s="8" t="str">
+      <c r="A405" s="16" t="str">
         <f>IF(ISBLANK(B405),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B405))</f>
         <v/>
       </c>
-      <c r="B405" s="46"/>
-      <c r="C405" s="47"/>
-      <c r="D405" s="48"/>
-      <c r="E405" s="49"/>
-      <c r="F405" s="15"/>
-      <c r="G405" s="15"/>
+      <c r="B405" s="50"/>
+      <c r="C405" s="51"/>
+      <c r="D405" s="52"/>
+      <c r="E405" s="53"/>
+      <c r="F405" s="17"/>
+      <c r="G405" s="17"/>
     </row>
     <row r="406" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A406" s="16" t="str">
+      <c r="A406" s="8" t="str">
         <f>IF(ISBLANK(B406),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B406))</f>
         <v/>
       </c>
-      <c r="B406" s="50"/>
-      <c r="C406" s="51"/>
-      <c r="D406" s="52"/>
-      <c r="E406" s="53"/>
-      <c r="F406" s="17"/>
-      <c r="G406" s="17"/>
+      <c r="B406" s="46"/>
+      <c r="C406" s="47"/>
+      <c r="D406" s="48"/>
+      <c r="E406" s="49"/>
+      <c r="F406" s="15"/>
+      <c r="G406" s="15"/>
     </row>
     <row r="407" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A407" s="8" t="str">
+      <c r="A407" s="16" t="str">
         <f>IF(ISBLANK(B407),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B407))</f>
         <v/>
       </c>
-      <c r="B407" s="46"/>
-      <c r="C407" s="47"/>
-      <c r="D407" s="48"/>
-      <c r="E407" s="49"/>
-      <c r="F407" s="15"/>
-      <c r="G407" s="15"/>
+      <c r="B407" s="50"/>
+      <c r="C407" s="51"/>
+      <c r="D407" s="52"/>
+      <c r="E407" s="53"/>
+      <c r="F407" s="17"/>
+      <c r="G407" s="17"/>
     </row>
     <row r="408" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A408" s="16" t="str">
+      <c r="A408" s="8" t="str">
         <f>IF(ISBLANK(B408),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B408))</f>
         <v/>
       </c>
-      <c r="B408" s="50"/>
-      <c r="C408" s="51"/>
-      <c r="D408" s="52"/>
-      <c r="E408" s="53"/>
-      <c r="F408" s="17"/>
-      <c r="G408" s="17"/>
+      <c r="B408" s="46"/>
+      <c r="C408" s="47"/>
+      <c r="D408" s="48"/>
+      <c r="E408" s="49"/>
+      <c r="F408" s="15"/>
+      <c r="G408" s="15"/>
     </row>
     <row r="409" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A409" s="8" t="str">
+      <c r="A409" s="16" t="str">
         <f>IF(ISBLANK(B409),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B409))</f>
         <v/>
       </c>
-      <c r="B409" s="46"/>
-      <c r="C409" s="47"/>
-      <c r="D409" s="48"/>
-      <c r="E409" s="49"/>
-      <c r="F409" s="15"/>
-      <c r="G409" s="15"/>
+      <c r="B409" s="50"/>
+      <c r="C409" s="51"/>
+      <c r="D409" s="52"/>
+      <c r="E409" s="53"/>
+      <c r="F409" s="17"/>
+      <c r="G409" s="17"/>
     </row>
     <row r="410" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A410" s="16" t="str">
+      <c r="A410" s="8" t="str">
         <f>IF(ISBLANK(B410),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B410))</f>
         <v/>
       </c>
-      <c r="B410" s="50"/>
-      <c r="C410" s="51"/>
-      <c r="D410" s="52"/>
-      <c r="E410" s="53"/>
-      <c r="F410" s="17"/>
-      <c r="G410" s="17"/>
+      <c r="B410" s="46"/>
+      <c r="C410" s="47"/>
+      <c r="D410" s="48"/>
+      <c r="E410" s="49"/>
+      <c r="F410" s="15"/>
+      <c r="G410" s="15"/>
     </row>
     <row r="411" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A411" s="8" t="str">
+      <c r="A411" s="16" t="str">
         <f>IF(ISBLANK(B411),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B411))</f>
         <v/>
       </c>
-      <c r="B411" s="46"/>
-      <c r="C411" s="47"/>
-      <c r="D411" s="48"/>
-      <c r="E411" s="49"/>
-      <c r="F411" s="15"/>
-      <c r="G411" s="15"/>
+      <c r="B411" s="50"/>
+      <c r="C411" s="51"/>
+      <c r="D411" s="52"/>
+      <c r="E411" s="53"/>
+      <c r="F411" s="17"/>
+      <c r="G411" s="17"/>
     </row>
     <row r="412" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A412" s="16" t="str">
+      <c r="A412" s="8" t="str">
         <f>IF(ISBLANK(B412),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B412))</f>
         <v/>
       </c>
-      <c r="B412" s="50"/>
-      <c r="C412" s="51"/>
-      <c r="D412" s="52"/>
-      <c r="E412" s="53"/>
-      <c r="F412" s="17"/>
-      <c r="G412" s="17"/>
+      <c r="B412" s="46"/>
+      <c r="C412" s="47"/>
+      <c r="D412" s="48"/>
+      <c r="E412" s="49"/>
+      <c r="F412" s="15"/>
+      <c r="G412" s="15"/>
     </row>
     <row r="413" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A413" s="8" t="str">
+      <c r="A413" s="16" t="str">
         <f>IF(ISBLANK(B413),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B413))</f>
         <v/>
       </c>
-      <c r="B413" s="46"/>
-      <c r="C413" s="47"/>
-      <c r="D413" s="48"/>
-      <c r="E413" s="49"/>
-      <c r="F413" s="15"/>
-      <c r="G413" s="15"/>
+      <c r="B413" s="50"/>
+      <c r="C413" s="51"/>
+      <c r="D413" s="52"/>
+      <c r="E413" s="53"/>
+      <c r="F413" s="17"/>
+      <c r="G413" s="17"/>
     </row>
     <row r="414" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A414" s="16" t="str">
+      <c r="A414" s="8" t="str">
         <f>IF(ISBLANK(B414),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B414))</f>
         <v/>
       </c>
-      <c r="B414" s="50"/>
-      <c r="C414" s="51"/>
-      <c r="D414" s="52"/>
-      <c r="E414" s="53"/>
-      <c r="F414" s="17"/>
-      <c r="G414" s="17"/>
+      <c r="B414" s="46"/>
+      <c r="C414" s="47"/>
+      <c r="D414" s="48"/>
+      <c r="E414" s="49"/>
+      <c r="F414" s="15"/>
+      <c r="G414" s="15"/>
     </row>
     <row r="415" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A415" s="8" t="str">
+      <c r="A415" s="16" t="str">
         <f>IF(ISBLANK(B415),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B415))</f>
         <v/>
       </c>
-      <c r="B415" s="46"/>
-      <c r="C415" s="47"/>
-      <c r="D415" s="48"/>
-      <c r="E415" s="49"/>
-      <c r="F415" s="15"/>
-      <c r="G415" s="15"/>
+      <c r="B415" s="50"/>
+      <c r="C415" s="51"/>
+      <c r="D415" s="52"/>
+      <c r="E415" s="53"/>
+      <c r="F415" s="17"/>
+      <c r="G415" s="17"/>
     </row>
     <row r="416" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A416" s="16" t="str">
+      <c r="A416" s="8" t="str">
         <f>IF(ISBLANK(B416),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B416))</f>
         <v/>
       </c>
-      <c r="B416" s="50"/>
-      <c r="C416" s="51"/>
-      <c r="D416" s="52"/>
-      <c r="E416" s="53"/>
-      <c r="F416" s="17"/>
-      <c r="G416" s="17"/>
+      <c r="B416" s="46"/>
+      <c r="C416" s="47"/>
+      <c r="D416" s="48"/>
+      <c r="E416" s="49"/>
+      <c r="F416" s="15"/>
+      <c r="G416" s="15"/>
     </row>
     <row r="417" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A417" s="8" t="str">
+      <c r="A417" s="16" t="str">
         <f>IF(ISBLANK(B417),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B417))</f>
         <v/>
       </c>
-      <c r="B417" s="46"/>
-      <c r="C417" s="47"/>
-      <c r="D417" s="48"/>
-      <c r="E417" s="49"/>
-      <c r="F417" s="15"/>
-      <c r="G417" s="15"/>
+      <c r="B417" s="50"/>
+      <c r="C417" s="51"/>
+      <c r="D417" s="52"/>
+      <c r="E417" s="53"/>
+      <c r="F417" s="17"/>
+      <c r="G417" s="17"/>
     </row>
     <row r="418" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A418" s="16" t="str">
+      <c r="A418" s="8" t="str">
         <f>IF(ISBLANK(B418),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B418))</f>
         <v/>
       </c>
-      <c r="B418" s="50"/>
-      <c r="C418" s="51"/>
-      <c r="D418" s="52"/>
-      <c r="E418" s="53"/>
-      <c r="F418" s="17"/>
-      <c r="G418" s="17"/>
+      <c r="B418" s="46"/>
+      <c r="C418" s="47"/>
+      <c r="D418" s="48"/>
+      <c r="E418" s="49"/>
+      <c r="F418" s="15"/>
+      <c r="G418" s="15"/>
     </row>
     <row r="419" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A419" s="8" t="str">
+      <c r="A419" s="16" t="str">
         <f>IF(ISBLANK(B419),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B419))</f>
         <v/>
       </c>
-      <c r="B419" s="46"/>
-      <c r="C419" s="47"/>
-      <c r="D419" s="48"/>
-      <c r="E419" s="49"/>
-      <c r="F419" s="15"/>
-      <c r="G419" s="15"/>
+      <c r="B419" s="50"/>
+      <c r="C419" s="51"/>
+      <c r="D419" s="52"/>
+      <c r="E419" s="53"/>
+      <c r="F419" s="17"/>
+      <c r="G419" s="17"/>
     </row>
     <row r="420" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A420" s="16" t="str">
+      <c r="A420" s="8" t="str">
         <f>IF(ISBLANK(B420),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B420))</f>
         <v/>
       </c>
-      <c r="B420" s="50"/>
-      <c r="C420" s="51"/>
-      <c r="D420" s="52"/>
-      <c r="E420" s="53"/>
-      <c r="F420" s="17"/>
-      <c r="G420" s="17"/>
+      <c r="B420" s="46"/>
+      <c r="C420" s="47"/>
+      <c r="D420" s="48"/>
+      <c r="E420" s="49"/>
+      <c r="F420" s="15"/>
+      <c r="G420" s="15"/>
     </row>
     <row r="421" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A421" s="8" t="str">
+      <c r="A421" s="16" t="str">
         <f>IF(ISBLANK(B421),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B421))</f>
         <v/>
       </c>
-      <c r="B421" s="46"/>
-      <c r="C421" s="47"/>
-      <c r="D421" s="48"/>
-      <c r="E421" s="49"/>
-      <c r="F421" s="15"/>
-      <c r="G421" s="15"/>
+      <c r="B421" s="50"/>
+      <c r="C421" s="51"/>
+      <c r="D421" s="52"/>
+      <c r="E421" s="53"/>
+      <c r="F421" s="17"/>
+      <c r="G421" s="17"/>
     </row>
     <row r="422" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A422" s="16" t="str">
+      <c r="A422" s="8" t="str">
         <f>IF(ISBLANK(B422),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B422))</f>
         <v/>
       </c>
-      <c r="B422" s="50"/>
-      <c r="C422" s="51"/>
-      <c r="D422" s="52"/>
-      <c r="E422" s="53"/>
-      <c r="F422" s="17"/>
-      <c r="G422" s="17"/>
+      <c r="B422" s="46"/>
+      <c r="C422" s="47"/>
+      <c r="D422" s="48"/>
+      <c r="E422" s="49"/>
+      <c r="F422" s="15"/>
+      <c r="G422" s="15"/>
     </row>
     <row r="423" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A423" s="8" t="str">
+      <c r="A423" s="16" t="str">
         <f>IF(ISBLANK(B423),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B423))</f>
         <v/>
       </c>
-      <c r="B423" s="46"/>
-      <c r="C423" s="47"/>
-      <c r="D423" s="48"/>
-      <c r="E423" s="49"/>
-      <c r="F423" s="15"/>
-      <c r="G423" s="15"/>
+      <c r="B423" s="50"/>
+      <c r="C423" s="51"/>
+      <c r="D423" s="52"/>
+      <c r="E423" s="53"/>
+      <c r="F423" s="17"/>
+      <c r="G423" s="17"/>
     </row>
     <row r="424" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A424" s="16" t="str">
+      <c r="A424" s="8" t="str">
         <f>IF(ISBLANK(B424),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B424))</f>
         <v/>
       </c>
-      <c r="B424" s="50"/>
-      <c r="C424" s="51"/>
-      <c r="D424" s="52"/>
-      <c r="E424" s="53"/>
-      <c r="F424" s="17"/>
-      <c r="G424" s="17"/>
+      <c r="B424" s="46"/>
+      <c r="C424" s="47"/>
+      <c r="D424" s="48"/>
+      <c r="E424" s="49"/>
+      <c r="F424" s="15"/>
+      <c r="G424" s="15"/>
     </row>
     <row r="425" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A425" s="8" t="str">
+      <c r="A425" s="16" t="str">
         <f>IF(ISBLANK(B425),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B425))</f>
         <v/>
       </c>
-      <c r="B425" s="46"/>
-      <c r="C425" s="47"/>
-      <c r="D425" s="48"/>
-      <c r="E425" s="49"/>
-      <c r="F425" s="15"/>
-      <c r="G425" s="15"/>
+      <c r="B425" s="50"/>
+      <c r="C425" s="51"/>
+      <c r="D425" s="52"/>
+      <c r="E425" s="53"/>
+      <c r="F425" s="17"/>
+      <c r="G425" s="17"/>
     </row>
     <row r="426" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A426" s="16" t="str">
+      <c r="A426" s="8" t="str">
         <f>IF(ISBLANK(B426),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B426))</f>
         <v/>
       </c>
-      <c r="B426" s="50"/>
-      <c r="C426" s="51"/>
-      <c r="D426" s="52"/>
-      <c r="E426" s="53"/>
-      <c r="F426" s="17"/>
-      <c r="G426" s="17"/>
+      <c r="B426" s="46"/>
+      <c r="C426" s="47"/>
+      <c r="D426" s="48"/>
+      <c r="E426" s="49"/>
+      <c r="F426" s="15"/>
+      <c r="G426" s="15"/>
     </row>
     <row r="427" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A427" s="8" t="str">
+      <c r="A427" s="16" t="str">
         <f>IF(ISBLANK(B427),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B427))</f>
         <v/>
       </c>
-      <c r="B427" s="46"/>
-      <c r="C427" s="47"/>
-      <c r="D427" s="48"/>
-      <c r="E427" s="49"/>
-      <c r="F427" s="15"/>
-      <c r="G427" s="15"/>
+      <c r="B427" s="50"/>
+      <c r="C427" s="51"/>
+      <c r="D427" s="52"/>
+      <c r="E427" s="53"/>
+      <c r="F427" s="17"/>
+      <c r="G427" s="17"/>
     </row>
     <row r="428" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A428" s="16" t="str">
+      <c r="A428" s="8" t="str">
         <f>IF(ISBLANK(B428),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B428))</f>
         <v/>
       </c>
-      <c r="B428" s="50"/>
-      <c r="C428" s="51"/>
-      <c r="D428" s="52"/>
-      <c r="E428" s="53"/>
-      <c r="F428" s="17"/>
-      <c r="G428" s="17"/>
+      <c r="B428" s="46"/>
+      <c r="C428" s="47"/>
+      <c r="D428" s="48"/>
+      <c r="E428" s="49"/>
+      <c r="F428" s="15"/>
+      <c r="G428" s="15"/>
     </row>
     <row r="429" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A429" s="8" t="str">
+      <c r="A429" s="16" t="str">
         <f>IF(ISBLANK(B429),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B429))</f>
         <v/>
       </c>
-      <c r="B429" s="46"/>
-      <c r="C429" s="47"/>
-      <c r="D429" s="48"/>
-      <c r="E429" s="49"/>
-      <c r="F429" s="15"/>
-      <c r="G429" s="15"/>
+      <c r="B429" s="50"/>
+      <c r="C429" s="51"/>
+      <c r="D429" s="52"/>
+      <c r="E429" s="53"/>
+      <c r="F429" s="17"/>
+      <c r="G429" s="17"/>
     </row>
     <row r="430" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A430" s="16" t="str">
+      <c r="A430" s="8" t="str">
         <f>IF(ISBLANK(B430),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B430))</f>
         <v/>
       </c>
-      <c r="B430" s="50"/>
-      <c r="C430" s="51"/>
-      <c r="D430" s="52"/>
-      <c r="E430" s="53"/>
-      <c r="F430" s="17"/>
-      <c r="G430" s="17"/>
+      <c r="B430" s="46"/>
+      <c r="C430" s="47"/>
+      <c r="D430" s="48"/>
+      <c r="E430" s="49"/>
+      <c r="F430" s="15"/>
+      <c r="G430" s="15"/>
     </row>
     <row r="431" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A431" s="8" t="str">
+      <c r="A431" s="16" t="str">
         <f>IF(ISBLANK(B431),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B431))</f>
         <v/>
       </c>
-      <c r="B431" s="46"/>
-      <c r="C431" s="47"/>
-      <c r="D431" s="48"/>
-      <c r="E431" s="49"/>
-      <c r="F431" s="15"/>
-      <c r="G431" s="15"/>
+      <c r="B431" s="50"/>
+      <c r="C431" s="51"/>
+      <c r="D431" s="52"/>
+      <c r="E431" s="53"/>
+      <c r="F431" s="17"/>
+      <c r="G431" s="17"/>
     </row>
     <row r="432" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A432" s="16" t="str">
+      <c r="A432" s="8" t="str">
         <f>IF(ISBLANK(B432),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B432))</f>
         <v/>
       </c>
-      <c r="B432" s="50"/>
-      <c r="C432" s="51"/>
-      <c r="D432" s="52"/>
-      <c r="E432" s="53"/>
-      <c r="F432" s="17"/>
-      <c r="G432" s="17"/>
+      <c r="B432" s="46"/>
+      <c r="C432" s="47"/>
+      <c r="D432" s="48"/>
+      <c r="E432" s="49"/>
+      <c r="F432" s="15"/>
+      <c r="G432" s="15"/>
     </row>
     <row r="433" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A433" s="8" t="str">
+      <c r="A433" s="16" t="str">
         <f>IF(ISBLANK(B433),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B433))</f>
         <v/>
       </c>
-      <c r="B433" s="46"/>
-      <c r="C433" s="47"/>
-      <c r="D433" s="48"/>
-      <c r="E433" s="49"/>
-      <c r="F433" s="15"/>
-      <c r="G433" s="15"/>
+      <c r="B433" s="50"/>
+      <c r="C433" s="51"/>
+      <c r="D433" s="52"/>
+      <c r="E433" s="53"/>
+      <c r="F433" s="17"/>
+      <c r="G433" s="17"/>
     </row>
     <row r="434" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A434" s="16" t="str">
+      <c r="A434" s="8" t="str">
         <f>IF(ISBLANK(B434),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B434))</f>
         <v/>
       </c>
-      <c r="B434" s="50"/>
-      <c r="C434" s="51"/>
-      <c r="D434" s="52"/>
-      <c r="E434" s="53"/>
-      <c r="F434" s="17"/>
-      <c r="G434" s="17"/>
+      <c r="B434" s="46"/>
+      <c r="C434" s="47"/>
+      <c r="D434" s="48"/>
+      <c r="E434" s="49"/>
+      <c r="F434" s="15"/>
+      <c r="G434" s="15"/>
     </row>
     <row r="435" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A435" s="8" t="str">
+      <c r="A435" s="16" t="str">
         <f>IF(ISBLANK(B435),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B435))</f>
         <v/>
       </c>
-      <c r="B435" s="46"/>
-      <c r="C435" s="47"/>
-      <c r="D435" s="48"/>
-      <c r="E435" s="49"/>
-      <c r="F435" s="15"/>
-      <c r="G435" s="15"/>
+      <c r="B435" s="50"/>
+      <c r="C435" s="51"/>
+      <c r="D435" s="52"/>
+      <c r="E435" s="53"/>
+      <c r="F435" s="17"/>
+      <c r="G435" s="17"/>
     </row>
     <row r="436" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A436" s="16" t="str">
+      <c r="A436" s="8" t="str">
         <f>IF(ISBLANK(B436),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B436))</f>
         <v/>
       </c>
-      <c r="B436" s="50"/>
-      <c r="C436" s="51"/>
-      <c r="D436" s="52"/>
-      <c r="E436" s="53"/>
-      <c r="F436" s="17"/>
-      <c r="G436" s="17"/>
+      <c r="B436" s="46"/>
+      <c r="C436" s="47"/>
+      <c r="D436" s="48"/>
+      <c r="E436" s="49"/>
+      <c r="F436" s="15"/>
+      <c r="G436" s="15"/>
     </row>
     <row r="437" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A437" s="8" t="str">
+      <c r="A437" s="16" t="str">
         <f>IF(ISBLANK(B437),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B437))</f>
         <v/>
       </c>
-      <c r="B437" s="46"/>
-      <c r="C437" s="47"/>
-      <c r="D437" s="48"/>
-      <c r="E437" s="49"/>
-      <c r="F437" s="15"/>
-      <c r="G437" s="15"/>
+      <c r="B437" s="50"/>
+      <c r="C437" s="51"/>
+      <c r="D437" s="52"/>
+      <c r="E437" s="53"/>
+      <c r="F437" s="17"/>
+      <c r="G437" s="17"/>
     </row>
     <row r="438" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A438" s="16" t="str">
+      <c r="A438" s="8" t="str">
         <f>IF(ISBLANK(B438),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B438))</f>
         <v/>
       </c>
-      <c r="B438" s="50"/>
-      <c r="C438" s="51"/>
-      <c r="D438" s="52"/>
-      <c r="E438" s="53"/>
-      <c r="F438" s="17"/>
-      <c r="G438" s="17"/>
+      <c r="B438" s="46"/>
+      <c r="C438" s="47"/>
+      <c r="D438" s="48"/>
+      <c r="E438" s="49"/>
+      <c r="F438" s="15"/>
+      <c r="G438" s="15"/>
     </row>
     <row r="439" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A439" s="8" t="str">
+      <c r="A439" s="16" t="str">
         <f>IF(ISBLANK(B439),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B439))</f>
         <v/>
       </c>
-      <c r="B439" s="46"/>
-      <c r="C439" s="47"/>
-      <c r="D439" s="48"/>
-      <c r="E439" s="49"/>
-      <c r="F439" s="15"/>
-      <c r="G439" s="15"/>
+      <c r="B439" s="50"/>
+      <c r="C439" s="51"/>
+      <c r="D439" s="52"/>
+      <c r="E439" s="53"/>
+      <c r="F439" s="17"/>
+      <c r="G439" s="17"/>
     </row>
     <row r="440" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A440" s="16" t="str">
+      <c r="A440" s="8" t="str">
         <f>IF(ISBLANK(B440),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B440))</f>
         <v/>
       </c>
-      <c r="B440" s="50"/>
-      <c r="C440" s="51"/>
-      <c r="D440" s="52"/>
-      <c r="E440" s="53"/>
-      <c r="F440" s="17"/>
-      <c r="G440" s="17"/>
+      <c r="B440" s="46"/>
+      <c r="C440" s="47"/>
+      <c r="D440" s="48"/>
+      <c r="E440" s="49"/>
+      <c r="F440" s="15"/>
+      <c r="G440" s="15"/>
     </row>
     <row r="441" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A441" s="8" t="str">
+      <c r="A441" s="16" t="str">
         <f>IF(ISBLANK(B441),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B441))</f>
         <v/>
       </c>
-      <c r="B441" s="46"/>
-      <c r="C441" s="47"/>
-      <c r="D441" s="48"/>
-      <c r="E441" s="49"/>
-      <c r="F441" s="15"/>
-      <c r="G441" s="15"/>
+      <c r="B441" s="50"/>
+      <c r="C441" s="51"/>
+      <c r="D441" s="52"/>
+      <c r="E441" s="53"/>
+      <c r="F441" s="17"/>
+      <c r="G441" s="17"/>
     </row>
     <row r="442" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A442" s="16" t="str">
+      <c r="A442" s="8" t="str">
         <f>IF(ISBLANK(B442),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B442))</f>
         <v/>
       </c>
-      <c r="B442" s="50"/>
-      <c r="C442" s="51"/>
-      <c r="D442" s="52"/>
-      <c r="E442" s="53"/>
-      <c r="F442" s="17"/>
-      <c r="G442" s="17"/>
+      <c r="B442" s="46"/>
+      <c r="C442" s="47"/>
+      <c r="D442" s="48"/>
+      <c r="E442" s="49"/>
+      <c r="F442" s="15"/>
+      <c r="G442" s="15"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A443" s="8" t="str">
+      <c r="A443" s="16" t="str">
         <f>IF(ISBLANK(B443),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B443))</f>
         <v/>
       </c>
-      <c r="B443" s="46"/>
-      <c r="C443" s="47"/>
-      <c r="D443" s="48"/>
-      <c r="E443" s="49"/>
-      <c r="F443" s="15"/>
-      <c r="G443" s="15"/>
+      <c r="B443" s="50"/>
+      <c r="C443" s="51"/>
+      <c r="D443" s="52"/>
+      <c r="E443" s="53"/>
+      <c r="F443" s="17"/>
+      <c r="G443" s="17"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A444" s="16" t="str">
+      <c r="A444" s="8" t="str">
         <f>IF(ISBLANK(B444),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B444))</f>
         <v/>
       </c>
-      <c r="B444" s="50"/>
-      <c r="C444" s="51"/>
-      <c r="D444" s="52"/>
-      <c r="E444" s="53"/>
-      <c r="F444" s="17"/>
-      <c r="G444" s="17"/>
+      <c r="B444" s="46"/>
+      <c r="C444" s="47"/>
+      <c r="D444" s="48"/>
+      <c r="E444" s="49"/>
+      <c r="F444" s="15"/>
+      <c r="G444" s="15"/>
     </row>
     <row r="445" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A445" s="8" t="str">
+      <c r="A445" s="16" t="str">
         <f>IF(ISBLANK(B445),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B445))</f>
         <v/>
       </c>
-      <c r="B445" s="46"/>
-      <c r="C445" s="47"/>
-      <c r="D445" s="48"/>
-      <c r="E445" s="49"/>
-      <c r="F445" s="15"/>
-      <c r="G445" s="15"/>
+      <c r="B445" s="50"/>
+      <c r="C445" s="51"/>
+      <c r="D445" s="52"/>
+      <c r="E445" s="53"/>
+      <c r="F445" s="17"/>
+      <c r="G445" s="17"/>
     </row>
     <row r="446" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A446" s="16" t="str">
+      <c r="A446" s="8" t="str">
         <f>IF(ISBLANK(B446),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B446))</f>
         <v/>
       </c>
-      <c r="B446" s="50"/>
-      <c r="C446" s="51"/>
-      <c r="D446" s="52"/>
-      <c r="E446" s="53"/>
-      <c r="F446" s="17"/>
-      <c r="G446" s="17"/>
+      <c r="B446" s="46"/>
+      <c r="C446" s="47"/>
+      <c r="D446" s="48"/>
+      <c r="E446" s="49"/>
+      <c r="F446" s="15"/>
+      <c r="G446" s="15"/>
     </row>
     <row r="447" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A447" s="8" t="str">
+      <c r="A447" s="16" t="str">
         <f>IF(ISBLANK(B447),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B447))</f>
         <v/>
       </c>
-      <c r="B447" s="46"/>
-      <c r="C447" s="47"/>
-      <c r="D447" s="48"/>
-      <c r="E447" s="49"/>
-      <c r="F447" s="15"/>
-      <c r="G447" s="15"/>
+      <c r="B447" s="50"/>
+      <c r="C447" s="51"/>
+      <c r="D447" s="52"/>
+      <c r="E447" s="53"/>
+      <c r="F447" s="17"/>
+      <c r="G447" s="17"/>
     </row>
     <row r="448" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A448" s="16" t="str">
+      <c r="A448" s="8" t="str">
         <f>IF(ISBLANK(B448),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B448))</f>
         <v/>
       </c>
-      <c r="B448" s="50"/>
-      <c r="C448" s="51"/>
-      <c r="D448" s="52"/>
-      <c r="E448" s="53"/>
-      <c r="F448" s="17"/>
-      <c r="G448" s="17"/>
+      <c r="B448" s="46"/>
+      <c r="C448" s="47"/>
+      <c r="D448" s="48"/>
+      <c r="E448" s="49"/>
+      <c r="F448" s="15"/>
+      <c r="G448" s="15"/>
     </row>
     <row r="449" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A449" s="8" t="str">
+      <c r="A449" s="16" t="str">
         <f>IF(ISBLANK(B449),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B449))</f>
         <v/>
       </c>
-      <c r="B449" s="46"/>
-      <c r="C449" s="47"/>
-      <c r="D449" s="48"/>
-      <c r="E449" s="49"/>
-      <c r="F449" s="15"/>
-      <c r="G449" s="15"/>
+      <c r="B449" s="50"/>
+      <c r="C449" s="51"/>
+      <c r="D449" s="52"/>
+      <c r="E449" s="53"/>
+      <c r="F449" s="17"/>
+      <c r="G449" s="17"/>
     </row>
     <row r="450" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A450" s="16" t="str">
+      <c r="A450" s="8" t="str">
         <f>IF(ISBLANK(B450),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B450))</f>
         <v/>
       </c>
-      <c r="B450" s="50"/>
-      <c r="C450" s="51"/>
-      <c r="D450" s="52"/>
-      <c r="E450" s="53"/>
-      <c r="F450" s="17"/>
-      <c r="G450" s="17"/>
+      <c r="B450" s="46"/>
+      <c r="C450" s="47"/>
+      <c r="D450" s="48"/>
+      <c r="E450" s="49"/>
+      <c r="F450" s="15"/>
+      <c r="G450" s="15"/>
     </row>
     <row r="451" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A451" s="8" t="str">
+      <c r="A451" s="16" t="str">
         <f>IF(ISBLANK(B451),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B451))</f>
         <v/>
       </c>
-      <c r="B451" s="46"/>
-      <c r="C451" s="47"/>
-      <c r="D451" s="48"/>
-      <c r="E451" s="49"/>
-      <c r="F451" s="15"/>
-      <c r="G451" s="15"/>
+      <c r="B451" s="50"/>
+      <c r="C451" s="51"/>
+      <c r="D451" s="52"/>
+      <c r="E451" s="53"/>
+      <c r="F451" s="17"/>
+      <c r="G451" s="17"/>
     </row>
     <row r="452" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A452" s="16" t="str">
+      <c r="A452" s="8" t="str">
         <f>IF(ISBLANK(B452),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B452))</f>
         <v/>
       </c>
-      <c r="B452" s="50"/>
-      <c r="C452" s="51"/>
-      <c r="D452" s="52"/>
-      <c r="E452" s="53"/>
-      <c r="F452" s="17"/>
-      <c r="G452" s="17"/>
+      <c r="B452" s="46"/>
+      <c r="C452" s="47"/>
+      <c r="D452" s="48"/>
+      <c r="E452" s="49"/>
+      <c r="F452" s="15"/>
+      <c r="G452" s="15"/>
     </row>
     <row r="453" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A453" s="8" t="str">
+      <c r="A453" s="16" t="str">
         <f>IF(ISBLANK(B453),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B453))</f>
         <v/>
       </c>
-      <c r="B453" s="46"/>
-      <c r="C453" s="47"/>
-      <c r="D453" s="48"/>
-      <c r="E453" s="49"/>
-      <c r="F453" s="15"/>
-      <c r="G453" s="15"/>
+      <c r="B453" s="50"/>
+      <c r="C453" s="51"/>
+      <c r="D453" s="52"/>
+      <c r="E453" s="53"/>
+      <c r="F453" s="17"/>
+      <c r="G453" s="17"/>
     </row>
     <row r="454" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A454" s="16" t="str">
+      <c r="A454" s="8" t="str">
         <f>IF(ISBLANK(B454),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B454))</f>
         <v/>
       </c>
-      <c r="B454" s="50"/>
-      <c r="C454" s="51"/>
-      <c r="D454" s="52"/>
-      <c r="E454" s="53"/>
-      <c r="F454" s="17"/>
-      <c r="G454" s="17"/>
+      <c r="B454" s="46"/>
+      <c r="C454" s="47"/>
+      <c r="D454" s="48"/>
+      <c r="E454" s="49"/>
+      <c r="F454" s="15"/>
+      <c r="G454" s="15"/>
     </row>
     <row r="455" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A455" s="8" t="str">
+      <c r="A455" s="16" t="str">
         <f>IF(ISBLANK(B455),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B455))</f>
         <v/>
       </c>
-      <c r="B455" s="46"/>
-      <c r="C455" s="47"/>
-      <c r="D455" s="48"/>
-      <c r="E455" s="49"/>
-      <c r="F455" s="15"/>
-      <c r="G455" s="15"/>
+      <c r="B455" s="50"/>
+      <c r="C455" s="51"/>
+      <c r="D455" s="52"/>
+      <c r="E455" s="53"/>
+      <c r="F455" s="17"/>
+      <c r="G455" s="17"/>
     </row>
     <row r="456" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A456" s="16" t="str">
+      <c r="A456" s="8" t="str">
         <f>IF(ISBLANK(B456),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B456))</f>
         <v/>
       </c>
-      <c r="B456" s="50"/>
-      <c r="C456" s="51"/>
-      <c r="D456" s="52"/>
-      <c r="E456" s="53"/>
-      <c r="F456" s="17"/>
-      <c r="G456" s="17"/>
+      <c r="B456" s="46"/>
+      <c r="C456" s="47"/>
+      <c r="D456" s="48"/>
+      <c r="E456" s="49"/>
+      <c r="F456" s="15"/>
+      <c r="G456" s="15"/>
     </row>
     <row r="457" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A457" s="8" t="str">
+      <c r="A457" s="16" t="str">
         <f>IF(ISBLANK(B457),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B457))</f>
         <v/>
       </c>
-      <c r="B457" s="46"/>
-      <c r="C457" s="47"/>
-      <c r="D457" s="48"/>
-      <c r="E457" s="49"/>
-      <c r="F457" s="15"/>
-      <c r="G457" s="15"/>
+      <c r="B457" s="50"/>
+      <c r="C457" s="51"/>
+      <c r="D457" s="52"/>
+      <c r="E457" s="53"/>
+      <c r="F457" s="17"/>
+      <c r="G457" s="17"/>
     </row>
     <row r="458" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A458" s="16" t="str">
+      <c r="A458" s="8" t="str">
         <f>IF(ISBLANK(B458),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B458))</f>
         <v/>
       </c>
-      <c r="B458" s="50"/>
-      <c r="C458" s="51"/>
-      <c r="D458" s="52"/>
-      <c r="E458" s="53"/>
-      <c r="F458" s="17"/>
-      <c r="G458" s="17"/>
+      <c r="B458" s="46"/>
+      <c r="C458" s="47"/>
+      <c r="D458" s="48"/>
+      <c r="E458" s="49"/>
+      <c r="F458" s="15"/>
+      <c r="G458" s="15"/>
     </row>
     <row r="459" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A459" s="8" t="str">
+      <c r="A459" s="16" t="str">
         <f>IF(ISBLANK(B459),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B459))</f>
         <v/>
       </c>
-      <c r="B459" s="46"/>
-      <c r="C459" s="47"/>
-      <c r="D459" s="48"/>
-      <c r="E459" s="49"/>
-      <c r="F459" s="15"/>
-      <c r="G459" s="15"/>
+      <c r="B459" s="50"/>
+      <c r="C459" s="51"/>
+      <c r="D459" s="52"/>
+      <c r="E459" s="53"/>
+      <c r="F459" s="17"/>
+      <c r="G459" s="17"/>
     </row>
     <row r="460" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A460" s="16" t="str">
+      <c r="A460" s="8" t="str">
         <f>IF(ISBLANK(B460),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B460))</f>
         <v/>
       </c>
-      <c r="B460" s="50"/>
-      <c r="C460" s="51"/>
-      <c r="D460" s="52"/>
-      <c r="E460" s="53"/>
-      <c r="F460" s="17"/>
-      <c r="G460" s="17"/>
+      <c r="B460" s="46"/>
+      <c r="C460" s="47"/>
+      <c r="D460" s="48"/>
+      <c r="E460" s="49"/>
+      <c r="F460" s="15"/>
+      <c r="G460" s="15"/>
     </row>
     <row r="461" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A461" s="8" t="str">
+      <c r="A461" s="16" t="str">
         <f>IF(ISBLANK(B461),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B461))</f>
         <v/>
       </c>
-      <c r="B461" s="46"/>
-      <c r="C461" s="47"/>
-      <c r="D461" s="48"/>
-      <c r="E461" s="49"/>
-      <c r="F461" s="15"/>
-      <c r="G461" s="15"/>
+      <c r="B461" s="50"/>
+      <c r="C461" s="51"/>
+      <c r="D461" s="52"/>
+      <c r="E461" s="53"/>
+      <c r="F461" s="17"/>
+      <c r="G461" s="17"/>
     </row>
     <row r="462" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A462" s="16" t="str">
+      <c r="A462" s="8" t="str">
         <f>IF(ISBLANK(B462),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B462))</f>
         <v/>
       </c>
-      <c r="B462" s="50"/>
-      <c r="C462" s="51"/>
-      <c r="D462" s="52"/>
-      <c r="E462" s="53"/>
-      <c r="F462" s="17"/>
-      <c r="G462" s="17"/>
+      <c r="B462" s="46"/>
+      <c r="C462" s="47"/>
+      <c r="D462" s="48"/>
+      <c r="E462" s="49"/>
+      <c r="F462" s="15"/>
+      <c r="G462" s="15"/>
     </row>
     <row r="463" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A463" s="8" t="str">
+      <c r="A463" s="16" t="str">
         <f>IF(ISBLANK(B463),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B463))</f>
         <v/>
       </c>
-      <c r="B463" s="46"/>
-      <c r="C463" s="47"/>
-      <c r="D463" s="48"/>
-      <c r="E463" s="49"/>
-      <c r="F463" s="15"/>
-      <c r="G463" s="15"/>
+      <c r="B463" s="50"/>
+      <c r="C463" s="51"/>
+      <c r="D463" s="52"/>
+      <c r="E463" s="53"/>
+      <c r="F463" s="17"/>
+      <c r="G463" s="17"/>
     </row>
     <row r="464" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A464" s="16" t="str">
+      <c r="A464" s="8" t="str">
         <f>IF(ISBLANK(B464),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B464))</f>
         <v/>
       </c>
-      <c r="B464" s="50"/>
-      <c r="C464" s="51"/>
-      <c r="D464" s="52"/>
-      <c r="E464" s="53"/>
-      <c r="F464" s="17"/>
-      <c r="G464" s="17"/>
+      <c r="B464" s="46"/>
+      <c r="C464" s="47"/>
+      <c r="D464" s="48"/>
+      <c r="E464" s="49"/>
+      <c r="F464" s="15"/>
+      <c r="G464" s="15"/>
     </row>
     <row r="465" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A465" s="8" t="str">
+      <c r="A465" s="16" t="str">
         <f>IF(ISBLANK(B465),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B465))</f>
         <v/>
       </c>
-      <c r="B465" s="46"/>
-      <c r="C465" s="47"/>
-      <c r="D465" s="48"/>
-      <c r="E465" s="49"/>
-      <c r="F465" s="15"/>
-      <c r="G465" s="15"/>
+      <c r="B465" s="50"/>
+      <c r="C465" s="51"/>
+      <c r="D465" s="52"/>
+      <c r="E465" s="53"/>
+      <c r="F465" s="17"/>
+      <c r="G465" s="17"/>
     </row>
     <row r="466" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A466" s="16" t="str">
+      <c r="A466" s="8" t="str">
         <f>IF(ISBLANK(B466),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B466))</f>
         <v/>
       </c>
-      <c r="B466" s="50"/>
-      <c r="C466" s="51"/>
-      <c r="D466" s="52"/>
-      <c r="E466" s="53"/>
-      <c r="F466" s="17"/>
-      <c r="G466" s="17"/>
+      <c r="B466" s="46"/>
+      <c r="C466" s="47"/>
+      <c r="D466" s="48"/>
+      <c r="E466" s="49"/>
+      <c r="F466" s="15"/>
+      <c r="G466" s="15"/>
     </row>
     <row r="467" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A467" s="8" t="str">
+      <c r="A467" s="16" t="str">
         <f>IF(ISBLANK(B467),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B467))</f>
         <v/>
       </c>
-      <c r="B467" s="46"/>
-      <c r="C467" s="47"/>
-      <c r="D467" s="48"/>
-      <c r="E467" s="49"/>
-      <c r="F467" s="15"/>
-      <c r="G467" s="15"/>
+      <c r="B467" s="50"/>
+      <c r="C467" s="51"/>
+      <c r="D467" s="52"/>
+      <c r="E467" s="53"/>
+      <c r="F467" s="17"/>
+      <c r="G467" s="17"/>
     </row>
     <row r="468" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A468" s="16" t="str">
+      <c r="A468" s="8" t="str">
         <f>IF(ISBLANK(B468),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B468))</f>
         <v/>
       </c>
-      <c r="B468" s="50"/>
-      <c r="C468" s="51"/>
-      <c r="D468" s="52"/>
-      <c r="E468" s="53"/>
-      <c r="F468" s="17"/>
-      <c r="G468" s="17"/>
+      <c r="B468" s="46"/>
+      <c r="C468" s="47"/>
+      <c r="D468" s="48"/>
+      <c r="E468" s="49"/>
+      <c r="F468" s="15"/>
+      <c r="G468" s="15"/>
     </row>
     <row r="469" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A469" s="8" t="str">
+      <c r="A469" s="16" t="str">
         <f>IF(ISBLANK(B469),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B469))</f>
         <v/>
       </c>
-      <c r="B469" s="46"/>
-      <c r="C469" s="47"/>
-      <c r="D469" s="48"/>
-      <c r="E469" s="49"/>
-      <c r="F469" s="15"/>
-      <c r="G469" s="15"/>
+      <c r="B469" s="50"/>
+      <c r="C469" s="51"/>
+      <c r="D469" s="52"/>
+      <c r="E469" s="53"/>
+      <c r="F469" s="17"/>
+      <c r="G469" s="17"/>
     </row>
     <row r="470" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A470" s="16" t="str">
+      <c r="A470" s="8" t="str">
         <f>IF(ISBLANK(B470),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B470))</f>
         <v/>
       </c>
-      <c r="B470" s="50"/>
-      <c r="C470" s="51"/>
-      <c r="D470" s="52"/>
-      <c r="E470" s="53"/>
-      <c r="F470" s="17"/>
-      <c r="G470" s="17"/>
+      <c r="B470" s="46"/>
+      <c r="C470" s="47"/>
+      <c r="D470" s="48"/>
+      <c r="E470" s="49"/>
+      <c r="F470" s="15"/>
+      <c r="G470" s="15"/>
     </row>
     <row r="471" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A471" s="8" t="str">
+      <c r="A471" s="16" t="str">
         <f>IF(ISBLANK(B471),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B471))</f>
         <v/>
       </c>
-      <c r="B471" s="46"/>
-      <c r="C471" s="47"/>
-      <c r="D471" s="48"/>
-      <c r="E471" s="49"/>
-      <c r="F471" s="15"/>
-      <c r="G471" s="15"/>
+      <c r="B471" s="50"/>
+      <c r="C471" s="51"/>
+      <c r="D471" s="52"/>
+      <c r="E471" s="53"/>
+      <c r="F471" s="17"/>
+      <c r="G471" s="17"/>
     </row>
     <row r="472" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A472" s="16" t="str">
+      <c r="A472" s="8" t="str">
         <f>IF(ISBLANK(B472),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B472))</f>
         <v/>
       </c>
-      <c r="B472" s="50"/>
-      <c r="C472" s="51"/>
-      <c r="D472" s="52"/>
-      <c r="E472" s="53"/>
-      <c r="F472" s="17"/>
-      <c r="G472" s="17"/>
+      <c r="B472" s="46"/>
+      <c r="C472" s="47"/>
+      <c r="D472" s="48"/>
+      <c r="E472" s="49"/>
+      <c r="F472" s="15"/>
+      <c r="G472" s="15"/>
     </row>
     <row r="473" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A473" s="8" t="str">
+      <c r="A473" s="16" t="str">
         <f>IF(ISBLANK(B473),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B473))</f>
         <v/>
       </c>
-      <c r="B473" s="46"/>
-      <c r="C473" s="47"/>
-      <c r="D473" s="48"/>
-      <c r="E473" s="49"/>
-      <c r="F473" s="15"/>
-      <c r="G473" s="15"/>
+      <c r="B473" s="50"/>
+      <c r="C473" s="51"/>
+      <c r="D473" s="52"/>
+      <c r="E473" s="53"/>
+      <c r="F473" s="17"/>
+      <c r="G473" s="17"/>
     </row>
     <row r="474" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A474" s="16" t="str">
+      <c r="A474" s="8" t="str">
         <f>IF(ISBLANK(B474),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B474))</f>
         <v/>
       </c>
-      <c r="B474" s="50"/>
-      <c r="C474" s="51"/>
-      <c r="D474" s="52"/>
-      <c r="E474" s="53"/>
-      <c r="F474" s="17"/>
-      <c r="G474" s="17"/>
+      <c r="B474" s="46"/>
+      <c r="C474" s="47"/>
+      <c r="D474" s="48"/>
+      <c r="E474" s="49"/>
+      <c r="F474" s="15"/>
+      <c r="G474" s="15"/>
     </row>
     <row r="475" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A475" s="8" t="str">
+      <c r="A475" s="16" t="str">
         <f>IF(ISBLANK(B475),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B475))</f>
         <v/>
       </c>
-      <c r="B475" s="46"/>
-      <c r="C475" s="47"/>
-      <c r="D475" s="48"/>
-      <c r="E475" s="49"/>
-      <c r="F475" s="15"/>
-      <c r="G475" s="15"/>
+      <c r="B475" s="50"/>
+      <c r="C475" s="51"/>
+      <c r="D475" s="52"/>
+      <c r="E475" s="53"/>
+      <c r="F475" s="17"/>
+      <c r="G475" s="17"/>
     </row>
     <row r="476" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A476" s="16" t="str">
+      <c r="A476" s="8" t="str">
         <f>IF(ISBLANK(B476),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B476))</f>
         <v/>
       </c>
-      <c r="B476" s="50"/>
-      <c r="C476" s="51"/>
-      <c r="D476" s="52"/>
-      <c r="E476" s="53"/>
-      <c r="F476" s="17"/>
-      <c r="G476" s="17"/>
+      <c r="B476" s="46"/>
+      <c r="C476" s="47"/>
+      <c r="D476" s="48"/>
+      <c r="E476" s="49"/>
+      <c r="F476" s="15"/>
+      <c r="G476" s="15"/>
     </row>
     <row r="477" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A477" s="8" t="str">
+      <c r="A477" s="16" t="str">
         <f>IF(ISBLANK(B477),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B477))</f>
         <v/>
       </c>
-      <c r="B477" s="46"/>
-      <c r="C477" s="47"/>
-      <c r="D477" s="48"/>
-      <c r="E477" s="49"/>
-      <c r="F477" s="15"/>
-      <c r="G477" s="15"/>
+      <c r="B477" s="50"/>
+      <c r="C477" s="51"/>
+      <c r="D477" s="52"/>
+      <c r="E477" s="53"/>
+      <c r="F477" s="17"/>
+      <c r="G477" s="17"/>
     </row>
     <row r="478" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A478" s="16" t="str">
+      <c r="A478" s="8" t="str">
         <f>IF(ISBLANK(B478),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B478))</f>
         <v/>
       </c>
-      <c r="B478" s="50"/>
-      <c r="C478" s="51"/>
-      <c r="D478" s="52"/>
-      <c r="E478" s="53"/>
-      <c r="F478" s="17"/>
-      <c r="G478" s="17"/>
+      <c r="B478" s="46"/>
+      <c r="C478" s="47"/>
+      <c r="D478" s="48"/>
+      <c r="E478" s="49"/>
+      <c r="F478" s="15"/>
+      <c r="G478" s="15"/>
     </row>
     <row r="479" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A479" s="8" t="str">
+      <c r="A479" s="16" t="str">
         <f>IF(ISBLANK(B479),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B479))</f>
         <v/>
       </c>
-      <c r="B479" s="46"/>
-      <c r="C479" s="47"/>
-      <c r="D479" s="48"/>
-      <c r="E479" s="49"/>
-      <c r="F479" s="15"/>
-      <c r="G479" s="15"/>
+      <c r="B479" s="50"/>
+      <c r="C479" s="51"/>
+      <c r="D479" s="52"/>
+      <c r="E479" s="53"/>
+      <c r="F479" s="17"/>
+      <c r="G479" s="17"/>
     </row>
     <row r="480" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A480" s="16" t="str">
+      <c r="A480" s="8" t="str">
         <f>IF(ISBLANK(B480),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B480))</f>
         <v/>
       </c>
-      <c r="B480" s="50"/>
-      <c r="C480" s="51"/>
-      <c r="D480" s="52"/>
-      <c r="E480" s="53"/>
-      <c r="F480" s="17"/>
-      <c r="G480" s="17"/>
+      <c r="B480" s="46"/>
+      <c r="C480" s="47"/>
+      <c r="D480" s="48"/>
+      <c r="E480" s="49"/>
+      <c r="F480" s="15"/>
+      <c r="G480" s="15"/>
     </row>
     <row r="481" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A481" s="8" t="str">
+      <c r="A481" s="16" t="str">
         <f>IF(ISBLANK(B481),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B481))</f>
         <v/>
       </c>
-      <c r="B481" s="46"/>
-      <c r="C481" s="47"/>
-      <c r="D481" s="48"/>
-      <c r="E481" s="49"/>
-      <c r="F481" s="15"/>
-      <c r="G481" s="15"/>
+      <c r="B481" s="50"/>
+      <c r="C481" s="51"/>
+      <c r="D481" s="52"/>
+      <c r="E481" s="53"/>
+      <c r="F481" s="17"/>
+      <c r="G481" s="17"/>
     </row>
     <row r="482" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A482" s="16" t="str">
+      <c r="A482" s="8" t="str">
         <f>IF(ISBLANK(B482),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B482))</f>
         <v/>
       </c>
-      <c r="B482" s="50"/>
-      <c r="C482" s="51"/>
-      <c r="D482" s="52"/>
-      <c r="E482" s="53"/>
-      <c r="F482" s="17"/>
-      <c r="G482" s="17"/>
+      <c r="B482" s="46"/>
+      <c r="C482" s="47"/>
+      <c r="D482" s="48"/>
+      <c r="E482" s="49"/>
+      <c r="F482" s="15"/>
+      <c r="G482" s="15"/>
     </row>
     <row r="483" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A483" s="8" t="str">
+      <c r="A483" s="16" t="str">
         <f>IF(ISBLANK(B483),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B483))</f>
         <v/>
       </c>
-      <c r="B483" s="46"/>
-      <c r="C483" s="47"/>
-      <c r="D483" s="48"/>
-      <c r="E483" s="49"/>
-      <c r="F483" s="15"/>
-      <c r="G483" s="15"/>
+      <c r="B483" s="50"/>
+      <c r="C483" s="51"/>
+      <c r="D483" s="52"/>
+      <c r="E483" s="53"/>
+      <c r="F483" s="17"/>
+      <c r="G483" s="17"/>
     </row>
     <row r="484" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A484" s="16" t="str">
+      <c r="A484" s="8" t="str">
         <f>IF(ISBLANK(B484),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B484))</f>
         <v/>
       </c>
-      <c r="B484" s="50"/>
-      <c r="C484" s="51"/>
-      <c r="D484" s="52"/>
-      <c r="E484" s="53"/>
-      <c r="F484" s="17"/>
-      <c r="G484" s="17"/>
+      <c r="B484" s="46"/>
+      <c r="C484" s="47"/>
+      <c r="D484" s="48"/>
+      <c r="E484" s="49"/>
+      <c r="F484" s="15"/>
+      <c r="G484" s="15"/>
     </row>
     <row r="485" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A485" s="8" t="str">
+      <c r="A485" s="16" t="str">
         <f>IF(ISBLANK(B485),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B485))</f>
         <v/>
       </c>
-      <c r="B485" s="46"/>
-      <c r="C485" s="47"/>
-      <c r="D485" s="48"/>
-      <c r="E485" s="49"/>
-      <c r="F485" s="15"/>
-      <c r="G485" s="15"/>
+      <c r="B485" s="50"/>
+      <c r="C485" s="51"/>
+      <c r="D485" s="52"/>
+      <c r="E485" s="53"/>
+      <c r="F485" s="17"/>
+      <c r="G485" s="17"/>
     </row>
     <row r="486" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A486" s="16" t="str">
+      <c r="A486" s="8" t="str">
         <f>IF(ISBLANK(B486),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B486))</f>
         <v/>
       </c>
-      <c r="B486" s="50"/>
-      <c r="C486" s="51"/>
-      <c r="D486" s="52"/>
-      <c r="E486" s="53"/>
-      <c r="F486" s="17"/>
-      <c r="G486" s="17"/>
+      <c r="B486" s="46"/>
+      <c r="C486" s="47"/>
+      <c r="D486" s="48"/>
+      <c r="E486" s="49"/>
+      <c r="F486" s="15"/>
+      <c r="G486" s="15"/>
     </row>
     <row r="487" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A487" s="8" t="str">
+      <c r="A487" s="16" t="str">
         <f>IF(ISBLANK(B487),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B487))</f>
         <v/>
       </c>
-      <c r="B487" s="46"/>
-      <c r="C487" s="47"/>
-      <c r="D487" s="48"/>
-      <c r="E487" s="49"/>
-      <c r="F487" s="15"/>
-      <c r="G487" s="15"/>
+      <c r="B487" s="50"/>
+      <c r="C487" s="51"/>
+      <c r="D487" s="52"/>
+      <c r="E487" s="53"/>
+      <c r="F487" s="17"/>
+      <c r="G487" s="17"/>
     </row>
     <row r="488" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A488" s="16" t="str">
+      <c r="A488" s="8" t="str">
         <f>IF(ISBLANK(B488),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B488))</f>
         <v/>
       </c>
-      <c r="B488" s="50"/>
-      <c r="C488" s="51"/>
-      <c r="D488" s="52"/>
-      <c r="E488" s="53"/>
-      <c r="F488" s="17"/>
-      <c r="G488" s="17"/>
+      <c r="B488" s="46"/>
+      <c r="C488" s="47"/>
+      <c r="D488" s="48"/>
+      <c r="E488" s="49"/>
+      <c r="F488" s="15"/>
+      <c r="G488" s="15"/>
     </row>
     <row r="489" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A489" s="8" t="str">
+      <c r="A489" s="16" t="str">
         <f>IF(ISBLANK(B489),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B489))</f>
         <v/>
       </c>
-      <c r="B489" s="46"/>
-      <c r="C489" s="47"/>
-      <c r="D489" s="48"/>
-      <c r="E489" s="49"/>
-      <c r="F489" s="15"/>
-      <c r="G489" s="15"/>
+      <c r="B489" s="50"/>
+      <c r="C489" s="51"/>
+      <c r="D489" s="52"/>
+      <c r="E489" s="53"/>
+      <c r="F489" s="17"/>
+      <c r="G489" s="17"/>
     </row>
     <row r="490" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A490" s="16" t="str">
+      <c r="A490" s="8" t="str">
         <f>IF(ISBLANK(B490),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B490))</f>
         <v/>
       </c>
-      <c r="B490" s="50"/>
-      <c r="C490" s="51"/>
-      <c r="D490" s="52"/>
-      <c r="E490" s="53"/>
-      <c r="F490" s="17"/>
-      <c r="G490" s="17"/>
+      <c r="B490" s="46"/>
+      <c r="C490" s="47"/>
+      <c r="D490" s="48"/>
+      <c r="E490" s="49"/>
+      <c r="F490" s="15"/>
+      <c r="G490" s="15"/>
     </row>
     <row r="491" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A491" s="8" t="str">
+      <c r="A491" s="16" t="str">
         <f>IF(ISBLANK(B491),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B491))</f>
         <v/>
       </c>
-      <c r="B491" s="46"/>
-      <c r="C491" s="47"/>
-      <c r="D491" s="48"/>
-      <c r="E491" s="49"/>
-      <c r="F491" s="15"/>
-      <c r="G491" s="15"/>
+      <c r="B491" s="50"/>
+      <c r="C491" s="51"/>
+      <c r="D491" s="52"/>
+      <c r="E491" s="53"/>
+      <c r="F491" s="17"/>
+      <c r="G491" s="17"/>
     </row>
     <row r="492" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A492" s="16" t="str">
+      <c r="A492" s="8" t="str">
         <f>IF(ISBLANK(B492),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B492))</f>
         <v/>
       </c>
-      <c r="B492" s="50"/>
-      <c r="C492" s="51"/>
-      <c r="D492" s="52"/>
-      <c r="E492" s="53"/>
-      <c r="F492" s="17"/>
-      <c r="G492" s="17"/>
+      <c r="B492" s="46"/>
+      <c r="C492" s="47"/>
+      <c r="D492" s="48"/>
+      <c r="E492" s="49"/>
+      <c r="F492" s="15"/>
+      <c r="G492" s="15"/>
     </row>
     <row r="493" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A493" s="8" t="str">
+      <c r="A493" s="16" t="str">
         <f>IF(ISBLANK(B493),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B493))</f>
         <v/>
       </c>
-      <c r="B493" s="46"/>
-      <c r="C493" s="47"/>
-      <c r="D493" s="48"/>
-      <c r="E493" s="49"/>
-      <c r="F493" s="15"/>
-      <c r="G493" s="15"/>
+      <c r="B493" s="50"/>
+      <c r="C493" s="51"/>
+      <c r="D493" s="52"/>
+      <c r="E493" s="53"/>
+      <c r="F493" s="17"/>
+      <c r="G493" s="17"/>
     </row>
     <row r="494" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A494" s="16" t="str">
+      <c r="A494" s="8" t="str">
         <f>IF(ISBLANK(B494),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B494))</f>
         <v/>
       </c>
-      <c r="B494" s="50"/>
-      <c r="C494" s="51"/>
-      <c r="D494" s="52"/>
-      <c r="E494" s="53"/>
-      <c r="F494" s="17"/>
-      <c r="G494" s="17"/>
+      <c r="B494" s="46"/>
+      <c r="C494" s="47"/>
+      <c r="D494" s="48"/>
+      <c r="E494" s="49"/>
+      <c r="F494" s="15"/>
+      <c r="G494" s="15"/>
     </row>
     <row r="495" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A495" s="8" t="str">
+      <c r="A495" s="16" t="str">
         <f>IF(ISBLANK(B495),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B495))</f>
         <v/>
       </c>
-      <c r="B495" s="46"/>
-      <c r="C495" s="47"/>
-      <c r="D495" s="48"/>
-      <c r="E495" s="49"/>
-      <c r="F495" s="15"/>
-      <c r="G495" s="15"/>
+      <c r="B495" s="50"/>
+      <c r="C495" s="51"/>
+      <c r="D495" s="52"/>
+      <c r="E495" s="53"/>
+      <c r="F495" s="17"/>
+      <c r="G495" s="17"/>
     </row>
     <row r="496" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A496" s="16" t="str">
+      <c r="A496" s="8" t="str">
         <f>IF(ISBLANK(B496),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B496))</f>
         <v/>
       </c>
-      <c r="B496" s="50"/>
-      <c r="C496" s="51"/>
-      <c r="D496" s="52"/>
-      <c r="E496" s="53"/>
-      <c r="F496" s="17"/>
-      <c r="G496" s="17"/>
+      <c r="B496" s="46"/>
+      <c r="C496" s="47"/>
+      <c r="D496" s="48"/>
+      <c r="E496" s="49"/>
+      <c r="F496" s="15"/>
+      <c r="G496" s="15"/>
     </row>
     <row r="497" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A497" s="8" t="str">
+      <c r="A497" s="16" t="str">
         <f>IF(ISBLANK(B497),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B497))</f>
         <v/>
       </c>
-      <c r="B497" s="46"/>
-      <c r="C497" s="47"/>
-      <c r="D497" s="48"/>
-      <c r="E497" s="49"/>
-      <c r="F497" s="15"/>
-      <c r="G497" s="15"/>
+      <c r="B497" s="50"/>
+      <c r="C497" s="51"/>
+      <c r="D497" s="52"/>
+      <c r="E497" s="53"/>
+      <c r="F497" s="17"/>
+      <c r="G497" s="17"/>
     </row>
     <row r="498" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A498" s="16" t="str">
+      <c r="A498" s="8" t="str">
         <f>IF(ISBLANK(B498),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B498))</f>
         <v/>
       </c>
-      <c r="B498" s="50"/>
-      <c r="C498" s="51"/>
-      <c r="D498" s="52"/>
-      <c r="E498" s="53"/>
-      <c r="F498" s="17"/>
-      <c r="G498" s="17"/>
+      <c r="B498" s="46"/>
+      <c r="C498" s="47"/>
+      <c r="D498" s="48"/>
+      <c r="E498" s="49"/>
+      <c r="F498" s="15"/>
+      <c r="G498" s="15"/>
     </row>
     <row r="499" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A499" s="8" t="str">
+      <c r="A499" s="16" t="str">
         <f>IF(ISBLANK(B499),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B499))</f>
         <v/>
       </c>
-      <c r="B499" s="46"/>
-      <c r="C499" s="47"/>
-      <c r="D499" s="48"/>
-      <c r="E499" s="49"/>
-      <c r="F499" s="15"/>
-      <c r="G499" s="15"/>
+      <c r="B499" s="50"/>
+      <c r="C499" s="51"/>
+      <c r="D499" s="52"/>
+      <c r="E499" s="53"/>
+      <c r="F499" s="17"/>
+      <c r="G499" s="17"/>
     </row>
     <row r="500" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A500" s="16" t="str">
+      <c r="A500" s="8" t="str">
         <f>IF(ISBLANK(B500),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B500))</f>
         <v/>
       </c>
-      <c r="B500" s="50"/>
-      <c r="C500" s="51"/>
-      <c r="D500" s="52"/>
-      <c r="E500" s="53"/>
-      <c r="F500" s="17"/>
-      <c r="G500" s="17"/>
+      <c r="B500" s="46"/>
+      <c r="C500" s="47"/>
+      <c r="D500" s="48"/>
+      <c r="E500" s="49"/>
+      <c r="F500" s="15"/>
+      <c r="G500" s="15"/>
     </row>
     <row r="501" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A501" s="8" t="str">
+      <c r="A501" s="16" t="str">
         <f>IF(ISBLANK(B501),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B501))</f>
         <v/>
       </c>
-      <c r="B501" s="46"/>
-      <c r="C501" s="47"/>
-      <c r="D501" s="48"/>
-      <c r="E501" s="49"/>
-      <c r="F501" s="15"/>
-      <c r="G501" s="15"/>
+      <c r="B501" s="50"/>
+      <c r="C501" s="51"/>
+      <c r="D501" s="52"/>
+      <c r="E501" s="53"/>
+      <c r="F501" s="17"/>
+      <c r="G501" s="17"/>
     </row>
     <row r="502" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A502" s="16" t="str">
+      <c r="A502" s="8" t="str">
         <f>IF(ISBLANK(B502),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B502))</f>
         <v/>
       </c>
-      <c r="B502" s="50"/>
-      <c r="C502" s="51"/>
-      <c r="D502" s="52"/>
-      <c r="E502" s="53"/>
-      <c r="F502" s="17"/>
-      <c r="G502" s="17"/>
+      <c r="B502" s="46"/>
+      <c r="C502" s="47"/>
+      <c r="D502" s="48"/>
+      <c r="E502" s="49"/>
+      <c r="F502" s="15"/>
+      <c r="G502" s="15"/>
     </row>
     <row r="503" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A503" s="8" t="str">
+      <c r="A503" s="16" t="str">
         <f>IF(ISBLANK(B503),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B503))</f>
         <v/>
       </c>
-      <c r="B503" s="46"/>
-      <c r="C503" s="47"/>
-      <c r="D503" s="48"/>
-      <c r="E503" s="49"/>
-      <c r="F503" s="15"/>
-      <c r="G503" s="15"/>
+      <c r="B503" s="50"/>
+      <c r="C503" s="51"/>
+      <c r="D503" s="52"/>
+      <c r="E503" s="53"/>
+      <c r="F503" s="17"/>
+      <c r="G503" s="17"/>
     </row>
     <row r="504" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A504" s="16" t="str">
+      <c r="A504" s="8" t="str">
         <f>IF(ISBLANK(B504),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B504))</f>
         <v/>
       </c>
-      <c r="B504" s="50"/>
-      <c r="C504" s="51"/>
-      <c r="D504" s="52"/>
-      <c r="E504" s="53"/>
-      <c r="F504" s="17"/>
-      <c r="G504" s="17"/>
+      <c r="B504" s="46"/>
+      <c r="C504" s="47"/>
+      <c r="D504" s="48"/>
+      <c r="E504" s="49"/>
+      <c r="F504" s="15"/>
+      <c r="G504" s="15"/>
     </row>
     <row r="505" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A505" s="8" t="str">
+      <c r="A505" s="16" t="str">
         <f>IF(ISBLANK(B505),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B505))</f>
         <v/>
       </c>
-      <c r="B505" s="46"/>
-      <c r="C505" s="47"/>
-      <c r="D505" s="48"/>
-      <c r="E505" s="49"/>
-      <c r="F505" s="15"/>
-      <c r="G505" s="15"/>
+      <c r="B505" s="50"/>
+      <c r="C505" s="51"/>
+      <c r="D505" s="52"/>
+      <c r="E505" s="53"/>
+      <c r="F505" s="17"/>
+      <c r="G505" s="17"/>
     </row>
     <row r="506" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A506" s="16" t="str">
+      <c r="A506" s="8" t="str">
         <f>IF(ISBLANK(B506),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B506))</f>
         <v/>
       </c>
-      <c r="B506" s="50"/>
-      <c r="C506" s="51"/>
-      <c r="D506" s="52"/>
-      <c r="E506" s="53"/>
-      <c r="F506" s="17"/>
-      <c r="G506" s="17"/>
+      <c r="B506" s="46"/>
+      <c r="C506" s="47"/>
+      <c r="D506" s="48"/>
+      <c r="E506" s="49"/>
+      <c r="F506" s="15"/>
+      <c r="G506" s="15"/>
     </row>
     <row r="507" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A507" s="8" t="str">
+      <c r="A507" s="16" t="str">
         <f>IF(ISBLANK(B507),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B507))</f>
         <v/>
       </c>
-      <c r="B507" s="46"/>
-      <c r="C507" s="47"/>
-      <c r="D507" s="48"/>
-      <c r="E507" s="49"/>
-      <c r="F507" s="15"/>
-      <c r="G507" s="15"/>
+      <c r="B507" s="50"/>
+      <c r="C507" s="51"/>
+      <c r="D507" s="52"/>
+      <c r="E507" s="53"/>
+      <c r="F507" s="17"/>
+      <c r="G507" s="17"/>
     </row>
     <row r="508" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A508" s="16" t="str">
+      <c r="A508" s="8" t="str">
         <f>IF(ISBLANK(B508),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B508))</f>
         <v/>
       </c>
-      <c r="B508" s="50"/>
-      <c r="C508" s="51"/>
-      <c r="D508" s="52"/>
-      <c r="E508" s="53"/>
-      <c r="F508" s="17"/>
-      <c r="G508" s="17"/>
+      <c r="B508" s="46"/>
+      <c r="C508" s="47"/>
+      <c r="D508" s="48"/>
+      <c r="E508" s="49"/>
+      <c r="F508" s="15"/>
+      <c r="G508" s="15"/>
     </row>
     <row r="509" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A509" s="8" t="str">
+      <c r="A509" s="16" t="str">
         <f>IF(ISBLANK(B509),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B509))</f>
         <v/>
       </c>
-      <c r="B509" s="46"/>
-      <c r="C509" s="47"/>
-      <c r="D509" s="48"/>
-      <c r="E509" s="49"/>
-      <c r="F509" s="15"/>
-      <c r="G509" s="15"/>
+      <c r="B509" s="50"/>
+      <c r="C509" s="51"/>
+      <c r="D509" s="52"/>
+      <c r="E509" s="53"/>
+      <c r="F509" s="17"/>
+      <c r="G509" s="17"/>
     </row>
     <row r="510" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A510" s="16" t="str">
+      <c r="A510" s="8" t="str">
         <f>IF(ISBLANK(B510),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B510))</f>
         <v/>
       </c>
-      <c r="B510" s="50"/>
-      <c r="C510" s="51"/>
-      <c r="D510" s="52"/>
-      <c r="E510" s="53"/>
-      <c r="F510" s="17"/>
-      <c r="G510" s="17"/>
+      <c r="B510" s="46"/>
+      <c r="C510" s="47"/>
+      <c r="D510" s="48"/>
+      <c r="E510" s="49"/>
+      <c r="F510" s="15"/>
+      <c r="G510" s="15"/>
     </row>
     <row r="511" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A511" s="8" t="str">
+      <c r="A511" s="16" t="str">
         <f>IF(ISBLANK(B511),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B511))</f>
         <v/>
       </c>
-      <c r="B511" s="46"/>
-      <c r="C511" s="47"/>
-      <c r="D511" s="48"/>
-      <c r="E511" s="49"/>
-      <c r="F511" s="15"/>
-      <c r="G511" s="15"/>
+      <c r="B511" s="50"/>
+      <c r="C511" s="51"/>
+      <c r="D511" s="52"/>
+      <c r="E511" s="53"/>
+      <c r="F511" s="17"/>
+      <c r="G511" s="17"/>
     </row>
     <row r="512" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A512" s="16" t="str">
+      <c r="A512" s="8" t="str">
         <f>IF(ISBLANK(B512),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B512))</f>
         <v/>
       </c>
-      <c r="B512" s="50"/>
-      <c r="C512" s="51"/>
-      <c r="D512" s="52"/>
-      <c r="E512" s="53"/>
-      <c r="F512" s="17"/>
-      <c r="G512" s="17"/>
+      <c r="B512" s="46"/>
+      <c r="C512" s="47"/>
+      <c r="D512" s="48"/>
+      <c r="E512" s="49"/>
+      <c r="F512" s="15"/>
+      <c r="G512" s="15"/>
     </row>
     <row r="513" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A513" s="8" t="str">
+      <c r="A513" s="16" t="str">
         <f>IF(ISBLANK(B513),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B513))</f>
         <v/>
       </c>
-      <c r="B513" s="46"/>
-      <c r="C513" s="47"/>
-      <c r="D513" s="48"/>
-      <c r="E513" s="49"/>
-      <c r="F513" s="15"/>
-      <c r="G513" s="15"/>
+      <c r="B513" s="50"/>
+      <c r="C513" s="51"/>
+      <c r="D513" s="52"/>
+      <c r="E513" s="53"/>
+      <c r="F513" s="17"/>
+      <c r="G513" s="17"/>
     </row>
     <row r="514" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A514" s="16" t="str">
+      <c r="A514" s="8" t="str">
         <f>IF(ISBLANK(B514),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B514))</f>
         <v/>
       </c>
-      <c r="B514" s="50"/>
-      <c r="C514" s="51"/>
-      <c r="D514" s="52"/>
-      <c r="E514" s="53"/>
-      <c r="F514" s="17"/>
-      <c r="G514" s="17"/>
+      <c r="B514" s="46"/>
+      <c r="C514" s="47"/>
+      <c r="D514" s="48"/>
+      <c r="E514" s="49"/>
+      <c r="F514" s="15"/>
+      <c r="G514" s="15"/>
     </row>
     <row r="515" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A515" s="8" t="str">
+      <c r="A515" s="16" t="str">
         <f>IF(ISBLANK(B515),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B515))</f>
         <v/>
       </c>
-      <c r="B515" s="46"/>
-      <c r="C515" s="47"/>
-      <c r="D515" s="48"/>
-      <c r="E515" s="49"/>
-      <c r="F515" s="15"/>
-      <c r="G515" s="15"/>
+      <c r="B515" s="50"/>
+      <c r="C515" s="51"/>
+      <c r="D515" s="52"/>
+      <c r="E515" s="53"/>
+      <c r="F515" s="17"/>
+      <c r="G515" s="17"/>
     </row>
     <row r="516" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A516" s="16" t="str">
+      <c r="A516" s="8" t="str">
         <f>IF(ISBLANK(B516),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B516))</f>
         <v/>
       </c>
-      <c r="B516" s="50"/>
-      <c r="C516" s="51"/>
-      <c r="D516" s="52"/>
-      <c r="E516" s="53"/>
-      <c r="F516" s="17"/>
-      <c r="G516" s="17"/>
+      <c r="B516" s="46"/>
+      <c r="C516" s="47"/>
+      <c r="D516" s="48"/>
+      <c r="E516" s="49"/>
+      <c r="F516" s="15"/>
+      <c r="G516" s="15"/>
     </row>
     <row r="517" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A517" s="8" t="str">
+      <c r="A517" s="16" t="str">
         <f>IF(ISBLANK(B517),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B517))</f>
         <v/>
       </c>
-      <c r="B517" s="46"/>
-      <c r="C517" s="47"/>
-      <c r="D517" s="48"/>
-      <c r="E517" s="49"/>
-      <c r="F517" s="15"/>
-      <c r="G517" s="15"/>
+      <c r="B517" s="50"/>
+      <c r="C517" s="51"/>
+      <c r="D517" s="52"/>
+      <c r="E517" s="53"/>
+      <c r="F517" s="17"/>
+      <c r="G517" s="17"/>
     </row>
     <row r="518" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A518" s="16" t="str">
+      <c r="A518" s="8" t="str">
         <f>IF(ISBLANK(B518),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B518))</f>
         <v/>
       </c>
-      <c r="B518" s="50"/>
-      <c r="C518" s="51"/>
-      <c r="D518" s="52"/>
-      <c r="E518" s="53"/>
-      <c r="F518" s="17"/>
-      <c r="G518" s="17"/>
-    </row>
-    <row r="519" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A519" s="8" t="str">
-        <f>IF(ISBLANK(B519),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B519))</f>
-        <v/>
-      </c>
-      <c r="B519" s="46"/>
-      <c r="C519" s="47"/>
-      <c r="D519" s="48"/>
-      <c r="E519" s="49"/>
-      <c r="F519" s="15"/>
-      <c r="G519" s="15"/>
-    </row>
-    <row r="520" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A520" s="16" t="str">
-        <f>IF(ISBLANK(B520),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B520))</f>
-        <v/>
-      </c>
-      <c r="B520" s="50"/>
-      <c r="C520" s="51"/>
-      <c r="D520" s="52"/>
-      <c r="E520" s="53"/>
-      <c r="F520" s="17"/>
-      <c r="G520" s="17"/>
-    </row>
-    <row r="521" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A521" s="8" t="str">
-        <f>IF(ISBLANK(B521),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B521))</f>
-        <v/>
-      </c>
-      <c r="B521" s="46"/>
-      <c r="C521" s="47"/>
-      <c r="D521" s="48"/>
-      <c r="E521" s="49"/>
-      <c r="F521" s="15"/>
-      <c r="G521" s="15"/>
-    </row>
-    <row r="522" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A522" s="16" t="str">
-        <f>IF(ISBLANK(B522),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B522))</f>
-        <v/>
-      </c>
-      <c r="B522" s="50"/>
-      <c r="C522" s="51"/>
-      <c r="D522" s="52"/>
-      <c r="E522" s="53"/>
-      <c r="F522" s="17"/>
-      <c r="G522" s="17"/>
-    </row>
-    <row r="523" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A523" s="8" t="str">
-        <f>IF(ISBLANK(B523),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B523))</f>
-        <v/>
-      </c>
-      <c r="B523" s="46"/>
-      <c r="C523" s="47"/>
-      <c r="D523" s="48"/>
-      <c r="E523" s="49"/>
-      <c r="F523" s="15"/>
-      <c r="G523" s="15"/>
-    </row>
-    <row r="524" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A524" s="16" t="str">
-        <f>IF(ISBLANK(B524),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B524))</f>
-        <v/>
-      </c>
-      <c r="B524" s="50"/>
-      <c r="C524" s="51"/>
-      <c r="D524" s="52"/>
-      <c r="E524" s="53"/>
-      <c r="F524" s="17"/>
-      <c r="G524" s="17"/>
-    </row>
-    <row r="525" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A525" s="8" t="str">
-        <f>IF(ISBLANK(B525),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B525))</f>
-        <v/>
-      </c>
-      <c r="B525" s="46"/>
-      <c r="C525" s="47"/>
-      <c r="D525" s="48"/>
-      <c r="E525" s="49"/>
-      <c r="F525" s="15"/>
-      <c r="G525" s="15"/>
-    </row>
-    <row r="526" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A526" s="16" t="str">
-        <f>IF(ISBLANK(B526),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B526))</f>
-        <v/>
-      </c>
-      <c r="B526" s="50"/>
-      <c r="C526" s="51"/>
-      <c r="D526" s="52"/>
-      <c r="E526" s="53"/>
-      <c r="F526" s="17"/>
-      <c r="G526" s="17"/>
-    </row>
-    <row r="527" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A527" s="8" t="str">
-        <f>IF(ISBLANK(B527),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B527))</f>
-        <v/>
-      </c>
-      <c r="B527" s="46"/>
-      <c r="C527" s="47"/>
-      <c r="D527" s="48"/>
-      <c r="E527" s="49"/>
-      <c r="F527" s="15"/>
-      <c r="G527" s="15"/>
-    </row>
-    <row r="528" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A528" s="16" t="str">
-        <f>IF(ISBLANK(B528),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B528))</f>
-        <v/>
-      </c>
-      <c r="B528" s="50"/>
-      <c r="C528" s="51"/>
-      <c r="D528" s="52"/>
-      <c r="E528" s="53"/>
-      <c r="F528" s="17"/>
-      <c r="G528" s="17"/>
-    </row>
-    <row r="529" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A529" s="8" t="str">
-        <f>IF(ISBLANK(B529),"",_xlfn.ISOWEEKNUM('Journal de travail'!$B529))</f>
-        <v/>
-      </c>
-      <c r="B529" s="46"/>
-      <c r="C529" s="47"/>
-      <c r="D529" s="48"/>
-      <c r="E529" s="49"/>
-      <c r="F529" s="15"/>
-      <c r="G529" s="15"/>
+      <c r="B518" s="46"/>
+      <c r="C518" s="47"/>
+      <c r="D518" s="48"/>
+      <c r="E518" s="49"/>
+      <c r="F518" s="15"/>
+      <c r="G518" s="15"/>
     </row>
   </sheetData>
   <sheetProtection insertHyperlinks="0" sort="0" autoFilter="0"/>
@@ -8810,7 +8716,7 @@
     <mergeCell ref="C2:E2"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <conditionalFormatting sqref="E7:E529">
+  <conditionalFormatting sqref="E7:E518">
     <cfRule type="expression" dxfId="7" priority="9">
       <formula>$E7="Autre"</formula>
     </cfRule>
@@ -8837,13 +8743,13 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="3">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C529" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C7:C518" xr:uid="{9D52E29F-610D-40B2-B3CC-F94A741DD978}">
       <formula1>$N$7:$N$15</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D529" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D7:D518" xr:uid="{46510F84-8BCC-4BD6-9A19-9F03ACD74D05}">
       <formula1>$O$7:$O$18</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E529" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E7:E518" xr:uid="{5717AF9A-5C26-4256-9473-8948342ED6D3}">
       <formula1>$M$7:$M$15</formula1>
     </dataValidation>
   </dataValidations>
@@ -8888,11 +8794,11 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C4,'Journal de travail'!$C$7:$C$529)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C4,'Journal de travail'!$C$7:$C$518)*60</f>
         <v>0</v>
       </c>
       <c r="B4">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C4,'Journal de travail'!$D$7:$D$529)</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C4,'Journal de travail'!$D$7:$D$518)</f>
         <v>100</v>
       </c>
       <c r="C4" s="25" t="str">
@@ -8906,11 +8812,11 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C5,'Journal de travail'!$C$7:$C$529)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C5,'Journal de travail'!$C$7:$C$518)*60</f>
         <v>0</v>
       </c>
       <c r="B5">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C5,'Journal de travail'!$D$7:$D$529)</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C5,'Journal de travail'!$D$7:$D$518)</f>
         <v>145</v>
       </c>
       <c r="C5" s="41" t="str">
@@ -8924,11 +8830,11 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C6,'Journal de travail'!$C$7:$C$529)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C6,'Journal de travail'!$C$7:$C$518)*60</f>
         <v>0</v>
       </c>
       <c r="B6">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C6,'Journal de travail'!$D$7:$D$529)</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C6,'Journal de travail'!$D$7:$D$518)</f>
         <v>40</v>
       </c>
       <c r="C6" s="26" t="str">
@@ -8942,11 +8848,11 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C7,'Journal de travail'!$C$7:$C$529)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C7,'Journal de travail'!$C$7:$C$518)*60</f>
         <v>0</v>
       </c>
       <c r="B7">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C7,'Journal de travail'!$D$7:$D$529)</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C7,'Journal de travail'!$D$7:$D$518)</f>
         <v>70</v>
       </c>
       <c r="C7" s="27" t="str">
@@ -8960,11 +8866,11 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C8,'Journal de travail'!$C$7:$C$529)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C8,'Journal de travail'!$C$7:$C$518)*60</f>
         <v>0</v>
       </c>
       <c r="B8">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C8,'Journal de travail'!$D$7:$D$529)</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C8,'Journal de travail'!$D$7:$D$518)</f>
         <v>10</v>
       </c>
       <c r="C8" s="28" t="str">
@@ -8978,11 +8884,11 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C9,'Journal de travail'!$C$7:$C$529)*60</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C9,'Journal de travail'!$C$7:$C$518)*60</f>
         <v>0</v>
       </c>
       <c r="B9">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C9,'Journal de travail'!$D$7:$D$529)</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C9,'Journal de travail'!$D$7:$D$518)</f>
         <v>0</v>
       </c>
       <c r="C9" s="31" t="str">
@@ -8996,7 +8902,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B10">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C10,'Journal de travail'!$D$7:$D$529)</f>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C10,'Journal de travail'!$D$7:$D$518)</f>
         <v>0</v>
       </c>
       <c r="C10" s="37" t="str">
@@ -9010,8 +8916,8 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="B11">
-        <f>SUMIF('Journal de travail'!$E$7:$E$529,Analyse!C11,'Journal de travail'!$D$7:$D$529)</f>
-        <v>205</v>
+        <f>SUMIF('Journal de travail'!$E$7:$E$518,Analyse!C11,'Journal de travail'!$D$7:$D$518)</f>
+        <v>350</v>
       </c>
       <c r="C11" s="39" t="str">
         <f>'Journal de travail'!M15</f>
@@ -9019,7 +8925,7 @@
       </c>
       <c r="D11" s="33">
         <f t="shared" si="0"/>
-        <v>0.1423611111111111</v>
+        <v>0.24305555555555555</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -9028,7 +8934,7 @@
       </c>
       <c r="D12" s="34">
         <f>SUM(D4:D11)</f>
-        <v>0.39583333333333331</v>
+        <v>0.49652777777777779</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -9053,15 +8959,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D4F20F00DBE2EE49BE9523363A2DF18B" ma:contentTypeVersion="13" ma:contentTypeDescription="Crée un document." ma:contentTypeScope="" ma:versionID="313dbdbec26224d1c2bb7e3c488b2a4e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="99ffe1f3-7857-457f-add0-5bdef636f38d" xmlns:ns3="be0d3259-a7ce-4623-88ec-81594dfcbc1c" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4739345e3d2c6be79c5ae1a54d02a4a7" ns2:_="" ns3:_="">
     <xsd:import namespace="99ffe1f3-7857-457f-add0-5bdef636f38d"/>
@@ -9284,6 +9181,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0453EC0E-0298-408B-815C-A1500DB4F5E9}">
   <ds:schemaRefs>
@@ -9296,14 +9202,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F2FB702A-DCBD-43A8-A34C-6000FD8861AD}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -9320,4 +9218,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74326215-CB02-4E95-BFFB-9EC625B1BF0F}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>